--- a/Data/OneScenario/Instance_storage_costs_option3.xlsx
+++ b/Data/OneScenario/Instance_storage_costs_option3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/OneScenario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC1F217-032B-2B44-A8E0-02EEFEB74D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C056E96A-4F4E-DE45-9833-1B28D7804B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="23500" firstSheet="1" activeTab="14" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
+    <workbookView xWindow="-28800" yWindow="4100" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualisation" sheetId="7" r:id="rId1"/>
@@ -6452,7 +6452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B95C95-5100-B242-B62A-0A2629824349}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -8224,8 +8224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8447,7 +8447,8 @@
         <v>10</v>
       </c>
       <c r="N3" s="2">
-        <v>100</v>
+        <f>IF(C3="Market",100,0)</f>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <f>IF(C3="Market",0.374,0.375)</f>
@@ -8560,10 +8561,11 @@
         <v>10</v>
       </c>
       <c r="N4" s="2">
-        <v>100</v>
+        <f t="shared" ref="N4:N61" si="1">IF(C4="Market",100,0)</f>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:O61" si="1">IF(C4="Market",0.374,0.375)</f>
+        <f t="shared" ref="O4:O61" si="2">IF(C4="Market",0.374,0.375)</f>
         <v>0.375</v>
       </c>
       <c r="P4" s="2">
@@ -8600,38 +8602,38 @@
         <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <f t="shared" ref="AA4:AA61" si="2">M4</f>
+        <f t="shared" ref="AA4:AA61" si="3">M4</f>
         <v>10</v>
       </c>
       <c r="AB4" s="3">
         <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <f t="shared" ref="AC4:AC61" si="3">O4</f>
+        <f t="shared" ref="AC4:AC61" si="4">O4</f>
         <v>0.375</v>
       </c>
       <c r="AD4" s="3">
-        <f t="shared" ref="AD4:AD61" si="4">P4</f>
+        <f t="shared" ref="AD4:AD61" si="5">P4</f>
         <v>5</v>
       </c>
       <c r="AE4" s="3">
-        <f t="shared" ref="AE4:AE61" si="5">Q4</f>
+        <f t="shared" ref="AE4:AE61" si="6">Q4</f>
         <v>5</v>
       </c>
       <c r="AF4" s="3">
-        <f t="shared" ref="AF4:AF61" si="6">R4</f>
+        <f t="shared" ref="AF4:AF61" si="7">R4</f>
         <v>5.2</v>
       </c>
       <c r="AG4" s="3">
-        <f t="shared" ref="AG4:AG61" si="7">S4</f>
+        <f t="shared" ref="AG4:AG61" si="8">S4</f>
         <v>5.2</v>
       </c>
       <c r="AH4" s="3">
-        <f t="shared" ref="AH4:AH61" si="8">T4</f>
+        <f t="shared" ref="AH4:AH61" si="9">T4</f>
         <v>5.4</v>
       </c>
       <c r="AI4" s="3">
-        <f t="shared" ref="AI4:AI61" si="9">U4</f>
+        <f t="shared" ref="AI4:AI61" si="10">U4</f>
         <v>5.4</v>
       </c>
     </row>
@@ -8675,10 +8677,11 @@
         <v>10</v>
       </c>
       <c r="N5" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P5" s="2">
@@ -8715,38 +8718,38 @@
         <v>0</v>
       </c>
       <c r="AA5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB5" s="3">
         <v>0</v>
       </c>
       <c r="AC5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE5" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF5" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG5" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG5" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI5" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -8788,10 +8791,11 @@
         <v>10</v>
       </c>
       <c r="N6" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P6" s="2">
@@ -8828,38 +8832,38 @@
         <v>0</v>
       </c>
       <c r="AA6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB6" s="3">
         <v>0</v>
       </c>
       <c r="AC6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF6" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG6" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG6" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI6" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -8901,10 +8905,11 @@
         <v>10</v>
       </c>
       <c r="N7" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P7" s="2">
@@ -8941,38 +8946,38 @@
         <v>0</v>
       </c>
       <c r="AA7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB7" s="3">
         <v>0</v>
       </c>
       <c r="AC7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF7" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG7" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG7" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH7" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI7" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9016,10 +9021,11 @@
         <v>10</v>
       </c>
       <c r="N8" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P8" s="2">
@@ -9056,38 +9062,38 @@
         <v>0</v>
       </c>
       <c r="AA8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB8" s="3">
         <v>0</v>
       </c>
       <c r="AC8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF8" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG8" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG8" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI8" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9131,10 +9137,11 @@
         <v>10</v>
       </c>
       <c r="N9" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P9" s="2">
@@ -9171,38 +9178,38 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB9" s="3">
         <v>0</v>
       </c>
       <c r="AC9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF9" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG9" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG9" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI9" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9243,10 +9250,11 @@
         <v>10</v>
       </c>
       <c r="N10" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P10" s="2">
@@ -9283,38 +9291,38 @@
         <v>0</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB10" s="3">
         <v>0</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG10" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG10" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9356,10 +9364,11 @@
         <v>10</v>
       </c>
       <c r="N11" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P11" s="2">
@@ -9396,38 +9405,38 @@
         <v>0</v>
       </c>
       <c r="AA11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB11" s="3">
         <v>0</v>
       </c>
       <c r="AC11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF11" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG11" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG11" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9469,10 +9478,11 @@
         <v>10</v>
       </c>
       <c r="N12" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P12" s="2">
@@ -9509,38 +9519,38 @@
         <v>0</v>
       </c>
       <c r="AA12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB12" s="3">
         <v>0</v>
       </c>
       <c r="AC12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG12" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG12" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9582,10 +9592,11 @@
         <v>10</v>
       </c>
       <c r="N13" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P13" s="2">
@@ -9622,38 +9633,38 @@
         <v>0</v>
       </c>
       <c r="AA13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB13" s="3">
         <v>0</v>
       </c>
       <c r="AC13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF13" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG13" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG13" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9695,10 +9706,11 @@
         <v>10</v>
       </c>
       <c r="N14" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P14" s="2">
@@ -9735,38 +9747,38 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG14" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG14" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9810,10 +9822,11 @@
         <v>10</v>
       </c>
       <c r="N15" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P15" s="2">
@@ -9850,38 +9863,38 @@
         <v>0</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG15" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG15" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9923,10 +9936,11 @@
         <v>10</v>
       </c>
       <c r="N16" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P16" s="2">
@@ -9963,38 +9977,38 @@
         <v>0</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB16" s="3">
         <v>0</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG16" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG16" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10036,10 +10050,11 @@
         <v>10</v>
       </c>
       <c r="N17" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P17" s="2">
@@ -10076,38 +10091,38 @@
         <v>0</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB17" s="3">
         <v>0</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF17" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG17" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG17" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI17" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10149,10 +10164,11 @@
         <v>10</v>
       </c>
       <c r="N18" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P18" s="2">
@@ -10189,38 +10205,38 @@
         <v>0</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB18" s="3">
         <v>0</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG18" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG18" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10264,10 +10280,11 @@
         <v>10</v>
       </c>
       <c r="N19" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.374</v>
       </c>
       <c r="P19" s="2">
@@ -10304,38 +10321,38 @@
         <v>0</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB19" s="3">
         <v>0</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.374</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG19" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG19" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH19" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10379,10 +10396,11 @@
         <v>10</v>
       </c>
       <c r="N20" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.374</v>
       </c>
       <c r="P20" s="2">
@@ -10419,38 +10437,38 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.374</v>
       </c>
       <c r="AD20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF20" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG20" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG20" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10494,10 +10512,11 @@
         <v>10</v>
       </c>
       <c r="N21" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P21" s="2">
@@ -10534,38 +10553,38 @@
         <v>0</v>
       </c>
       <c r="AA21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB21" s="3">
         <v>0</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF21" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG21" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG21" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10607,10 +10626,11 @@
         <v>10</v>
       </c>
       <c r="N22" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P22" s="2">
@@ -10647,38 +10667,38 @@
         <v>0</v>
       </c>
       <c r="AA22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG22" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG22" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10722,10 +10742,11 @@
         <v>10</v>
       </c>
       <c r="N23" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.374</v>
       </c>
       <c r="P23" s="2">
@@ -10762,38 +10783,38 @@
         <v>0</v>
       </c>
       <c r="AA23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB23" s="3">
         <v>0</v>
       </c>
       <c r="AC23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.374</v>
       </c>
       <c r="AD23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF23" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG23" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG23" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10837,10 +10858,11 @@
         <v>10</v>
       </c>
       <c r="N24" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.374</v>
       </c>
       <c r="P24" s="2">
@@ -10877,38 +10899,38 @@
         <v>0</v>
       </c>
       <c r="AA24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
       <c r="AC24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.374</v>
       </c>
       <c r="AD24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF24" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG24" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG24" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH24" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10950,10 +10972,11 @@
         <v>10</v>
       </c>
       <c r="N25" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P25" s="2">
@@ -10990,38 +11013,38 @@
         <v>0</v>
       </c>
       <c r="AA25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB25" s="3">
         <v>0</v>
       </c>
       <c r="AC25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF25" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG25" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG25" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11063,10 +11086,11 @@
         <v>10</v>
       </c>
       <c r="N26" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P26" s="2">
@@ -11103,38 +11127,38 @@
         <v>0</v>
       </c>
       <c r="AA26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
       <c r="AC26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG26" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG26" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11178,10 +11202,11 @@
         <v>10</v>
       </c>
       <c r="N27" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P27" s="2">
@@ -11218,38 +11243,38 @@
         <v>0</v>
       </c>
       <c r="AA27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB27" s="3">
         <v>0</v>
       </c>
       <c r="AC27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF27" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG27" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG27" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI27" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11293,10 +11318,11 @@
         <v>10</v>
       </c>
       <c r="N28" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P28" s="2">
@@ -11333,38 +11359,38 @@
         <v>0</v>
       </c>
       <c r="AA28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB28" s="3">
         <v>0</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF28" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG28" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG28" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11408,10 +11434,11 @@
         <v>10</v>
       </c>
       <c r="N29" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P29" s="2">
@@ -11448,38 +11475,38 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
       <c r="AC29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF29" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG29" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG29" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11521,10 +11548,11 @@
         <v>10</v>
       </c>
       <c r="N30" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P30" s="2">
@@ -11561,38 +11589,38 @@
         <v>0</v>
       </c>
       <c r="AA30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB30" s="3">
         <v>0</v>
       </c>
       <c r="AC30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF30" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG30" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG30" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11634,10 +11662,11 @@
         <v>10</v>
       </c>
       <c r="N31" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P31" s="2">
@@ -11674,38 +11703,38 @@
         <v>0</v>
       </c>
       <c r="AA31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB31" s="3">
         <v>0</v>
       </c>
       <c r="AC31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF31" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG31" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG31" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH31" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11747,10 +11776,11 @@
         <v>10</v>
       </c>
       <c r="N32" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P32" s="2">
@@ -11787,38 +11817,38 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
       <c r="AC32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF32" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG32" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG32" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI32" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11862,10 +11892,11 @@
         <v>10</v>
       </c>
       <c r="N33" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P33" s="2">
@@ -11902,38 +11933,38 @@
         <v>0</v>
       </c>
       <c r="AA33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB33" s="3">
         <v>0</v>
       </c>
       <c r="AC33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF33" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG33" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG33" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11975,10 +12006,11 @@
         <v>10</v>
       </c>
       <c r="N34" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P34" s="2">
@@ -12015,38 +12047,38 @@
         <v>0</v>
       </c>
       <c r="AA34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB34" s="3">
         <v>0</v>
       </c>
       <c r="AC34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF34" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG34" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG34" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI34" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12088,10 +12120,11 @@
         <v>10</v>
       </c>
       <c r="N35" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P35" s="2">
@@ -12128,38 +12161,38 @@
         <v>0</v>
       </c>
       <c r="AA35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB35" s="3">
         <v>0</v>
       </c>
       <c r="AC35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF35" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG35" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG35" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI35" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12203,10 +12236,11 @@
         <v>10</v>
       </c>
       <c r="N36" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P36" s="2">
@@ -12243,38 +12277,38 @@
         <v>0</v>
       </c>
       <c r="AA36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB36" s="3">
         <v>0</v>
       </c>
       <c r="AC36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF36" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG36" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG36" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI36" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12318,10 +12352,11 @@
         <v>10</v>
       </c>
       <c r="N37" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P37" s="2">
@@ -12358,38 +12393,38 @@
         <v>0</v>
       </c>
       <c r="AA37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB37" s="3">
         <v>0</v>
       </c>
       <c r="AC37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF37" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG37" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG37" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI37" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12431,10 +12466,11 @@
         <v>10</v>
       </c>
       <c r="N38" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P38" s="2">
@@ -12471,38 +12507,38 @@
         <v>0</v>
       </c>
       <c r="AA38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB38" s="3">
         <v>0</v>
       </c>
       <c r="AC38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF38" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG38" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG38" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH38" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI38" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12544,10 +12580,11 @@
         <v>10</v>
       </c>
       <c r="N39" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P39" s="2">
@@ -12584,38 +12621,38 @@
         <v>0</v>
       </c>
       <c r="AA39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB39" s="3">
         <v>0</v>
       </c>
       <c r="AC39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF39" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG39" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG39" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI39" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12657,10 +12694,11 @@
         <v>10</v>
       </c>
       <c r="N40" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P40" s="2">
@@ -12697,38 +12735,38 @@
         <v>0</v>
       </c>
       <c r="AA40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB40" s="3">
         <v>0</v>
       </c>
       <c r="AC40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF40" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG40" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG40" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI40" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12772,10 +12810,11 @@
         <v>10</v>
       </c>
       <c r="N41" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P41" s="2">
@@ -12812,38 +12851,38 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF41" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG41" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG41" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH41" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12885,10 +12924,11 @@
         <v>10</v>
       </c>
       <c r="N42" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P42" s="2">
@@ -12925,38 +12965,38 @@
         <v>0</v>
       </c>
       <c r="AA42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB42" s="3">
         <v>0</v>
       </c>
       <c r="AC42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF42" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG42" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG42" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI42" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13000,10 +13040,11 @@
         <v>10</v>
       </c>
       <c r="N43" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P43" s="2">
@@ -13040,38 +13081,38 @@
         <v>0</v>
       </c>
       <c r="AA43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
       </c>
       <c r="AC43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF43" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG43" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG43" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH43" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI43" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13115,10 +13156,11 @@
         <v>10</v>
       </c>
       <c r="N44" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P44" s="2">
@@ -13155,38 +13197,38 @@
         <v>0</v>
       </c>
       <c r="AA44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB44" s="3">
         <v>0</v>
       </c>
       <c r="AC44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF44" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG44" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG44" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH44" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI44" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13228,10 +13270,11 @@
         <v>10</v>
       </c>
       <c r="N45" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P45" s="2">
@@ -13268,38 +13311,38 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
       <c r="AC45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF45" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG45" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG45" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH45" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI45" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13341,10 +13384,11 @@
         <v>10</v>
       </c>
       <c r="N46" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P46" s="2">
@@ -13381,38 +13425,38 @@
         <v>0</v>
       </c>
       <c r="AA46" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB46" s="3">
         <v>0</v>
       </c>
       <c r="AC46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF46" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG46" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG46" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH46" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI46" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13454,10 +13498,11 @@
         <v>10</v>
       </c>
       <c r="N47" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P47" s="2">
@@ -13494,38 +13539,38 @@
         <v>0</v>
       </c>
       <c r="AA47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB47" s="3">
         <v>0</v>
       </c>
       <c r="AC47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF47" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG47" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG47" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH47" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13567,10 +13612,11 @@
         <v>10</v>
       </c>
       <c r="N48" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P48" s="2">
@@ -13607,38 +13653,38 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB48" s="3">
         <v>0</v>
       </c>
       <c r="AC48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF48" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG48" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG48" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI48" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13682,10 +13728,11 @@
         <v>10</v>
       </c>
       <c r="N49" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.374</v>
       </c>
       <c r="P49" s="2">
@@ -13722,38 +13769,38 @@
         <v>0</v>
       </c>
       <c r="AA49" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB49" s="3">
         <v>0</v>
       </c>
       <c r="AC49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.374</v>
       </c>
       <c r="AD49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF49" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG49" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG49" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH49" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13797,10 +13844,11 @@
         <v>10</v>
       </c>
       <c r="N50" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P50" s="2">
@@ -13837,38 +13885,38 @@
         <v>0</v>
       </c>
       <c r="AA50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB50" s="3">
         <v>0</v>
       </c>
       <c r="AC50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF50" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG50" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG50" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI50" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13912,10 +13960,11 @@
         <v>10</v>
       </c>
       <c r="N51" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P51" s="2">
@@ -13952,38 +14001,38 @@
         <v>0</v>
       </c>
       <c r="AA51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB51" s="3">
         <v>0</v>
       </c>
       <c r="AC51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE51" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF51" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG51" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG51" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH51" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14025,10 +14074,11 @@
         <v>10</v>
       </c>
       <c r="N52" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P52" s="2">
@@ -14065,38 +14115,38 @@
         <v>0</v>
       </c>
       <c r="AA52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
       </c>
       <c r="AC52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD52" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF52" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG52" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG52" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH52" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI52" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14138,10 +14188,11 @@
         <v>10</v>
       </c>
       <c r="N53" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P53" s="2">
@@ -14178,38 +14229,38 @@
         <v>0</v>
       </c>
       <c r="AA53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB53" s="3">
         <v>0</v>
       </c>
       <c r="AC53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD53" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF53" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG53" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG53" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH53" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI53" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14253,10 +14304,11 @@
         <v>10</v>
       </c>
       <c r="N54" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.374</v>
       </c>
       <c r="P54" s="2">
@@ -14293,38 +14345,38 @@
         <v>0</v>
       </c>
       <c r="AA54" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB54" s="3">
         <v>0</v>
       </c>
       <c r="AC54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.374</v>
       </c>
       <c r="AD54" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE54" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF54" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG54" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG54" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH54" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14366,10 +14418,11 @@
         <v>10</v>
       </c>
       <c r="N55" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P55" s="2">
@@ -14406,38 +14459,38 @@
         <v>0</v>
       </c>
       <c r="AA55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB55" s="3">
         <v>0</v>
       </c>
       <c r="AC55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF55" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG55" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG55" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH55" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI55" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14479,10 +14532,11 @@
         <v>10</v>
       </c>
       <c r="N56" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O56" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P56" s="2">
@@ -14519,38 +14573,38 @@
         <v>0</v>
       </c>
       <c r="AA56" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB56" s="3">
         <v>0</v>
       </c>
       <c r="AC56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD56" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE56" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF56" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG56" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG56" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH56" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI56" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14594,10 +14648,11 @@
         <v>10</v>
       </c>
       <c r="N57" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O57" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.374</v>
       </c>
       <c r="P57" s="2">
@@ -14634,38 +14689,38 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB57" s="3">
         <v>0</v>
       </c>
       <c r="AC57" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.374</v>
       </c>
       <c r="AD57" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE57" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF57" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG57" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG57" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH57" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI57" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14709,10 +14764,11 @@
         <v>10</v>
       </c>
       <c r="N58" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O58" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P58" s="2">
@@ -14749,38 +14805,38 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
       <c r="AC58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD58" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE58" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF58" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG58" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG58" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH58" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI58" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14822,10 +14878,11 @@
         <v>10</v>
       </c>
       <c r="N59" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O59" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P59" s="2">
@@ -14862,38 +14919,38 @@
         <v>0</v>
       </c>
       <c r="AA59" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB59" s="3">
         <v>0</v>
       </c>
       <c r="AC59" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD59" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE59" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF59" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG59" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG59" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH59" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI59" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14937,10 +14994,11 @@
         <v>10</v>
       </c>
       <c r="N60" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O60" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.374</v>
       </c>
       <c r="P60" s="2">
@@ -14977,38 +15035,38 @@
         <v>0</v>
       </c>
       <c r="AA60" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB60" s="3">
         <v>0</v>
       </c>
       <c r="AC60" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.374</v>
       </c>
       <c r="AD60" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE60" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF60" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG60" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG60" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH60" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI60" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -15050,10 +15108,11 @@
         <v>10</v>
       </c>
       <c r="N61" s="2">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O61" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="P61" s="2">
@@ -15090,38 +15149,38 @@
         <v>0</v>
       </c>
       <c r="AA61" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="AD61" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE61" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AF61" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG61" s="3">
         <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
+      <c r="AG61" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2</v>
+      </c>
       <c r="AH61" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="AI61" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
     </row>
@@ -34345,7 +34404,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34454,7 +34513,7 @@
         <v>343</v>
       </c>
       <c r="B13">
-        <v>1.1000000000000001</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -34462,7 +34521,7 @@
         <v>344</v>
       </c>
       <c r="B14">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
     </row>
   </sheetData>

--- a/Data/OneScenario/Instance_storage_costs_option3.xlsx
+++ b/Data/OneScenario/Instance_storage_costs_option3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/OneScenario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C056E96A-4F4E-DE45-9833-1B28D7804B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2170F975-BE6B-C04B-AC8B-39CBA2FAF302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4100" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="9" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualisation" sheetId="7" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="346">
   <si>
     <t>ID</t>
   </si>
@@ -1149,6 +1149,9 @@
   <si>
     <t>Increase storage costs stage 3</t>
   </si>
+  <si>
+    <t>Length</t>
+  </si>
 </sst>
 </file>
 
@@ -1512,7 +1515,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -1608,6 +1611,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1620,15 +1632,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -2135,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902688A-D2A3-854F-B341-C0BEC53AF991}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2159,7 +2164,7 @@
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2211,8 +2216,11 @@
       <c r="Q1" s="54" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S1" s="69" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2254,10 +2262,12 @@
         <v>7</v>
       </c>
       <c r="M2" s="2">
-        <v>1E-3</v>
+        <f>S2</f>
+        <v>0.01</v>
       </c>
       <c r="N2" s="3">
-        <v>1E-3</v>
+        <f>S2</f>
+        <v>0.01</v>
       </c>
       <c r="O2" t="str" cm="1">
         <f t="array" ref="O2">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K2,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K2,5), ",",".")</f>
@@ -2271,8 +2281,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K2,4), INDEX(Nodes!$A$3:$E$64,Arcs!L2,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K2,5), INDEX(Nodes!$A$3:$E$64,Arcs!L2,5)), ",", ".")</f>
         <v>2.96794024746388 60.5519809989487</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2314,10 +2327,12 @@
         <v>14</v>
       </c>
       <c r="M3" s="2">
-        <v>1E-3</v>
+        <f t="shared" ref="M3:M62" si="2">S3</f>
+        <v>0.01</v>
       </c>
       <c r="N3" s="3">
-        <v>1E-3</v>
+        <f t="shared" ref="N3:N62" si="3">S3</f>
+        <v>0.01</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" ref="O3">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K3,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K3,5), ",",".")</f>
@@ -2331,8 +2346,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K3,4), INDEX(Nodes!$A$3:$E$64,Arcs!L3,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K3,5), INDEX(Nodes!$A$3:$E$64,Arcs!L3,5)), ",", ".")</f>
         <v>7.11614205264601 64.2919112956052</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2374,10 +2392,12 @@
         <v>36</v>
       </c>
       <c r="M4" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.70699999999999996</v>
       </c>
       <c r="N4" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.70699999999999996</v>
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" ref="O4">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K4,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K4,5), ",",".")</f>
@@ -2391,8 +2411,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K4,4), INDEX(Nodes!$A$3:$E$64,Arcs!L4,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K4,5), INDEX(Nodes!$A$3:$E$64,Arcs!L4,5)), ",", ".")</f>
         <v>5.10073123031673 60.7874221331929</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S4">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2434,10 +2457,12 @@
         <v>23</v>
       </c>
       <c r="M5" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.4002</v>
       </c>
       <c r="N5" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.4002</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" ref="O5">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K5,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K5,5), ",",".")</f>
@@ -2451,8 +2476,12 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K5,4), INDEX(Nodes!$A$3:$E$64,Arcs!L5,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K5,5), INDEX(Nodes!$A$3:$E$64,Arcs!L5,5)), ",", ".")</f>
         <v>3.34351308302685 56.9475590087063</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S5">
+        <f>0.667*0.6</f>
+        <v>0.4002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2494,10 +2523,12 @@
         <v>21</v>
       </c>
       <c r="M6" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.26680000000000004</v>
       </c>
       <c r="N6" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.26680000000000004</v>
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" ref="O6">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K6,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K6,5), ",",".")</f>
@@ -2511,8 +2542,12 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K6,4), INDEX(Nodes!$A$3:$E$64,Arcs!L6,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K6,5), INDEX(Nodes!$A$3:$E$64,Arcs!L6,5)), ",", ".")</f>
         <v>5.77452100000005 54.6933345000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S6">
+        <f>0.667*0.4</f>
+        <v>0.26680000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2554,10 +2589,12 @@
         <v>5</v>
       </c>
       <c r="M7" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.44</v>
       </c>
       <c r="N7" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.44</v>
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" ref="O7">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K7,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K7,5), ",",".")</f>
@@ -2571,8 +2608,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K7,4), INDEX(Nodes!$A$3:$E$64,Arcs!L7,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K7,5), INDEX(Nodes!$A$3:$E$64,Arcs!L7,5)), ",", ".")</f>
         <v>6.00836066672178 57.4910578139182</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S7">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2614,10 +2654,12 @@
         <v>21</v>
       </c>
       <c r="M8" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.22</v>
       </c>
       <c r="N8" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.22</v>
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" ref="O8">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K8,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K8,5), ",",".")</f>
@@ -2631,8 +2673,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K8,4), INDEX(Nodes!$A$3:$E$64,Arcs!L8,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K8,5), INDEX(Nodes!$A$3:$E$64,Arcs!L8,5)), ",", ".")</f>
         <v>6.91511000000002 54.69485</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S8">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2658,7 +2703,7 @@
         <f t="shared" si="1"/>
         <v>LINESTRING(2.46440416605363 58.1881490174125,2.35855658302684 54.6172775087063,2.25270900000004 51.046406)</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="68">
         <v>54.2</v>
       </c>
       <c r="J9" s="1" t="str">
@@ -2674,10 +2719,12 @@
         <v>17</v>
       </c>
       <c r="M9" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.84</v>
       </c>
       <c r="N9" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.84</v>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" ref="O9">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K9,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K9,5), ",",".")</f>
@@ -2691,8 +2738,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K9,4), INDEX(Nodes!$A$3:$E$64,Arcs!L9,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K9,5), INDEX(Nodes!$A$3:$E$64,Arcs!L9,5)), ",", ".")</f>
         <v>2.35855658302684 54.6172775087063</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S9">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2734,10 +2784,12 @@
         <v>37</v>
       </c>
       <c r="M10" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.14699999999999999</v>
       </c>
       <c r="N10" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.14699999999999999</v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" ref="O10">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K10,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K10,5), ",",".")</f>
@@ -2751,8 +2803,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K10,4), INDEX(Nodes!$A$3:$E$64,Arcs!L10,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K10,5), INDEX(Nodes!$A$3:$E$64,Arcs!L10,5)), ",", ".")</f>
         <v>3.67283754339515 60.8114652109992</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2794,10 +2849,12 @@
         <v>51</v>
       </c>
       <c r="M11" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.627</v>
       </c>
       <c r="N11" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.627</v>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" ref="O11">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K11,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K11,5), ",",".")</f>
@@ -2811,8 +2868,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K11,4), INDEX(Nodes!$A$3:$E$64,Arcs!L11,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K11,5), INDEX(Nodes!$A$3:$E$64,Arcs!L11,5)), ",", ".")</f>
         <v>4.43081880699815 60.6082514294188</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S11">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2854,10 +2914,12 @@
         <v>18</v>
       </c>
       <c r="M12" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.54300000000000004</v>
       </c>
       <c r="N12" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.54300000000000004</v>
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" ref="O12">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K12,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K12,5), ",",".")</f>
@@ -2871,8 +2933,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K12,4), INDEX(Nodes!$A$3:$E$64,Arcs!L12,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K12,5), INDEX(Nodes!$A$3:$E$64,Arcs!L12,5)), ",", ".")</f>
         <v>1.01594869849812 56.0120875869188</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S12">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2914,10 +2979,12 @@
         <v>42</v>
       </c>
       <c r="M13" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.128</v>
       </c>
       <c r="N13" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.128</v>
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" ref="O13">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K13,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K13,5), ",",".")</f>
@@ -2931,8 +2998,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K13,4), INDEX(Nodes!$A$3:$E$64,Arcs!L13,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K13,5), INDEX(Nodes!$A$3:$E$64,Arcs!L13,5)), ",", ".")</f>
         <v>7.44000255895174 65.5569234497045</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S13">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2974,10 +3044,12 @@
         <v>20</v>
       </c>
       <c r="M14" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.02</v>
       </c>
       <c r="N14" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.02</v>
       </c>
       <c r="O14" t="str" cm="1">
         <f t="array" ref="O14">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K14,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K14,5), ",",".")</f>
@@ -2991,8 +3063,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K14,4), INDEX(Nodes!$A$3:$E$64,Arcs!L14,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K14,5), INDEX(Nodes!$A$3:$E$64,Arcs!L14,5)), ",", ".")</f>
         <v>3.28025150000001 56.5201845</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3034,10 +3109,12 @@
         <v>4</v>
       </c>
       <c r="M15" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.14366666666666666</v>
       </c>
       <c r="N15" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.14366666666666666</v>
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" ref="O15">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K15,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K15,5), ",",".")</f>
@@ -3051,8 +3128,12 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K15,4), INDEX(Nodes!$A$3:$E$64,Arcs!L15,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K15,5), INDEX(Nodes!$A$3:$E$64,Arcs!L15,5)), ",", ".")</f>
         <v>3.94372505908058 55.9746756858192</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S15">
+        <f>0.431/3</f>
+        <v>0.14366666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3094,10 +3175,12 @@
         <v>30</v>
       </c>
       <c r="M16" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.14366666666666666</v>
       </c>
       <c r="N16" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.14366666666666666</v>
       </c>
       <c r="O16" t="str" cm="1">
         <f t="array" ref="O16">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K16,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K16,5), ",",".")</f>
@@ -3111,8 +3194,12 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K16,4), INDEX(Nodes!$A$3:$E$64,Arcs!L16,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K16,5), INDEX(Nodes!$A$3:$E$64,Arcs!L16,5)), ",", ".")</f>
         <v>5.2987903360241 54.982391852912</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S16">
+        <f>0.431/3</f>
+        <v>0.14366666666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3154,10 +3241,12 @@
         <v>22</v>
       </c>
       <c r="M17" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.14366666666666666</v>
       </c>
       <c r="N17" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.14366666666666666</v>
       </c>
       <c r="O17" t="str" cm="1">
         <f t="array" ref="O17">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K17,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K17,5), ",",".")</f>
@@ -3171,8 +3260,12 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K17,4), INDEX(Nodes!$A$3:$E$64,Arcs!L17,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K17,5), INDEX(Nodes!$A$3:$E$64,Arcs!L17,5)), ",", ".")</f>
         <v>6.61496177694355 53.9260006670928</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S17">
+        <f>0.431/3</f>
+        <v>0.14366666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3214,10 +3307,12 @@
         <v>33</v>
       </c>
       <c r="M18" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.109</v>
       </c>
       <c r="N18" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.109</v>
       </c>
       <c r="O18" t="str" cm="1">
         <f t="array" ref="O18">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K18,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K18,5), ",",".")</f>
@@ -3231,8 +3326,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K18,4), INDEX(Nodes!$A$3:$E$64,Arcs!L18,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K18,5), INDEX(Nodes!$A$3:$E$64,Arcs!L18,5)), ",", ".")</f>
         <v>2.52963583723616 60.0289879024106</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S18">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3274,10 +3372,12 @@
         <v>36</v>
       </c>
       <c r="M19" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.153</v>
       </c>
       <c r="N19" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.153</v>
       </c>
       <c r="O19" t="str" cm="1">
         <f t="array" ref="O19">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K19,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K19,5), ",",".")</f>
@@ -3291,8 +3391,12 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K19,4), INDEX(Nodes!$A$3:$E$64,Arcs!L19,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K19,5), INDEX(Nodes!$A$3:$E$64,Arcs!L19,5)), ",", ".")</f>
         <v>3.67942866672181 60.2289728139182</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S19">
+        <f>0.306/2</f>
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3334,10 +3438,12 @@
         <v>16</v>
       </c>
       <c r="M20" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.155</v>
       </c>
       <c r="N20" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.155</v>
       </c>
       <c r="O20" t="str" cm="1">
         <f t="array" ref="O20">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K20,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K20,5), ",",".")</f>
@@ -3351,8 +3457,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K20,4), INDEX(Nodes!$A$3:$E$64,Arcs!L20,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K20,5), INDEX(Nodes!$A$3:$E$64,Arcs!L20,5)), ",", ".")</f>
         <v>2.35412777628591 58.8775735508799</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S20">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3394,10 +3503,12 @@
         <v>16</v>
       </c>
       <c r="M21" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.22800000000000001</v>
       </c>
       <c r="N21" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.22800000000000001</v>
       </c>
       <c r="O21" t="str" cm="1">
         <f t="array" ref="O21">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K21,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K21,5), ",",".")</f>
@@ -3411,8 +3522,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K21,4), INDEX(Nodes!$A$3:$E$64,Arcs!L21,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K21,5), INDEX(Nodes!$A$3:$E$64,Arcs!L21,5)), ",", ".")</f>
         <v>3.99332715402322 58.7282624284256</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S21">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3454,10 +3568,12 @@
         <v>43</v>
       </c>
       <c r="M22" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.20300000000000001</v>
       </c>
       <c r="N22" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.20300000000000001</v>
       </c>
       <c r="O22" t="str" cm="1">
         <f t="array" ref="O22">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K22,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K22,5), ",",".")</f>
@@ -3471,8 +3587,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K22,4), INDEX(Nodes!$A$3:$E$64,Arcs!L22,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K22,5), INDEX(Nodes!$A$3:$E$64,Arcs!L22,5)), ",", ".")</f>
         <v>2.90211798730145 57.3373891145074</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S22">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3514,10 +3633,12 @@
         <v>53</v>
       </c>
       <c r="M23" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.153</v>
       </c>
       <c r="N23" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.153</v>
       </c>
       <c r="O23" t="str" cm="1">
         <f t="array" ref="O23">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K23,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K23,5), ",",".")</f>
@@ -3531,8 +3652,12 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K23,4), INDEX(Nodes!$A$3:$E$64,Arcs!L23,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K23,5), INDEX(Nodes!$A$3:$E$64,Arcs!L23,5)), ",", ".")</f>
         <v>1.83873088879207 61.1941375238008</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S23">
+        <f>0.306/2</f>
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3574,10 +3699,12 @@
         <v>24</v>
       </c>
       <c r="M24" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.3E-2</v>
       </c>
       <c r="N24" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3E-2</v>
       </c>
       <c r="O24" t="str" cm="1">
         <f t="array" ref="O24">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K24,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K24,5), ",",".")</f>
@@ -3591,8 +3718,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K24,4), INDEX(Nodes!$A$3:$E$64,Arcs!L24,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K24,5), INDEX(Nodes!$A$3:$E$64,Arcs!L24,5)), ",", ".")</f>
         <v>1.76585744579207 61.1122317403008</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S24">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3634,10 +3764,12 @@
         <v>52</v>
       </c>
       <c r="M25" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.36099999999999999</v>
       </c>
       <c r="N25" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.36099999999999999</v>
       </c>
       <c r="O25" t="str" cm="1">
         <f t="array" ref="O25">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K25,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K25,5), ",",".")</f>
@@ -3651,8 +3783,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K25,4), INDEX(Nodes!$A$3:$E$64,Arcs!L25,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K25,5), INDEX(Nodes!$A$3:$E$64,Arcs!L25,5)), ",", ".")</f>
         <v>0.204787243746546 58.5755231756066</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S25">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3678,7 +3813,7 @@
         <f t="shared" si="1"/>
         <v>LINESTRING(1.91586639699623 58.3649441738375,2.60784119849812 56.5772190869188,3.29981600000002 54.789494)</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="68">
         <v>42.2</v>
       </c>
       <c r="J26" s="1" t="str">
@@ -3694,10 +3829,12 @@
         <v>59</v>
       </c>
       <c r="M26" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.40649999999999997</v>
       </c>
       <c r="N26" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.40649999999999997</v>
       </c>
       <c r="O26" t="str" cm="1">
         <f t="array" ref="O26">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K26,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K26,5), ",",".")</f>
@@ -3711,8 +3848,12 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K26,4), INDEX(Nodes!$A$3:$E$64,Arcs!L26,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K26,5), INDEX(Nodes!$A$3:$E$64,Arcs!L26,5)), ",", ".")</f>
         <v>2.60784119849812 56.5772190869188</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S26">
+        <f>0.813/2</f>
+        <v>0.40649999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3738,7 +3879,7 @@
         <f t="shared" si="1"/>
         <v>LINESTRING(3.29981600000002 54.789494,3.26480650000005 53.070001,3.22979700000008 51.350508)</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="68">
         <v>42.2</v>
       </c>
       <c r="J27" s="1" t="str">
@@ -3754,10 +3895,12 @@
         <v>58</v>
       </c>
       <c r="M27" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.40649999999999997</v>
       </c>
       <c r="N27" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.40649999999999997</v>
       </c>
       <c r="O27" t="str" cm="1">
         <f t="array" ref="O27">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K27,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K27,5), ",",".")</f>
@@ -3771,8 +3914,12 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K27,4), INDEX(Nodes!$A$3:$E$64,Arcs!L27,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K27,5), INDEX(Nodes!$A$3:$E$64,Arcs!L27,5)), ",", ".")</f>
         <v>3.26480650000005 53.070001</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S27">
+        <f>0.813/2</f>
+        <v>0.40649999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3814,10 +3961,12 @@
         <v>51</v>
       </c>
       <c r="M28" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.29899999999999999</v>
       </c>
       <c r="N28" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.29899999999999999</v>
       </c>
       <c r="O28" t="str" cm="1">
         <f t="array" ref="O28">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K28,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K28,5), ",",".")</f>
@@ -3831,8 +3980,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K28,4), INDEX(Nodes!$A$3:$E$64,Arcs!L28,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K28,5), INDEX(Nodes!$A$3:$E$64,Arcs!L28,5)), ",", ".")</f>
         <v>3.37723170018861 59.455146330101</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S28">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3874,10 +4026,12 @@
         <v>15</v>
       </c>
       <c r="M29" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="N29" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.3</v>
       </c>
       <c r="O29" t="str" cm="1">
         <f t="array" ref="O29">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K29,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K29,5), ",",".")</f>
@@ -3891,8 +4045,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K29,4), INDEX(Nodes!$A$3:$E$64,Arcs!L29,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K29,5), INDEX(Nodes!$A$3:$E$64,Arcs!L29,5)), ",", ".")</f>
         <v>3.65150058471732 59.3667487518886</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3934,10 +4091,12 @@
         <v>27</v>
       </c>
       <c r="M30" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.13100000000000001</v>
       </c>
       <c r="N30" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.13100000000000001</v>
       </c>
       <c r="O30" t="str" cm="1">
         <f t="array" ref="O30">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K30,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K30,5), ",",".")</f>
@@ -3951,8 +4110,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K30,4), INDEX(Nodes!$A$3:$E$64,Arcs!L30,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K30,5), INDEX(Nodes!$A$3:$E$64,Arcs!L30,5)), ",", ".")</f>
         <v>2.80248752933371 61.1754957531437</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S30">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3994,10 +4156,12 @@
         <v>28</v>
       </c>
       <c r="M31" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.02</v>
       </c>
       <c r="N31" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.02</v>
       </c>
       <c r="O31" t="str" cm="1">
         <f t="array" ref="O31">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K31,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K31,5), ",",".")</f>
@@ -4011,8 +4175,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K31,4), INDEX(Nodes!$A$3:$E$64,Arcs!L31,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K31,5), INDEX(Nodes!$A$3:$E$64,Arcs!L31,5)), ",", ".")</f>
         <v>2.36128039402701 59.3704008474222</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S31">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4054,10 +4221,12 @@
         <v>50</v>
       </c>
       <c r="M32" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.05</v>
       </c>
       <c r="N32" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.05</v>
       </c>
       <c r="O32" t="str" cm="1">
         <f t="array" ref="O32">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K32,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K32,5), ",",".")</f>
@@ -4071,8 +4240,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K32,4), INDEX(Nodes!$A$3:$E$64,Arcs!L32,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K32,5), INDEX(Nodes!$A$3:$E$64,Arcs!L32,5)), ",", ".")</f>
         <v>1.82461800400345 58.6064721852943</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4114,10 +4286,12 @@
         <v>56</v>
       </c>
       <c r="M33" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
       <c r="N33" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
       <c r="O33" t="str" cm="1">
         <f t="array" ref="O33">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K33,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K33,5), ",",".")</f>
@@ -4131,8 +4305,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K33,4), INDEX(Nodes!$A$3:$E$64,Arcs!L33,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K33,5), INDEX(Nodes!$A$3:$E$64,Arcs!L33,5)), ",", ".")</f>
         <v>7.98923048166803 64.3601952705966</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4174,10 +4351,12 @@
         <v>42</v>
       </c>
       <c r="M34" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="N34" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="O34" t="str" cm="1">
         <f t="array" ref="O34">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K34,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K34,5), ",",".")</f>
@@ -4191,8 +4370,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K34,4), INDEX(Nodes!$A$3:$E$64,Arcs!L34,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K34,5), INDEX(Nodes!$A$3:$E$64,Arcs!L34,5)), ",", ".")</f>
         <v>7.0608532119336 65.2030077893163</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4234,10 +4416,12 @@
         <v>35</v>
       </c>
       <c r="M35" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="N35" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="O35" t="str" cm="1">
         <f t="array" ref="O35">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K35,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K35,5), ",",".")</f>
@@ -4251,8 +4435,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K35,4), INDEX(Nodes!$A$3:$E$64,Arcs!L35,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K35,5), INDEX(Nodes!$A$3:$E$64,Arcs!L35,5)), ",", ".")</f>
         <v>3.80597375650467 59.0843695361675</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S35">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4294,10 +4481,12 @@
         <v>25</v>
       </c>
       <c r="M36" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="N36" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="O36" t="str" cm="1">
         <f t="array" ref="O36">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K36,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K36,5), ",",".")</f>
@@ -4311,8 +4500,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K36,4), INDEX(Nodes!$A$3:$E$64,Arcs!L36,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K36,5), INDEX(Nodes!$A$3:$E$64,Arcs!L36,5)), ",", ".")</f>
         <v>2.01445157351417 60.1984986400223</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S36">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4354,10 +4546,12 @@
         <v>44</v>
       </c>
       <c r="M37" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="N37" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.1</v>
       </c>
       <c r="O37" t="str" cm="1">
         <f t="array" ref="O37">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K37,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K37,5), ",",".")</f>
@@ -4371,8 +4565,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K37,4), INDEX(Nodes!$A$3:$E$64,Arcs!L37,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K37,5), INDEX(Nodes!$A$3:$E$64,Arcs!L37,5)), ",", ".")</f>
         <v>6.16626739450007 63.1898201775001</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4414,10 +4611,12 @@
         <v>44</v>
       </c>
       <c r="M38" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.48199999999999998</v>
       </c>
       <c r="N38" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.48199999999999998</v>
       </c>
       <c r="O38" t="str" cm="1">
         <f t="array" ref="O38">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K38,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K38,5), ",",".")</f>
@@ -4431,8 +4630,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K38,4), INDEX(Nodes!$A$3:$E$64,Arcs!L38,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K38,5), INDEX(Nodes!$A$3:$E$64,Arcs!L38,5)), ",", ".")</f>
         <v>7.02649910850005 64.9535843425001</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S38">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4474,10 +4676,12 @@
         <v>3</v>
       </c>
       <c r="M39" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.02</v>
       </c>
       <c r="N39" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.02</v>
       </c>
       <c r="O39" t="str" cm="1">
         <f t="array" ref="O39">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K39,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K39,5), ",",".")</f>
@@ -4491,8 +4695,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K39,4), INDEX(Nodes!$A$3:$E$64,Arcs!L39,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K39,5), INDEX(Nodes!$A$3:$E$64,Arcs!L39,5)), ",", ".")</f>
         <v>7.22974632790087 65.3941076995608</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S39">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4534,10 +4741,12 @@
         <v>37</v>
       </c>
       <c r="M40" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.05</v>
       </c>
       <c r="N40" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.05</v>
       </c>
       <c r="O40" t="str" cm="1">
         <f t="array" ref="O40">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K40,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K40,5), ",",".")</f>
@@ -4551,8 +4760,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K40,4), INDEX(Nodes!$A$3:$E$64,Arcs!L40,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K40,5), INDEX(Nodes!$A$3:$E$64,Arcs!L40,5)), ",", ".")</f>
         <v>4.83721350169052 60.5477617431823</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S40">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4594,10 +4806,12 @@
         <v>48</v>
       </c>
       <c r="M41" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>9.4E-2</v>
       </c>
       <c r="N41" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.4E-2</v>
       </c>
       <c r="O41" t="str" cm="1">
         <f t="array" ref="O41">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K41,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K41,5), ",",".")</f>
@@ -4611,8 +4825,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K41,4), INDEX(Nodes!$A$3:$E$64,Arcs!L41,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K41,5), INDEX(Nodes!$A$3:$E$64,Arcs!L41,5)), ",", ".")</f>
         <v>1.82264345536872 59.1586920721751</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S41">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4654,10 +4871,12 @@
         <v>16</v>
       </c>
       <c r="M42" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.9E-2</v>
       </c>
       <c r="N42" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.9E-2</v>
       </c>
       <c r="O42" t="str" cm="1">
         <f t="array" ref="O42">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K42,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K42,5), ",",".")</f>
@@ -4671,8 +4890,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K42,4), INDEX(Nodes!$A$3:$E$64,Arcs!L42,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K42,5), INDEX(Nodes!$A$3:$E$64,Arcs!L42,5)), ",", ".")</f>
         <v>2.19479968579955 58.2746767014261</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S42">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4708,10 +4930,12 @@
         <v>9</v>
       </c>
       <c r="M43" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="N43" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.1</v>
       </c>
       <c r="O43" t="str" cm="1">
         <f t="array" ref="O43">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K43,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K43,5), ",",".")</f>
@@ -4725,8 +4949,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K43,4), INDEX(Nodes!$A$3:$E$64,Arcs!L43,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K43,5), INDEX(Nodes!$A$3:$E$64,Arcs!L43,5)), ",", ".")</f>
         <v>7.45555 55.7275</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S43">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4762,10 +4989,12 @@
         <v>11</v>
       </c>
       <c r="M44" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.05</v>
       </c>
       <c r="N44" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.05</v>
       </c>
       <c r="O44" t="str" cm="1">
         <f t="array" ref="O44">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K44,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K44,5), ",",".")</f>
@@ -4779,8 +5008,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K44,4), INDEX(Nodes!$A$3:$E$64,Arcs!L44,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K44,5), INDEX(Nodes!$A$3:$E$64,Arcs!L44,5)), ",", ".")</f>
         <v>10.05295 55.452</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S44">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4816,10 +5048,12 @@
         <v>47</v>
       </c>
       <c r="M45" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.15</v>
       </c>
       <c r="N45" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.15</v>
       </c>
       <c r="O45" t="str" cm="1">
         <f t="array" ref="O45">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K45,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K45,5), ",",".")</f>
@@ -4833,8 +5067,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K45,4), INDEX(Nodes!$A$3:$E$64,Arcs!L45,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K45,5), INDEX(Nodes!$A$3:$E$64,Arcs!L45,5)), ",", ".")</f>
         <v>13.23505 54.5945</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S45">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4869,10 +5106,12 @@
         <v>55</v>
       </c>
       <c r="M46" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="N46" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.2</v>
       </c>
       <c r="O46" t="str" cm="1">
         <f t="array" ref="O46">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K46,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K46,5), ",",".")</f>
@@ -4886,8 +5125,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K46,4), INDEX(Nodes!$A$3:$E$64,Arcs!L46,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K46,5), INDEX(Nodes!$A$3:$E$64,Arcs!L46,5)), ",", ".")</f>
         <v>0.349372 56.1913345</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4911,7 +5153,7 @@
         <v>33</v>
       </c>
       <c r="J47" s="1" t="str">
-        <f t="shared" ref="J47:J55" si="2">IF(I47=100,"Capacity unknown","")</f>
+        <f t="shared" ref="J47:J55" si="4">IF(I47=100,"Capacity unknown","")</f>
         <v/>
       </c>
       <c r="K47" s="1">
@@ -4923,10 +5165,12 @@
         <v>52</v>
       </c>
       <c r="M47" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.4</v>
       </c>
       <c r="N47" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.4</v>
       </c>
       <c r="O47" t="str" cm="1">
         <f t="array" ref="O47">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K47,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K47,5), ",",".")</f>
@@ -4940,8 +5184,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K47,4), INDEX(Nodes!$A$3:$E$64,Arcs!L47,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K47,5), INDEX(Nodes!$A$3:$E$64,Arcs!L47,5)), ",", ".")</f>
         <v>-0.060319 59.307224</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S47">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4962,7 +5209,7 @@
         <v>1000</v>
       </c>
       <c r="J48" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K48" s="1">
@@ -4974,10 +5221,12 @@
         <v>10</v>
       </c>
       <c r="M48" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O48" t="str" cm="1">
         <f t="array" ref="O48">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K48,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K48,5), ",",".")</f>
@@ -4991,8 +5240,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K48,4), INDEX(Nodes!$A$3:$E$64,Arcs!L48,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K48,5), INDEX(Nodes!$A$3:$E$64,Arcs!L48,5)), ",", ".")</f>
         <v>8.85905 55.681</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5013,7 +5265,7 @@
         <v>1000</v>
       </c>
       <c r="J49" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K49" s="1">
@@ -5025,10 +5277,12 @@
         <v>12</v>
       </c>
       <c r="M49" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O49" t="str" cm="1">
         <f t="array" ref="O49">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K49,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K49,5), ",",".")</f>
@@ -5042,8 +5296,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K49,4), INDEX(Nodes!$A$3:$E$64,Arcs!L49,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K49,5), INDEX(Nodes!$A$3:$E$64,Arcs!L49,5)), ",", ".")</f>
         <v>11.00265 55.338</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5064,7 +5321,7 @@
         <v>1000</v>
       </c>
       <c r="J50" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K50" s="1">
@@ -5076,10 +5333,12 @@
         <v>15</v>
       </c>
       <c r="M50" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N50" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O50" t="str" cm="1">
         <f t="array" ref="O50">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K50,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K50,5), ",",".")</f>
@@ -5093,8 +5352,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K50,4), INDEX(Nodes!$A$3:$E$64,Arcs!L50,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K50,5), INDEX(Nodes!$A$3:$E$64,Arcs!L50,5)), ",", ".")</f>
         <v>2.46906857032826 58.1862791232136</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5115,7 +5377,7 @@
         <v>1000</v>
       </c>
       <c r="J51" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K51" s="1">
@@ -5127,10 +5389,12 @@
         <v>51</v>
       </c>
       <c r="M51" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N51" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O51" t="str" cm="1">
         <f t="array" ref="O51">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K51,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K51,5), ",",".")</f>
@@ -5144,8 +5408,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K51,4), INDEX(Nodes!$A$3:$E$64,Arcs!L51,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K51,5), INDEX(Nodes!$A$3:$E$64,Arcs!L51,5)), ",", ".")</f>
         <v>1.90731616528787 58.3677389907777</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5166,7 +5433,7 @@
         <v>1000</v>
       </c>
       <c r="J52" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K52" s="1">
@@ -5178,10 +5445,12 @@
         <v>43</v>
       </c>
       <c r="M52" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O52" t="str" cm="1">
         <f t="array" ref="O52">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K52,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K52,5), ",",".")</f>
@@ -5195,8 +5464,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K52,4), INDEX(Nodes!$A$3:$E$64,Arcs!L52,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K52,5), INDEX(Nodes!$A$3:$E$64,Arcs!L52,5)), ",", ".")</f>
         <v>3.28025150000001 56.5201845</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5226,7 +5498,7 @@
         <v>1000</v>
       </c>
       <c r="J53" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K53" s="1">
@@ -5238,10 +5510,12 @@
         <v>13</v>
       </c>
       <c r="M53" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N53" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O53" t="str" cm="1">
         <f t="array" ref="O53">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K53,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K53,5), ",",".")</f>
@@ -5255,8 +5529,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K53,4), INDEX(Nodes!$A$3:$E$64,Arcs!L53,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K53,5), INDEX(Nodes!$A$3:$E$64,Arcs!L53,5)), ",", ".")</f>
         <v>7.11614205264601 64.2919112956052</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5286,7 +5563,7 @@
         <v>1000</v>
       </c>
       <c r="J54" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K54" s="1">
@@ -5298,10 +5575,12 @@
         <v>40</v>
       </c>
       <c r="M54" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O54" t="str" cm="1">
         <f t="array" ref="O54">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K54,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K54,5), ",",".")</f>
@@ -5315,8 +5594,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K54,4), INDEX(Nodes!$A$3:$E$64,Arcs!L54,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K54,5), INDEX(Nodes!$A$3:$E$64,Arcs!L54,5)), ",", ".")</f>
         <v>1.70260105700003 61.0282477165</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5346,7 +5628,7 @@
         <v>1000</v>
       </c>
       <c r="J55" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K55" s="1">
@@ -5358,10 +5640,12 @@
         <v>2</v>
       </c>
       <c r="M55" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N55" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O55" t="str" cm="1">
         <f t="array" ref="O55">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K55,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K55,5), ",",".")</f>
@@ -5375,8 +5659,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K55,4), INDEX(Nodes!$A$3:$E$64,Arcs!L55,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K55,5), INDEX(Nodes!$A$3:$E$64,Arcs!L55,5)), ",", ".")</f>
         <v>5.74610048159499 63.6986000692747</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5397,7 +5684,7 @@
         <v>1000</v>
       </c>
       <c r="J56" s="30" t="str">
-        <f t="shared" ref="J56:J60" si="3">IF(I56=100,"Capacity unknown","")</f>
+        <f t="shared" ref="J56:J60" si="5">IF(I56=100,"Capacity unknown","")</f>
         <v/>
       </c>
       <c r="K56" s="1">
@@ -5409,10 +5696,12 @@
         <v>46</v>
       </c>
       <c r="M56" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N56" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O56" t="str" cm="1">
         <f t="array" ref="O56">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K56,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K56,5), ",",".")</f>
@@ -5426,8 +5715,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K56,4), INDEX(Nodes!$A$3:$E$64,Arcs!L56,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K56,5), INDEX(Nodes!$A$3:$E$64,Arcs!L56,5)), ",", ".")</f>
         <v>2.93093584095346 60.5151147257528</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5448,7 +5740,7 @@
         <v>1000</v>
       </c>
       <c r="J57" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K57" s="1">
@@ -5460,10 +5752,12 @@
         <v>2</v>
       </c>
       <c r="M57" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O57" t="str" cm="1">
         <f t="array" ref="O57">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K57,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K57,5), ",",".")</f>
@@ -5477,8 +5771,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K57,4), INDEX(Nodes!$A$3:$E$64,Arcs!L57,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K57,5), INDEX(Nodes!$A$3:$E$64,Arcs!L57,5)), ",", ".")</f>
         <v>6.23978361624093 63.3266481148799</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5499,7 +5796,7 @@
         <v>1000</v>
       </c>
       <c r="J58" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K58" s="1">
@@ -5511,10 +5808,12 @@
         <v>34</v>
       </c>
       <c r="M58" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O58" t="str" cm="1">
         <f t="array" ref="O58">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K58,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K58,5), ",",".")</f>
@@ -5528,8 +5827,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K58,4), INDEX(Nodes!$A$3:$E$64,Arcs!L58,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K58,5), INDEX(Nodes!$A$3:$E$64,Arcs!L58,5)), ",", ".")</f>
         <v>3.65416291586873 59.0831068376751</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5550,7 +5852,7 @@
         <v>1000</v>
       </c>
       <c r="J59" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K59" s="1">
@@ -5562,10 +5864,12 @@
         <v>36</v>
       </c>
       <c r="M59" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O59" t="str" cm="1">
         <f t="array" ref="O59">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K59,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K59,5), ",",".")</f>
@@ -5579,8 +5883,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K59,4), INDEX(Nodes!$A$3:$E$64,Arcs!L59,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K59,5), INDEX(Nodes!$A$3:$E$64,Arcs!L59,5)), ",", ".")</f>
         <v>4.03534642322643 59.0570233500857</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5601,7 +5908,7 @@
         <v>1000</v>
       </c>
       <c r="J60" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K60" s="1">
@@ -5613,10 +5920,12 @@
         <v>2</v>
       </c>
       <c r="M60" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N60" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O60" t="str" cm="1">
         <f t="array" ref="O60">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K60,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K60,5), ",",".")</f>
@@ -5630,8 +5939,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K60,4), INDEX(Nodes!$A$3:$E$64,Arcs!L60,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K60,5), INDEX(Nodes!$A$3:$E$64,Arcs!L60,5)), ",", ".")</f>
         <v>5.74500106359499 63.6936223192747</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5652,7 +5964,7 @@
         <v>1000</v>
       </c>
       <c r="J61" s="30" t="str">
-        <f t="shared" ref="J61" si="4">IF(I61=100,"Capacity unknown","")</f>
+        <f t="shared" ref="J61" si="6">IF(I61=100,"Capacity unknown","")</f>
         <v/>
       </c>
       <c r="K61" s="1">
@@ -5664,10 +5976,12 @@
         <v>33</v>
       </c>
       <c r="M61" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O61" t="str" cm="1">
         <f t="array" ref="O61">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K61,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K61,5), ",",".")</f>
@@ -5681,8 +5995,11 @@
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K61,4), INDEX(Nodes!$A$3:$E$64,Arcs!L61,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K61,5), INDEX(Nodes!$A$3:$E$64,Arcs!L61,5)), ",", ".")</f>
         <v>2.12637048424656 59.7330186621066</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5711,10 +6028,12 @@
         <v>24</v>
       </c>
       <c r="M62" s="2">
-        <v>1E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O62" t="str" cm="1">
         <f t="array" ref="O62">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K62,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K62,5), ",",".")</f>
@@ -5727,6 +6046,9 @@
       <c r="Q62" t="str">
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K62,4), INDEX(Nodes!$A$3:$E$64,Arcs!L62,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K62,5), INDEX(Nodes!$A$3:$E$64,Arcs!L62,5)), ",", ".")</f>
         <v>2.80258945333371 61.1761061046437</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5929,7 +6251,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6298,11 +6620,11 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:I10" si="0">SUM(C2:C9)</f>
+        <f>SUM(C2:C9)</f>
         <v>1</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>SUM(D2:D9)</f>
         <v>1</v>
       </c>
       <c r="E10">
@@ -6314,15 +6636,15 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f>SUM(G2:G9)</f>
         <v>1</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f>SUM(H2:H9)</f>
         <v>1</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f>SUM(I2:I9)</f>
         <v>1</v>
       </c>
       <c r="L10" cm="1">
@@ -7636,7 +7958,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="A16:H16"/>
+      <selection activeCell="K16" sqref="K16:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8224,8 +8546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="L1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8447,7 +8769,7 @@
         <v>10</v>
       </c>
       <c r="N3" s="2">
-        <f>IF(C3="Market",100,0)</f>
+        <f>IF(C3="Market",3000,0)</f>
         <v>0</v>
       </c>
       <c r="O3" s="2">
@@ -8561,7 +8883,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" ref="N4:N61" si="1">IF(C4="Market",100,0)</f>
+        <f t="shared" ref="N4:N61" si="1">IF(C4="Market",3000,0)</f>
         <v>0</v>
       </c>
       <c r="O4" s="2">
@@ -10281,7 +10603,7 @@
       </c>
       <c r="N19" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="2"/>
@@ -10397,7 +10719,7 @@
       </c>
       <c r="N20" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="2"/>
@@ -10743,7 +11065,7 @@
       </c>
       <c r="N23" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="2"/>
@@ -10859,7 +11181,7 @@
       </c>
       <c r="N24" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="2"/>
@@ -13729,7 +14051,7 @@
       </c>
       <c r="N49" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="2"/>
@@ -14305,7 +14627,7 @@
       </c>
       <c r="N54" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="2"/>
@@ -14649,7 +14971,7 @@
       </c>
       <c r="N57" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="2"/>
@@ -14995,7 +15317,7 @@
       </c>
       <c r="N60" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="2"/>
@@ -15216,7 +15538,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16199,8 +16521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19292E87-5CF7-794D-A1AA-7C1926221C7B}">
   <dimension ref="A1:BM58"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="BE38" sqref="BE38"/>
+    <sheetView zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17649,11 +17971,11 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="11"/>
@@ -17689,11 +18011,11 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="2">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S9" s="2">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T9" s="2">
         <f t="shared" si="8"/>
@@ -17729,11 +18051,11 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="2">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI9" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ9" s="2">
         <f t="shared" si="9"/>
@@ -17769,11 +18091,11 @@
       <c r="AW9" s="3"/>
       <c r="AX9" s="2">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AY9" s="2">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ9" s="2">
         <f t="shared" si="10"/>
@@ -18144,11 +18466,11 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="11"/>
@@ -18184,11 +18506,11 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="2">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S12" s="2">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T12" s="2">
         <f t="shared" si="8"/>
@@ -18224,11 +18546,11 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="2">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI12" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ12" s="2">
         <f t="shared" si="9"/>
@@ -18264,11 +18586,11 @@
       <c r="AW12" s="3"/>
       <c r="AX12" s="2">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AY12" s="2">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ12" s="2">
         <f t="shared" si="10"/>
@@ -19821,10 +20143,10 @@
         <v>4</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -19845,10 +20167,10 @@
         <v>0</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -19869,10 +20191,10 @@
         <v>0</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ35">
         <v>0</v>
@@ -19893,10 +20215,10 @@
         <v>0</v>
       </c>
       <c r="AX35">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AY35">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AZ35">
         <v>0</v>
@@ -20124,10 +20446,10 @@
         <v>7</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -20148,10 +20470,10 @@
         <v>0</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -20172,10 +20494,10 @@
         <v>0</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ38">
         <v>0</v>
@@ -20196,10 +20518,10 @@
         <v>0</v>
       </c>
       <c r="AX38">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AY38">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AZ38">
         <v>0</v>
@@ -20542,6 +20864,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="R1:AG1"/>
+    <mergeCell ref="R2:AG2"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="Z3:AG3"/>
     <mergeCell ref="AH1:AW1"/>
     <mergeCell ref="AH2:AW2"/>
     <mergeCell ref="AH3:AO3"/>
@@ -20550,14 +20880,6 @@
     <mergeCell ref="AX2:BM2"/>
     <mergeCell ref="AX3:BE3"/>
     <mergeCell ref="BF3:BM3"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="R1:AG1"/>
-    <mergeCell ref="R2:AG2"/>
-    <mergeCell ref="R3:Y3"/>
-    <mergeCell ref="Z3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20567,8 +20889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7506CF-850A-ED42-956F-025E5A994524}">
   <dimension ref="A1:IW33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="BQ6" sqref="BQ6"/>
+    <sheetView topLeftCell="IC3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="IH11" sqref="IH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21200,294 +21522,294 @@
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="64">
         <v>9</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="61">
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="64">
         <v>9</v>
       </c>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="61">
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="64">
         <v>9</v>
       </c>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="61">
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="65"/>
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="64">
         <v>9</v>
       </c>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="63"/>
-      <c r="BN3" s="61">
+      <c r="AY3" s="65"/>
+      <c r="AZ3" s="65"/>
+      <c r="BA3" s="65"/>
+      <c r="BB3" s="65"/>
+      <c r="BC3" s="65"/>
+      <c r="BD3" s="65"/>
+      <c r="BE3" s="65"/>
+      <c r="BF3" s="65"/>
+      <c r="BG3" s="65"/>
+      <c r="BH3" s="65"/>
+      <c r="BI3" s="65"/>
+      <c r="BJ3" s="65"/>
+      <c r="BK3" s="65"/>
+      <c r="BL3" s="65"/>
+      <c r="BM3" s="66"/>
+      <c r="BN3" s="64">
         <v>17</v>
       </c>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
-      <c r="BR3" s="62"/>
-      <c r="BS3" s="62"/>
-      <c r="BT3" s="62"/>
-      <c r="BU3" s="62"/>
-      <c r="BV3" s="62"/>
-      <c r="BW3" s="62"/>
-      <c r="BX3" s="62"/>
-      <c r="BY3" s="62"/>
-      <c r="BZ3" s="62"/>
-      <c r="CA3" s="62"/>
-      <c r="CB3" s="62"/>
-      <c r="CC3" s="63"/>
-      <c r="CD3" s="61">
+      <c r="BO3" s="65"/>
+      <c r="BP3" s="65"/>
+      <c r="BQ3" s="65"/>
+      <c r="BR3" s="65"/>
+      <c r="BS3" s="65"/>
+      <c r="BT3" s="65"/>
+      <c r="BU3" s="65"/>
+      <c r="BV3" s="65"/>
+      <c r="BW3" s="65"/>
+      <c r="BX3" s="65"/>
+      <c r="BY3" s="65"/>
+      <c r="BZ3" s="65"/>
+      <c r="CA3" s="65"/>
+      <c r="CB3" s="65"/>
+      <c r="CC3" s="66"/>
+      <c r="CD3" s="64">
         <v>17</v>
       </c>
-      <c r="CE3" s="62"/>
-      <c r="CF3" s="62"/>
-      <c r="CG3" s="62"/>
-      <c r="CH3" s="62"/>
-      <c r="CI3" s="62"/>
-      <c r="CJ3" s="62"/>
-      <c r="CK3" s="62"/>
-      <c r="CL3" s="62"/>
-      <c r="CM3" s="62"/>
-      <c r="CN3" s="62"/>
-      <c r="CO3" s="62"/>
-      <c r="CP3" s="62"/>
-      <c r="CQ3" s="62"/>
-      <c r="CR3" s="62"/>
-      <c r="CS3" s="63"/>
-      <c r="CT3" s="61">
+      <c r="CE3" s="65"/>
+      <c r="CF3" s="65"/>
+      <c r="CG3" s="65"/>
+      <c r="CH3" s="65"/>
+      <c r="CI3" s="65"/>
+      <c r="CJ3" s="65"/>
+      <c r="CK3" s="65"/>
+      <c r="CL3" s="65"/>
+      <c r="CM3" s="65"/>
+      <c r="CN3" s="65"/>
+      <c r="CO3" s="65"/>
+      <c r="CP3" s="65"/>
+      <c r="CQ3" s="65"/>
+      <c r="CR3" s="65"/>
+      <c r="CS3" s="66"/>
+      <c r="CT3" s="64">
         <v>17</v>
       </c>
-      <c r="CU3" s="62"/>
-      <c r="CV3" s="62"/>
-      <c r="CW3" s="62"/>
-      <c r="CX3" s="62"/>
-      <c r="CY3" s="62"/>
-      <c r="CZ3" s="62"/>
-      <c r="DA3" s="62"/>
-      <c r="DB3" s="62"/>
-      <c r="DC3" s="62"/>
-      <c r="DD3" s="62"/>
-      <c r="DE3" s="62"/>
-      <c r="DF3" s="62"/>
-      <c r="DG3" s="62"/>
-      <c r="DH3" s="62"/>
-      <c r="DI3" s="63"/>
-      <c r="DJ3" s="61">
+      <c r="CU3" s="65"/>
+      <c r="CV3" s="65"/>
+      <c r="CW3" s="65"/>
+      <c r="CX3" s="65"/>
+      <c r="CY3" s="65"/>
+      <c r="CZ3" s="65"/>
+      <c r="DA3" s="65"/>
+      <c r="DB3" s="65"/>
+      <c r="DC3" s="65"/>
+      <c r="DD3" s="65"/>
+      <c r="DE3" s="65"/>
+      <c r="DF3" s="65"/>
+      <c r="DG3" s="65"/>
+      <c r="DH3" s="65"/>
+      <c r="DI3" s="66"/>
+      <c r="DJ3" s="64">
         <v>17</v>
       </c>
-      <c r="DK3" s="62"/>
-      <c r="DL3" s="62"/>
-      <c r="DM3" s="62"/>
-      <c r="DN3" s="62"/>
-      <c r="DO3" s="62"/>
-      <c r="DP3" s="62"/>
-      <c r="DQ3" s="62"/>
-      <c r="DR3" s="62"/>
-      <c r="DS3" s="62"/>
-      <c r="DT3" s="62"/>
-      <c r="DU3" s="62"/>
-      <c r="DV3" s="62"/>
-      <c r="DW3" s="62"/>
-      <c r="DX3" s="62"/>
-      <c r="DY3" s="63"/>
-      <c r="DZ3" s="64">
+      <c r="DK3" s="65"/>
+      <c r="DL3" s="65"/>
+      <c r="DM3" s="65"/>
+      <c r="DN3" s="65"/>
+      <c r="DO3" s="65"/>
+      <c r="DP3" s="65"/>
+      <c r="DQ3" s="65"/>
+      <c r="DR3" s="65"/>
+      <c r="DS3" s="65"/>
+      <c r="DT3" s="65"/>
+      <c r="DU3" s="65"/>
+      <c r="DV3" s="65"/>
+      <c r="DW3" s="65"/>
+      <c r="DX3" s="65"/>
+      <c r="DY3" s="66"/>
+      <c r="DZ3" s="67">
         <v>25</v>
       </c>
-      <c r="EA3" s="65"/>
-      <c r="EB3" s="65"/>
-      <c r="EC3" s="65"/>
-      <c r="ED3" s="65"/>
-      <c r="EE3" s="65"/>
-      <c r="EF3" s="65"/>
-      <c r="EG3" s="65"/>
-      <c r="EH3" s="65"/>
-      <c r="EI3" s="65"/>
-      <c r="EJ3" s="65"/>
-      <c r="EK3" s="65"/>
-      <c r="EL3" s="65"/>
-      <c r="EM3" s="65"/>
-      <c r="EN3" s="65"/>
-      <c r="EO3" s="66"/>
-      <c r="EP3" s="67">
+      <c r="EA3" s="62"/>
+      <c r="EB3" s="62"/>
+      <c r="EC3" s="62"/>
+      <c r="ED3" s="62"/>
+      <c r="EE3" s="62"/>
+      <c r="EF3" s="62"/>
+      <c r="EG3" s="62"/>
+      <c r="EH3" s="62"/>
+      <c r="EI3" s="62"/>
+      <c r="EJ3" s="62"/>
+      <c r="EK3" s="62"/>
+      <c r="EL3" s="62"/>
+      <c r="EM3" s="62"/>
+      <c r="EN3" s="62"/>
+      <c r="EO3" s="63"/>
+      <c r="EP3" s="61">
         <v>25</v>
       </c>
-      <c r="EQ3" s="65"/>
-      <c r="ER3" s="65"/>
-      <c r="ES3" s="65"/>
-      <c r="ET3" s="65"/>
-      <c r="EU3" s="65"/>
-      <c r="EV3" s="65"/>
-      <c r="EW3" s="65"/>
-      <c r="EX3" s="65"/>
-      <c r="EY3" s="65"/>
-      <c r="EZ3" s="65"/>
-      <c r="FA3" s="65"/>
-      <c r="FB3" s="65"/>
-      <c r="FC3" s="65"/>
-      <c r="FD3" s="65"/>
-      <c r="FE3" s="66"/>
-      <c r="FF3" s="67">
+      <c r="EQ3" s="62"/>
+      <c r="ER3" s="62"/>
+      <c r="ES3" s="62"/>
+      <c r="ET3" s="62"/>
+      <c r="EU3" s="62"/>
+      <c r="EV3" s="62"/>
+      <c r="EW3" s="62"/>
+      <c r="EX3" s="62"/>
+      <c r="EY3" s="62"/>
+      <c r="EZ3" s="62"/>
+      <c r="FA3" s="62"/>
+      <c r="FB3" s="62"/>
+      <c r="FC3" s="62"/>
+      <c r="FD3" s="62"/>
+      <c r="FE3" s="63"/>
+      <c r="FF3" s="61">
         <v>25</v>
       </c>
-      <c r="FG3" s="65"/>
-      <c r="FH3" s="65"/>
-      <c r="FI3" s="65"/>
-      <c r="FJ3" s="65"/>
-      <c r="FK3" s="65"/>
-      <c r="FL3" s="65"/>
-      <c r="FM3" s="65"/>
-      <c r="FN3" s="65"/>
-      <c r="FO3" s="65"/>
-      <c r="FP3" s="65"/>
-      <c r="FQ3" s="65"/>
-      <c r="FR3" s="65"/>
-      <c r="FS3" s="65"/>
-      <c r="FT3" s="65"/>
-      <c r="FU3" s="66"/>
-      <c r="FV3" s="67">
+      <c r="FG3" s="62"/>
+      <c r="FH3" s="62"/>
+      <c r="FI3" s="62"/>
+      <c r="FJ3" s="62"/>
+      <c r="FK3" s="62"/>
+      <c r="FL3" s="62"/>
+      <c r="FM3" s="62"/>
+      <c r="FN3" s="62"/>
+      <c r="FO3" s="62"/>
+      <c r="FP3" s="62"/>
+      <c r="FQ3" s="62"/>
+      <c r="FR3" s="62"/>
+      <c r="FS3" s="62"/>
+      <c r="FT3" s="62"/>
+      <c r="FU3" s="63"/>
+      <c r="FV3" s="61">
         <v>25</v>
       </c>
-      <c r="FW3" s="65"/>
-      <c r="FX3" s="65"/>
-      <c r="FY3" s="65"/>
-      <c r="FZ3" s="65"/>
-      <c r="GA3" s="65"/>
-      <c r="GB3" s="65"/>
-      <c r="GC3" s="65"/>
-      <c r="GD3" s="65"/>
-      <c r="GE3" s="65"/>
-      <c r="GF3" s="65"/>
-      <c r="GG3" s="65"/>
-      <c r="GH3" s="65"/>
-      <c r="GI3" s="65"/>
-      <c r="GJ3" s="65"/>
-      <c r="GK3" s="66"/>
-      <c r="GL3" s="67">
+      <c r="FW3" s="62"/>
+      <c r="FX3" s="62"/>
+      <c r="FY3" s="62"/>
+      <c r="FZ3" s="62"/>
+      <c r="GA3" s="62"/>
+      <c r="GB3" s="62"/>
+      <c r="GC3" s="62"/>
+      <c r="GD3" s="62"/>
+      <c r="GE3" s="62"/>
+      <c r="GF3" s="62"/>
+      <c r="GG3" s="62"/>
+      <c r="GH3" s="62"/>
+      <c r="GI3" s="62"/>
+      <c r="GJ3" s="62"/>
+      <c r="GK3" s="63"/>
+      <c r="GL3" s="61">
         <v>33</v>
       </c>
-      <c r="GM3" s="65"/>
-      <c r="GN3" s="65"/>
-      <c r="GO3" s="65"/>
-      <c r="GP3" s="65"/>
-      <c r="GQ3" s="65"/>
-      <c r="GR3" s="65"/>
-      <c r="GS3" s="65"/>
-      <c r="GT3" s="65"/>
-      <c r="GU3" s="65"/>
-      <c r="GV3" s="65"/>
-      <c r="GW3" s="65"/>
-      <c r="GX3" s="65"/>
-      <c r="GY3" s="65"/>
-      <c r="GZ3" s="65"/>
-      <c r="HA3" s="66"/>
-      <c r="HB3" s="67">
+      <c r="GM3" s="62"/>
+      <c r="GN3" s="62"/>
+      <c r="GO3" s="62"/>
+      <c r="GP3" s="62"/>
+      <c r="GQ3" s="62"/>
+      <c r="GR3" s="62"/>
+      <c r="GS3" s="62"/>
+      <c r="GT3" s="62"/>
+      <c r="GU3" s="62"/>
+      <c r="GV3" s="62"/>
+      <c r="GW3" s="62"/>
+      <c r="GX3" s="62"/>
+      <c r="GY3" s="62"/>
+      <c r="GZ3" s="62"/>
+      <c r="HA3" s="63"/>
+      <c r="HB3" s="61">
         <v>33</v>
       </c>
-      <c r="HC3" s="65"/>
-      <c r="HD3" s="65"/>
-      <c r="HE3" s="65"/>
-      <c r="HF3" s="65"/>
-      <c r="HG3" s="65"/>
-      <c r="HH3" s="65"/>
-      <c r="HI3" s="65"/>
-      <c r="HJ3" s="65"/>
-      <c r="HK3" s="65"/>
-      <c r="HL3" s="65"/>
-      <c r="HM3" s="65"/>
-      <c r="HN3" s="65"/>
-      <c r="HO3" s="65"/>
-      <c r="HP3" s="65"/>
-      <c r="HQ3" s="66"/>
-      <c r="HR3" s="67">
+      <c r="HC3" s="62"/>
+      <c r="HD3" s="62"/>
+      <c r="HE3" s="62"/>
+      <c r="HF3" s="62"/>
+      <c r="HG3" s="62"/>
+      <c r="HH3" s="62"/>
+      <c r="HI3" s="62"/>
+      <c r="HJ3" s="62"/>
+      <c r="HK3" s="62"/>
+      <c r="HL3" s="62"/>
+      <c r="HM3" s="62"/>
+      <c r="HN3" s="62"/>
+      <c r="HO3" s="62"/>
+      <c r="HP3" s="62"/>
+      <c r="HQ3" s="63"/>
+      <c r="HR3" s="61">
         <v>33</v>
       </c>
-      <c r="HS3" s="65"/>
-      <c r="HT3" s="65"/>
-      <c r="HU3" s="65"/>
-      <c r="HV3" s="65"/>
-      <c r="HW3" s="65"/>
-      <c r="HX3" s="65"/>
-      <c r="HY3" s="65"/>
-      <c r="HZ3" s="65"/>
-      <c r="IA3" s="65"/>
-      <c r="IB3" s="65"/>
-      <c r="IC3" s="65"/>
-      <c r="ID3" s="65"/>
-      <c r="IE3" s="65"/>
-      <c r="IF3" s="65"/>
-      <c r="IG3" s="66"/>
-      <c r="IH3" s="67">
+      <c r="HS3" s="62"/>
+      <c r="HT3" s="62"/>
+      <c r="HU3" s="62"/>
+      <c r="HV3" s="62"/>
+      <c r="HW3" s="62"/>
+      <c r="HX3" s="62"/>
+      <c r="HY3" s="62"/>
+      <c r="HZ3" s="62"/>
+      <c r="IA3" s="62"/>
+      <c r="IB3" s="62"/>
+      <c r="IC3" s="62"/>
+      <c r="ID3" s="62"/>
+      <c r="IE3" s="62"/>
+      <c r="IF3" s="62"/>
+      <c r="IG3" s="63"/>
+      <c r="IH3" s="61">
         <v>33</v>
       </c>
-      <c r="II3" s="65"/>
-      <c r="IJ3" s="65"/>
-      <c r="IK3" s="65"/>
-      <c r="IL3" s="65"/>
-      <c r="IM3" s="65"/>
-      <c r="IN3" s="65"/>
-      <c r="IO3" s="65"/>
-      <c r="IP3" s="65"/>
-      <c r="IQ3" s="65"/>
-      <c r="IR3" s="65"/>
-      <c r="IS3" s="65"/>
-      <c r="IT3" s="65"/>
-      <c r="IU3" s="65"/>
-      <c r="IV3" s="65"/>
-      <c r="IW3" s="66"/>
+      <c r="II3" s="62"/>
+      <c r="IJ3" s="62"/>
+      <c r="IK3" s="62"/>
+      <c r="IL3" s="62"/>
+      <c r="IM3" s="62"/>
+      <c r="IN3" s="62"/>
+      <c r="IO3" s="62"/>
+      <c r="IP3" s="62"/>
+      <c r="IQ3" s="62"/>
+      <c r="IR3" s="62"/>
+      <c r="IS3" s="62"/>
+      <c r="IT3" s="62"/>
+      <c r="IU3" s="62"/>
+      <c r="IV3" s="62"/>
+      <c r="IW3" s="63"/>
     </row>
     <row r="4" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
@@ -26963,11 +27285,11 @@
       </c>
       <c r="B10" s="2">
         <f>'Demand Stage 2'!B9</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
         <f>'Demand Stage 2'!C9</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
         <f>'Demand Stage 2'!D9</f>
@@ -27003,11 +27325,11 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="2">
         <f>'Demand Stage 2'!B9</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S10" s="2">
         <f>'Demand Stage 2'!C9</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T10" s="2">
         <f>'Demand Stage 2'!D9</f>
@@ -27043,11 +27365,11 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="2">
         <f>'Demand Stage 2'!B9</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI10" s="2">
         <f>'Demand Stage 2'!C9</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ10" s="2">
         <f>'Demand Stage 2'!D9</f>
@@ -27083,11 +27405,11 @@
       <c r="AW10" s="3"/>
       <c r="AX10" s="2">
         <f>'Demand Stage 2'!B9</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY10" s="2">
         <f>'Demand Stage 2'!C9</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ10" s="2">
         <f>'Demand Stage 2'!D9</f>
@@ -27123,11 +27445,11 @@
       <c r="BM10" s="3"/>
       <c r="BN10" s="2">
         <f>'Demand Stage 2'!R9</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BO10" s="2">
         <f>'Demand Stage 2'!S9</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BP10" s="2">
         <f>'Demand Stage 2'!T9</f>
@@ -27163,11 +27485,11 @@
       <c r="CC10" s="3"/>
       <c r="CD10" s="2">
         <f t="shared" si="38"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CE10" s="2">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CF10" s="2">
         <f t="shared" si="14"/>
@@ -27203,11 +27525,11 @@
       <c r="CS10" s="3"/>
       <c r="CT10" s="2">
         <f t="shared" si="74"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CU10" s="2">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CV10" s="2">
         <f t="shared" si="16"/>
@@ -27243,11 +27565,11 @@
       <c r="DI10" s="3"/>
       <c r="DJ10" s="2">
         <f t="shared" si="40"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="DK10" s="2">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="DL10" s="2">
         <f t="shared" si="24"/>
@@ -27283,11 +27605,11 @@
       <c r="DY10" s="3"/>
       <c r="DZ10" s="2">
         <f>'Demand Stage 2'!AH9</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="EA10" s="2">
         <f>'Demand Stage 2'!AI9</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="EB10" s="2">
         <f>'Demand Stage 2'!AJ9</f>
@@ -27323,11 +27645,11 @@
       <c r="EO10" s="3"/>
       <c r="EP10" s="2">
         <f t="shared" si="49"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="EQ10" s="2">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="ER10" s="2">
         <f t="shared" si="26"/>
@@ -27363,11 +27685,11 @@
       <c r="FE10" s="3"/>
       <c r="FF10" s="2">
         <f t="shared" si="51"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="FG10" s="2">
         <f t="shared" si="28"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="FH10" s="2">
         <f t="shared" si="28"/>
@@ -27403,11 +27725,11 @@
       <c r="FU10" s="3"/>
       <c r="FV10" s="2">
         <f t="shared" si="60"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="FW10" s="2">
         <f t="shared" si="30"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="FX10" s="2">
         <f t="shared" si="30"/>
@@ -27443,11 +27765,11 @@
       <c r="GK10" s="3"/>
       <c r="GL10" s="2">
         <f>'Demand Stage 2'!AX9</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="GM10" s="2">
         <f>'Demand Stage 2'!AY9</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="GN10" s="2">
         <f>'Demand Stage 2'!AZ9</f>
@@ -27483,11 +27805,11 @@
       <c r="HA10" s="3"/>
       <c r="HB10" s="2">
         <f t="shared" si="75"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="HC10" s="2">
         <f t="shared" si="32"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="HD10" s="2">
         <f t="shared" si="32"/>
@@ -27523,11 +27845,11 @@
       <c r="HQ10" s="3"/>
       <c r="HR10" s="2">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="HS10" s="2">
         <f t="shared" si="34"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="HT10" s="2">
         <f t="shared" si="34"/>
@@ -27563,11 +27885,11 @@
       <c r="IG10" s="3"/>
       <c r="IH10" s="2">
         <f t="shared" si="72"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="II10" s="2">
         <f t="shared" si="36"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="IJ10" s="2">
         <f t="shared" si="36"/>
@@ -28898,11 +29220,11 @@
       </c>
       <c r="B13" s="2">
         <f>'Demand Stage 2'!B12</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2">
         <f>'Demand Stage 2'!C12</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2">
         <f>'Demand Stage 2'!D12</f>
@@ -28938,11 +29260,11 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="2">
         <f>'Demand Stage 2'!B12</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S13" s="2">
         <f>'Demand Stage 2'!C12</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T13" s="2">
         <f>'Demand Stage 2'!D12</f>
@@ -28978,11 +29300,11 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="2">
         <f>'Demand Stage 2'!B12</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI13" s="2">
         <f>'Demand Stage 2'!C12</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ13" s="2">
         <f>'Demand Stage 2'!D12</f>
@@ -29018,11 +29340,11 @@
       <c r="AW13" s="3"/>
       <c r="AX13" s="2">
         <f>'Demand Stage 2'!B12</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY13" s="2">
         <f>'Demand Stage 2'!C12</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ13" s="2">
         <f>'Demand Stage 2'!D12</f>
@@ -29058,11 +29380,11 @@
       <c r="BM13" s="3"/>
       <c r="BN13" s="2">
         <f>'Demand Stage 2'!R12</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BO13" s="2">
         <f>'Demand Stage 2'!S12</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BP13" s="2">
         <f>'Demand Stage 2'!T12</f>
@@ -29098,11 +29420,11 @@
       <c r="CC13" s="3"/>
       <c r="CD13" s="2">
         <f t="shared" si="38"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CE13" s="2">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CF13" s="2">
         <f t="shared" si="14"/>
@@ -29138,11 +29460,11 @@
       <c r="CS13" s="3"/>
       <c r="CT13" s="2">
         <f t="shared" si="74"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CU13" s="2">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CV13" s="2">
         <f t="shared" si="16"/>
@@ -29178,11 +29500,11 @@
       <c r="DI13" s="3"/>
       <c r="DJ13" s="2">
         <f t="shared" si="40"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="DK13" s="2">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="DL13" s="2">
         <f t="shared" si="24"/>
@@ -29218,11 +29540,11 @@
       <c r="DY13" s="3"/>
       <c r="DZ13" s="2">
         <f>'Demand Stage 2'!AH12</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="EA13" s="2">
         <f>'Demand Stage 2'!AI12</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="EB13" s="2">
         <f>'Demand Stage 2'!AJ12</f>
@@ -29258,11 +29580,11 @@
       <c r="EO13" s="3"/>
       <c r="EP13" s="2">
         <f t="shared" si="49"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="EQ13" s="2">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="ER13" s="2">
         <f t="shared" si="26"/>
@@ -29298,11 +29620,11 @@
       <c r="FE13" s="3"/>
       <c r="FF13" s="2">
         <f t="shared" si="51"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="FG13" s="2">
         <f t="shared" si="28"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="FH13" s="2">
         <f t="shared" si="28"/>
@@ -29338,11 +29660,11 @@
       <c r="FU13" s="3"/>
       <c r="FV13" s="2">
         <f t="shared" si="60"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="FW13" s="2">
         <f t="shared" si="30"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="FX13" s="2">
         <f t="shared" si="30"/>
@@ -29378,11 +29700,11 @@
       <c r="GK13" s="3"/>
       <c r="GL13" s="2">
         <f>'Demand Stage 2'!AX12</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="GM13" s="2">
         <f>'Demand Stage 2'!AY12</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="GN13" s="2">
         <f>'Demand Stage 2'!AZ12</f>
@@ -29418,11 +29740,11 @@
       <c r="HA13" s="3"/>
       <c r="HB13" s="2">
         <f t="shared" si="75"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="HC13" s="2">
         <f t="shared" si="32"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="HD13" s="2">
         <f t="shared" si="32"/>
@@ -29458,11 +29780,11 @@
       <c r="HQ13" s="3"/>
       <c r="HR13" s="2">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="HS13" s="2">
         <f t="shared" si="34"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="HT13" s="2">
         <f t="shared" si="34"/>
@@ -29498,11 +29820,11 @@
       <c r="IG13" s="3"/>
       <c r="IH13" s="2">
         <f t="shared" si="72"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="II13" s="2">
         <f t="shared" si="36"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="IJ13" s="2">
         <f t="shared" si="36"/>
@@ -33724,19 +34046,57 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="HB2:HQ2"/>
-    <mergeCell ref="HR2:IG2"/>
-    <mergeCell ref="IH2:IW2"/>
-    <mergeCell ref="DZ2:EO2"/>
-    <mergeCell ref="EP2:FE2"/>
-    <mergeCell ref="FF2:FU2"/>
-    <mergeCell ref="FV2:GK2"/>
-    <mergeCell ref="GL2:HA2"/>
-    <mergeCell ref="AX2:BM2"/>
-    <mergeCell ref="BN2:CC2"/>
-    <mergeCell ref="CD2:CS2"/>
-    <mergeCell ref="CT2:DI2"/>
-    <mergeCell ref="DJ2:DY2"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="R1:AG1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="R2:AG2"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="R4:Y4"/>
+    <mergeCell ref="Z4:AG4"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="R3:AG3"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="AP4:AW4"/>
+    <mergeCell ref="AX4:BE4"/>
+    <mergeCell ref="BF4:BM4"/>
+    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CD4:CK4"/>
+    <mergeCell ref="CL4:CS4"/>
+    <mergeCell ref="CT4:DA4"/>
+    <mergeCell ref="DB4:DI4"/>
+    <mergeCell ref="DJ4:DQ4"/>
+    <mergeCell ref="DR4:DY4"/>
+    <mergeCell ref="DZ4:EG4"/>
+    <mergeCell ref="EH4:EO4"/>
+    <mergeCell ref="EP4:EW4"/>
+    <mergeCell ref="EX4:FE4"/>
+    <mergeCell ref="FF4:FM4"/>
+    <mergeCell ref="FN4:FU4"/>
+    <mergeCell ref="FV4:GC4"/>
+    <mergeCell ref="GD4:GK4"/>
+    <mergeCell ref="GL4:GS4"/>
+    <mergeCell ref="GT4:HA4"/>
+    <mergeCell ref="HB4:HI4"/>
+    <mergeCell ref="HJ4:HQ4"/>
+    <mergeCell ref="HR4:HY4"/>
+    <mergeCell ref="HZ4:IG4"/>
+    <mergeCell ref="IH4:IO4"/>
+    <mergeCell ref="IP4:IW4"/>
+    <mergeCell ref="AH3:AW3"/>
+    <mergeCell ref="AX3:BM3"/>
+    <mergeCell ref="BN3:CC3"/>
+    <mergeCell ref="CD3:CS3"/>
+    <mergeCell ref="CT3:DI3"/>
+    <mergeCell ref="DJ3:DY3"/>
+    <mergeCell ref="DZ3:EO3"/>
+    <mergeCell ref="EP3:FE3"/>
+    <mergeCell ref="FF3:FU3"/>
+    <mergeCell ref="FV3:GK3"/>
+    <mergeCell ref="GL3:HA3"/>
+    <mergeCell ref="HB3:HQ3"/>
+    <mergeCell ref="HR3:IG3"/>
     <mergeCell ref="IH3:IW3"/>
     <mergeCell ref="AH1:AW1"/>
     <mergeCell ref="AX1:BM1"/>
@@ -33753,57 +34113,19 @@
     <mergeCell ref="HR1:IG1"/>
     <mergeCell ref="IH1:IW1"/>
     <mergeCell ref="AH2:AW2"/>
-    <mergeCell ref="HZ4:IG4"/>
-    <mergeCell ref="IH4:IO4"/>
-    <mergeCell ref="IP4:IW4"/>
-    <mergeCell ref="AH3:AW3"/>
-    <mergeCell ref="AX3:BM3"/>
-    <mergeCell ref="BN3:CC3"/>
-    <mergeCell ref="CD3:CS3"/>
-    <mergeCell ref="CT3:DI3"/>
-    <mergeCell ref="DJ3:DY3"/>
-    <mergeCell ref="DZ3:EO3"/>
-    <mergeCell ref="EP3:FE3"/>
-    <mergeCell ref="FF3:FU3"/>
-    <mergeCell ref="FV3:GK3"/>
-    <mergeCell ref="GL3:HA3"/>
-    <mergeCell ref="HB3:HQ3"/>
-    <mergeCell ref="HR3:IG3"/>
-    <mergeCell ref="GL4:GS4"/>
-    <mergeCell ref="GT4:HA4"/>
-    <mergeCell ref="HB4:HI4"/>
-    <mergeCell ref="HJ4:HQ4"/>
-    <mergeCell ref="HR4:HY4"/>
-    <mergeCell ref="EX4:FE4"/>
-    <mergeCell ref="FF4:FM4"/>
-    <mergeCell ref="FN4:FU4"/>
-    <mergeCell ref="FV4:GC4"/>
-    <mergeCell ref="GD4:GK4"/>
-    <mergeCell ref="DJ4:DQ4"/>
-    <mergeCell ref="DR4:DY4"/>
-    <mergeCell ref="DZ4:EG4"/>
-    <mergeCell ref="EH4:EO4"/>
-    <mergeCell ref="EP4:EW4"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="CD4:CK4"/>
-    <mergeCell ref="CL4:CS4"/>
-    <mergeCell ref="CT4:DA4"/>
-    <mergeCell ref="DB4:DI4"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="AP4:AW4"/>
-    <mergeCell ref="AX4:BE4"/>
-    <mergeCell ref="BF4:BM4"/>
-    <mergeCell ref="BN4:BU4"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="R1:AG1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="R2:AG2"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="R4:Y4"/>
-    <mergeCell ref="Z4:AG4"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="R3:AG3"/>
+    <mergeCell ref="AX2:BM2"/>
+    <mergeCell ref="BN2:CC2"/>
+    <mergeCell ref="CD2:CS2"/>
+    <mergeCell ref="CT2:DI2"/>
+    <mergeCell ref="DJ2:DY2"/>
+    <mergeCell ref="HB2:HQ2"/>
+    <mergeCell ref="HR2:IG2"/>
+    <mergeCell ref="IH2:IW2"/>
+    <mergeCell ref="DZ2:EO2"/>
+    <mergeCell ref="EP2:FE2"/>
+    <mergeCell ref="FF2:FU2"/>
+    <mergeCell ref="FV2:GK2"/>
+    <mergeCell ref="GL2:HA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/OneScenario/Instance_storage_costs_option3.xlsx
+++ b/Data/OneScenario/Instance_storage_costs_option3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/OneScenario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2170F975-BE6B-C04B-AC8B-39CBA2FAF302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FEB1C0-EF9E-E04A-80ED-148A1C4E4E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="9" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19660" activeTab="2" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualisation" sheetId="7" r:id="rId1"/>
@@ -1515,7 +1515,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -1596,6 +1596,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1632,8 +1633,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -2142,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902688A-D2A3-854F-B341-C0BEC53AF991}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2216,7 +2215,7 @@
       <c r="Q1" s="54" t="s">
         <v>333</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="8" t="s">
         <v>345</v>
       </c>
     </row>
@@ -2703,8 +2702,8 @@
         <f t="shared" si="1"/>
         <v>LINESTRING(2.46440416605363 58.1881490174125,2.35855658302684 54.6172775087063,2.25270900000004 51.046406)</v>
       </c>
-      <c r="I9" s="68">
-        <v>54.2</v>
+      <c r="I9" s="56">
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3813,7 +3812,7 @@
         <f t="shared" si="1"/>
         <v>LINESTRING(1.91586639699623 58.3649441738375,2.60784119849812 56.5772190869188,3.29981600000002 54.789494)</v>
       </c>
-      <c r="I26" s="68">
+      <c r="I26" s="56">
         <v>42.2</v>
       </c>
       <c r="J26" s="1" t="str">
@@ -3879,8 +3878,8 @@
         <f t="shared" si="1"/>
         <v>LINESTRING(3.29981600000002 54.789494,3.26480650000005 53.070001,3.22979700000008 51.350508)</v>
       </c>
-      <c r="I27" s="68">
-        <v>42.2</v>
+      <c r="I27" s="56">
+        <v>10</v>
       </c>
       <c r="J27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6190,35 +6189,35 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" cm="1">
         <f t="array" ref="A15">SUM(IF(ISNUMBER(VLOOKUP(A2:A13,Nodes!$B$3:$I$61,8)),VLOOKUP(A2:A13,Nodes!$B$3:$I$61,8)))</f>
-        <v>32.633767123287676</v>
+        <v>10</v>
       </c>
       <c r="B15" cm="1">
         <f t="array" ref="B15">SUM(IF(ISNUMBER(VLOOKUP(B2:B13,Nodes!$B$3:$I$61,8)),VLOOKUP(B2:B13,Nodes!$B$3:$I$61,8)))</f>
-        <v>8.8860904109589036</v>
+        <v>0</v>
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">SUM(IF(ISNUMBER(VLOOKUP(C2:C13,Nodes!$B$3:$I$61,8)),VLOOKUP(C2:C13,Nodes!$B$3:$I$61,8)))</f>
-        <v>3.8482712328767121</v>
+        <v>0</v>
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">SUM(IF(ISNUMBER(VLOOKUP(D2:D13,Nodes!$B$3:$I$61,8)),VLOOKUP(D2:D13,Nodes!$B$3:$I$61,8)))</f>
-        <v>242.49738630136986</v>
+        <v>10</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">SUM(IF(ISNUMBER(VLOOKUP(E2:E13,Nodes!$B$3:$I$61,8)),VLOOKUP(E2:E13,Nodes!$B$3:$I$61,8)))</f>
-        <v>4.0645178082191773</v>
+        <v>0</v>
       </c>
       <c r="F15" s="41" cm="1">
         <f t="array" ref="F15">SUM(IF(ISNUMBER(VLOOKUP(F2:F13,Nodes!$B$3:$I$61,8)),VLOOKUP(F2:F13,Nodes!$B$3:$I$61,8)))</f>
-        <v>10.738131506849314</v>
+        <v>0</v>
       </c>
       <c r="G15" s="41" cm="1">
         <f t="array" ref="G15">SUM(IF(ISNUMBER(VLOOKUP(G2:G13,Nodes!$B$3:$I$61,8)),VLOOKUP(G2:G13,Nodes!$B$3:$I$61,8)))</f>
-        <v>1.5822602739726026</v>
+        <v>0</v>
       </c>
       <c r="H15" s="41" cm="1">
         <f t="array" ref="H15">SUM(IF(ISNUMBER(VLOOKUP(H2:H13,Nodes!$B$3:$I$61,8)),VLOOKUP(H2:H13,Nodes!$B$3:$I$61,8)))</f>
-        <v>0.35852054794520549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
@@ -6251,7 +6250,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6313,35 +6312,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>12.5/40</f>
-        <v>0.3125</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <f>12.5/40</f>
-        <v>0.3125</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2">
         <f>HLOOKUP(A2,Traders!$A$1:$H$15,15,)</f>
-        <v>32.633767123287676</v>
+        <v>10</v>
       </c>
       <c r="L2" cm="1">
         <f t="array" ref="L2">SUM(B2:I2*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>46.125</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6349,20 +6350,24 @@
         <v>177</v>
       </c>
       <c r="B3">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="C3">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D3">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E3">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>2.5/45</f>
-        <v>5.5555555555555552E-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -6371,15 +6376,15 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <f>HLOOKUP(A3,Traders!$A$1:$H$15,15,)</f>
-        <v>8.8860904109589036</v>
+        <v>0</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" ref="L3">SUM(B3:I3*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -6387,19 +6392,23 @@
         <v>210</v>
       </c>
       <c r="B4">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="C4">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D4">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>3.5/45</f>
-        <v>7.7777777777777779E-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="F4">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -6413,11 +6422,11 @@
       </c>
       <c r="K4">
         <f>HLOOKUP(A4,Traders!$A$1:$H$15,15,)</f>
-        <v>3.8482712328767121</v>
+        <v>0</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" ref="L4">SUM(B4:I4*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -6425,38 +6434,41 @@
         <v>163</v>
       </c>
       <c r="B5">
-        <v>0.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="E5">
-        <f>8/9</f>
-        <v>0.88888888888888884</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f>8/9</f>
-        <v>0.88888888888888884</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6875</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.6875</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f>HLOOKUP(A5,Traders!$A$1:$H$15,15,)</f>
-        <v>242.49738630136986</v>
+        <v>10</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" ref="L5">SUM(B5:I5*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>267.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -6464,21 +6476,24 @@
         <v>211</v>
       </c>
       <c r="B6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="C6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>1.5/45</f>
-        <v>3.3333333333333333E-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f>1.5/45</f>
-        <v>3.3333333333333333E-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6491,11 +6506,11 @@
       </c>
       <c r="K6">
         <f>HLOOKUP(A6,Traders!$A$1:$H$15,15,)</f>
-        <v>4.0645178082191773</v>
+        <v>0</v>
       </c>
       <c r="L6" cm="1">
         <f t="array" ref="L6">SUM(B6:I6*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -6503,18 +6518,23 @@
         <v>212</v>
       </c>
       <c r="B7">
-        <v>0.57499999999999996</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="C7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="G7">
@@ -6528,11 +6548,11 @@
       </c>
       <c r="K7">
         <f>HLOOKUP(A7,Traders!$A$1:$H$15,15,)</f>
-        <v>10.738131506849314</v>
+        <v>0</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">SUM(B7:I7*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>25.874999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -6540,20 +6560,24 @@
         <v>214</v>
       </c>
       <c r="B8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="C8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>1/45</f>
-        <v>2.2222222222222223E-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6566,11 +6590,11 @@
       </c>
       <c r="K8">
         <f>HLOOKUP(A8,Traders!$A$1:$H$15,15,)</f>
-        <v>1.5822602739726026</v>
+        <v>0</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" ref="L8">SUM(B8:I8*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6578,18 +6602,23 @@
         <v>213</v>
       </c>
       <c r="B9">
-        <v>2.5000000000000001E-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="C9">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D9">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E9">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F9">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="G9">
@@ -6604,11 +6633,11 @@
       <c r="J9" s="40"/>
       <c r="K9">
         <f>HLOOKUP(A9,Traders!$A$1:$H$15,15,)</f>
-        <v>0.35852054794520549</v>
+        <v>0</v>
       </c>
       <c r="L9" s="40" cm="1">
         <f t="array" ref="L9">SUM(B9:I9*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>1.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -6616,40 +6645,40 @@
         <v>308</v>
       </c>
       <c r="B10">
-        <f>SUM(B2:B9)</f>
+        <f t="shared" ref="B10:I10" si="0">SUM(B2:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10">
-        <f>SUM(C2:C9)</f>
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <f>SUM(D2:D9)</f>
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <f>SUM(E2:E9)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="F10">
-        <f>SUM(F2:F9)</f>
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <f>SUM(G2:G9)</f>
-        <v>1</v>
-      </c>
       <c r="H10">
-        <f>SUM(H2:H9)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I10">
-        <f>SUM(I2:I9)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L10" cm="1">
         <f t="array" ref="L10">SUM(B10:I10*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>360</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -8546,8 +8575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8590,39 +8619,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="57" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -8753,8 +8782,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B3)</f>
-        <v>23.970863013698629</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
         <v>8889.5949999999993</v>
@@ -8766,7 +8794,7 @@
         <v>500</v>
       </c>
       <c r="M3" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N3" s="2">
         <f>IF(C3="Market",3000,0)</f>
@@ -8811,7 +8839,7 @@
       </c>
       <c r="AA3" s="3">
         <f>M3</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="3">
         <v>0</v>
@@ -8867,7 +8895,6 @@
         <v>5</v>
       </c>
       <c r="I4" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B4)</f>
         <v>0</v>
       </c>
       <c r="J4" s="2">
@@ -8880,7 +8907,7 @@
         <v>500</v>
       </c>
       <c r="M4" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" ref="N4:N61" si="1">IF(C4="Market",3000,0)</f>
@@ -8925,7 +8952,7 @@
       </c>
       <c r="AA4" s="3">
         <f t="shared" ref="AA4:AA61" si="3">M4</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="3">
         <v>0</v>
@@ -8983,8 +9010,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B5)</f>
-        <v>28.969463013698629</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -8996,7 +9022,7 @@
         <v>500</v>
       </c>
       <c r="M5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="1"/>
@@ -9041,7 +9067,7 @@
       </c>
       <c r="AA5" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB5" s="3">
         <v>0</v>
@@ -9097,7 +9123,6 @@
         <v>5</v>
       </c>
       <c r="I6" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B6)</f>
         <v>0</v>
       </c>
       <c r="J6" s="2">
@@ -9110,7 +9135,7 @@
         <v>500</v>
       </c>
       <c r="M6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="1"/>
@@ -9155,7 +9180,7 @@
       </c>
       <c r="AA6" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB6" s="3">
         <v>0</v>
@@ -9211,7 +9236,6 @@
         <v>5</v>
       </c>
       <c r="I7" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B7)</f>
         <v>0</v>
       </c>
       <c r="J7" s="29">
@@ -9224,7 +9248,7 @@
         <v>500</v>
       </c>
       <c r="M7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="1"/>
@@ -9269,7 +9293,7 @@
       </c>
       <c r="AA7" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB7" s="3">
         <v>0</v>
@@ -9327,8 +9351,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B8)</f>
-        <v>0.35852054794520549</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -9340,7 +9363,7 @@
         <v>500</v>
       </c>
       <c r="M8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="1"/>
@@ -9385,7 +9408,7 @@
       </c>
       <c r="AA8" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="3">
         <v>0</v>
@@ -9443,7 +9466,6 @@
         <v>5</v>
       </c>
       <c r="I9" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B9)</f>
         <v>0</v>
       </c>
       <c r="J9" s="2">
@@ -9456,7 +9478,7 @@
         <v>500</v>
       </c>
       <c r="M9" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="1"/>
@@ -9501,7 +9523,7 @@
       </c>
       <c r="AA9" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB9" s="3">
         <v>0</v>
@@ -9556,8 +9578,8 @@
       <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="I10" s="29">
-        <v>48</v>
+      <c r="I10" s="2">
+        <v>0</v>
       </c>
       <c r="J10" s="2">
         <v>1282.3420000000001</v>
@@ -9569,7 +9591,7 @@
         <v>500</v>
       </c>
       <c r="M10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="1"/>
@@ -9614,7 +9636,7 @@
       </c>
       <c r="AA10" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="3">
         <v>0</v>
@@ -9670,7 +9692,6 @@
         <v>5</v>
       </c>
       <c r="I11" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B11)</f>
         <v>0</v>
       </c>
       <c r="J11" s="2">
@@ -9683,7 +9704,7 @@
         <v>500</v>
       </c>
       <c r="M11" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="1"/>
@@ -9728,7 +9749,7 @@
       </c>
       <c r="AA11" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB11" s="3">
         <v>0</v>
@@ -9784,7 +9805,6 @@
         <v>5</v>
       </c>
       <c r="I12" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B12)</f>
         <v>0</v>
       </c>
       <c r="J12" s="2">
@@ -9797,7 +9817,7 @@
         <v>500</v>
       </c>
       <c r="M12" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="1"/>
@@ -9842,7 +9862,7 @@
       </c>
       <c r="AA12" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB12" s="3">
         <v>0</v>
@@ -9898,7 +9918,6 @@
         <v>5</v>
       </c>
       <c r="I13" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B13)</f>
         <v>0</v>
       </c>
       <c r="J13" s="2">
@@ -9911,7 +9930,7 @@
         <v>500</v>
       </c>
       <c r="M13" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="1"/>
@@ -9956,7 +9975,7 @@
       </c>
       <c r="AA13" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB13" s="3">
         <v>0</v>
@@ -10012,7 +10031,6 @@
         <v>5</v>
       </c>
       <c r="I14" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B14)</f>
         <v>0</v>
       </c>
       <c r="J14" s="2">
@@ -10025,7 +10043,7 @@
         <v>500</v>
       </c>
       <c r="M14" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="1"/>
@@ -10070,7 +10088,7 @@
       </c>
       <c r="AA14" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
@@ -10128,8 +10146,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B15)</f>
-        <v>1.0191780821917809E-2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
         <v>48.064999999999998</v>
@@ -10141,7 +10158,7 @@
         <v>500</v>
       </c>
       <c r="M15" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="1"/>
@@ -10186,7 +10203,7 @@
       </c>
       <c r="AA15" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
@@ -10242,7 +10259,6 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B16)</f>
         <v>0</v>
       </c>
       <c r="J16" s="2">
@@ -10255,7 +10271,7 @@
         <v>500</v>
       </c>
       <c r="M16" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="1"/>
@@ -10300,7 +10316,7 @@
       </c>
       <c r="AA16" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB16" s="3">
         <v>0</v>
@@ -10356,7 +10372,6 @@
         <v>5</v>
       </c>
       <c r="I17" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B17)</f>
         <v>0</v>
       </c>
       <c r="J17" s="2">
@@ -10369,7 +10384,7 @@
         <v>500</v>
       </c>
       <c r="M17" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="1"/>
@@ -10414,7 +10429,7 @@
       </c>
       <c r="AA17" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB17" s="3">
         <v>0</v>
@@ -10470,7 +10485,6 @@
         <v>5</v>
       </c>
       <c r="I18" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B18)</f>
         <v>0</v>
       </c>
       <c r="J18" s="2">
@@ -10483,7 +10497,7 @@
         <v>500</v>
       </c>
       <c r="M18" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="1"/>
@@ -10528,7 +10542,7 @@
       </c>
       <c r="AA18" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB18" s="3">
         <v>0</v>
@@ -10586,7 +10600,6 @@
         <v>5</v>
       </c>
       <c r="I19" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B19)</f>
         <v>0</v>
       </c>
       <c r="J19" s="29">
@@ -10599,7 +10612,7 @@
         <v>500</v>
       </c>
       <c r="M19" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="1"/>
@@ -10644,7 +10657,7 @@
       </c>
       <c r="AA19" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB19" s="3">
         <v>0</v>
@@ -10702,7 +10715,6 @@
         <v>5</v>
       </c>
       <c r="I20" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B20)</f>
         <v>0</v>
       </c>
       <c r="J20" s="2">
@@ -10715,7 +10727,7 @@
         <v>500</v>
       </c>
       <c r="M20" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="1"/>
@@ -10760,7 +10772,7 @@
       </c>
       <c r="AA20" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
@@ -10818,8 +10830,7 @@
         <v>5</v>
       </c>
       <c r="I21" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B21)</f>
-        <v>4.0645178082191773</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2">
         <v>48.064999999999998</v>
@@ -10831,7 +10842,7 @@
         <v>500</v>
       </c>
       <c r="M21" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="1"/>
@@ -10876,7 +10887,7 @@
       </c>
       <c r="AA21" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB21" s="3">
         <v>0</v>
@@ -10932,8 +10943,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B22)</f>
-        <v>3.8482712328767121</v>
+        <v>0</v>
       </c>
       <c r="J22" s="2">
         <v>578.78499999999997</v>
@@ -10945,7 +10955,7 @@
         <v>500</v>
       </c>
       <c r="M22" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="1"/>
@@ -10990,7 +11000,7 @@
       </c>
       <c r="AA22" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
@@ -11048,7 +11058,6 @@
         <v>5</v>
       </c>
       <c r="I23" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B23)</f>
         <v>0</v>
       </c>
       <c r="J23" s="2">
@@ -11061,7 +11070,7 @@
         <v>500</v>
       </c>
       <c r="M23" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="1"/>
@@ -11106,7 +11115,7 @@
       </c>
       <c r="AA23" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB23" s="3">
         <v>0</v>
@@ -11164,7 +11173,6 @@
         <v>5</v>
       </c>
       <c r="I24" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B24)</f>
         <v>0</v>
       </c>
       <c r="J24" s="2">
@@ -11177,7 +11185,7 @@
         <v>500</v>
       </c>
       <c r="M24" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="1"/>
@@ -11222,7 +11230,7 @@
       </c>
       <c r="AA24" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB24" s="3">
         <v>0</v>
@@ -11278,7 +11286,6 @@
         <v>5</v>
       </c>
       <c r="I25" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B25)</f>
         <v>0</v>
       </c>
       <c r="J25" s="2">
@@ -11291,7 +11298,7 @@
         <v>500</v>
       </c>
       <c r="M25" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="1"/>
@@ -11336,7 +11343,7 @@
       </c>
       <c r="AA25" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB25" s="3">
         <v>0</v>
@@ -11392,7 +11399,6 @@
         <v>5</v>
       </c>
       <c r="I26" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B26)</f>
         <v>0</v>
       </c>
       <c r="J26" s="2">
@@ -11405,7 +11411,7 @@
         <v>500</v>
       </c>
       <c r="M26" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="1"/>
@@ -11450,7 +11456,7 @@
       </c>
       <c r="AA26" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB26" s="3">
         <v>0</v>
@@ -11508,7 +11514,6 @@
         <v>5</v>
       </c>
       <c r="I27" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B27)</f>
         <v>0</v>
       </c>
       <c r="J27" s="2">
@@ -11521,7 +11526,7 @@
         <v>500</v>
       </c>
       <c r="M27" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="1"/>
@@ -11566,7 +11571,7 @@
       </c>
       <c r="AA27" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB27" s="3">
         <v>0</v>
@@ -11624,8 +11629,7 @@
         <v>5</v>
       </c>
       <c r="I28" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B28)</f>
-        <v>10.738131506849314</v>
+        <v>0</v>
       </c>
       <c r="J28" s="2">
         <v>2588.0810000000001</v>
@@ -11637,7 +11641,7 @@
         <v>500</v>
       </c>
       <c r="M28" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="1"/>
@@ -11682,7 +11686,7 @@
       </c>
       <c r="AA28" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB28" s="3">
         <v>0</v>
@@ -11740,7 +11744,6 @@
         <v>5</v>
       </c>
       <c r="I29" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B29)</f>
         <v>0</v>
       </c>
       <c r="J29" s="2">
@@ -11753,7 +11756,7 @@
         <v>500</v>
       </c>
       <c r="M29" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="1"/>
@@ -11798,7 +11801,7 @@
       </c>
       <c r="AA29" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB29" s="3">
         <v>0</v>
@@ -11854,7 +11857,6 @@
         <v>5</v>
       </c>
       <c r="I30" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B30)</f>
         <v>0</v>
       </c>
       <c r="J30" s="2">
@@ -11867,7 +11869,7 @@
         <v>500</v>
       </c>
       <c r="M30" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="1"/>
@@ -11912,7 +11914,7 @@
       </c>
       <c r="AA30" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB30" s="3">
         <v>0</v>
@@ -11968,7 +11970,6 @@
         <v>5</v>
       </c>
       <c r="I31" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B31)</f>
         <v>0</v>
       </c>
       <c r="J31" s="2">
@@ -11981,7 +11982,7 @@
         <v>500</v>
       </c>
       <c r="M31" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="1"/>
@@ -12026,7 +12027,7 @@
       </c>
       <c r="AA31" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB31" s="3">
         <v>0</v>
@@ -12082,7 +12083,6 @@
         <v>5</v>
       </c>
       <c r="I32" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B32)</f>
         <v>0</v>
       </c>
       <c r="J32" s="2">
@@ -12095,7 +12095,7 @@
         <v>500</v>
       </c>
       <c r="M32" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="1"/>
@@ -12140,7 +12140,7 @@
       </c>
       <c r="AA32" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
@@ -12198,8 +12198,7 @@
         <v>5</v>
       </c>
       <c r="I33" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B33)</f>
-        <v>4.2217397260273968</v>
+        <v>0</v>
       </c>
       <c r="J33" s="2">
         <v>1214.5999999999999</v>
@@ -12211,7 +12210,7 @@
         <v>500</v>
       </c>
       <c r="M33" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="1"/>
@@ -12256,7 +12255,7 @@
       </c>
       <c r="AA33" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB33" s="3">
         <v>0</v>
@@ -12312,8 +12311,7 @@
         <v>5</v>
       </c>
       <c r="I34" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B34)</f>
-        <v>7.2424657534246567E-2</v>
+        <v>0</v>
       </c>
       <c r="J34" s="2">
         <v>1329.308</v>
@@ -12325,7 +12323,7 @@
         <v>500</v>
       </c>
       <c r="M34" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="1"/>
@@ -12370,7 +12368,7 @@
       </c>
       <c r="AA34" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB34" s="3">
         <v>0</v>
@@ -12426,7 +12424,6 @@
         <v>5</v>
       </c>
       <c r="I35" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B35)</f>
         <v>0</v>
       </c>
       <c r="J35" s="2">
@@ -12439,7 +12436,7 @@
         <v>500</v>
       </c>
       <c r="M35" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="1"/>
@@ -12484,7 +12481,7 @@
       </c>
       <c r="AA35" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB35" s="3">
         <v>0</v>
@@ -12542,8 +12539,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B36)</f>
-        <v>2.3047890410958907</v>
+        <v>0</v>
       </c>
       <c r="J36" s="2">
         <v>8889.5949999999993</v>
@@ -12555,7 +12551,7 @@
         <v>500</v>
       </c>
       <c r="M36" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="1"/>
@@ -12600,7 +12596,7 @@
       </c>
       <c r="AA36" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB36" s="3">
         <v>0</v>
@@ -12658,7 +12654,6 @@
         <v>5</v>
       </c>
       <c r="I37" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B37)</f>
         <v>0</v>
       </c>
       <c r="J37" s="2">
@@ -12671,7 +12666,7 @@
         <v>500</v>
       </c>
       <c r="M37" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="1"/>
@@ -12716,7 +12711,7 @@
       </c>
       <c r="AA37" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB37" s="3">
         <v>0</v>
@@ -12772,7 +12767,6 @@
         <v>5</v>
       </c>
       <c r="I38" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B38)</f>
         <v>0</v>
       </c>
       <c r="J38" s="2">
@@ -12785,7 +12779,7 @@
         <v>500</v>
       </c>
       <c r="M38" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="1"/>
@@ -12830,7 +12824,7 @@
       </c>
       <c r="AA38" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB38" s="3">
         <v>0</v>
@@ -12886,7 +12880,6 @@
         <v>5</v>
       </c>
       <c r="I39" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B39)</f>
         <v>0</v>
       </c>
       <c r="J39" s="2">
@@ -12899,7 +12892,7 @@
         <v>500</v>
       </c>
       <c r="M39" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="1"/>
@@ -12944,7 +12937,7 @@
       </c>
       <c r="AA39" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB39" s="3">
         <v>0</v>
@@ -13000,8 +12993,7 @@
         <v>5</v>
       </c>
       <c r="I40" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B40)</f>
-        <v>26.03253698630137</v>
+        <v>0</v>
       </c>
       <c r="J40" s="2">
         <v>508.40300000000002</v>
@@ -13013,7 +13005,7 @@
         <v>500</v>
       </c>
       <c r="M40" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="1"/>
@@ -13058,7 +13050,7 @@
       </c>
       <c r="AA40" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB40" s="3">
         <v>0</v>
@@ -13116,7 +13108,6 @@
         <v>5</v>
       </c>
       <c r="I41" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B41)</f>
         <v>0</v>
       </c>
       <c r="J41" s="2">
@@ -13129,7 +13120,7 @@
         <v>500</v>
       </c>
       <c r="M41" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="1"/>
@@ -13174,7 +13165,7 @@
       </c>
       <c r="AA41" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
@@ -13230,7 +13221,6 @@
         <v>5</v>
       </c>
       <c r="I42" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B42)</f>
         <v>0</v>
       </c>
       <c r="J42" s="2">
@@ -13243,7 +13233,7 @@
         <v>500</v>
       </c>
       <c r="M42" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="1"/>
@@ -13288,7 +13278,7 @@
       </c>
       <c r="AA42" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB42" s="3">
         <v>0</v>
@@ -13346,8 +13336,7 @@
         <v>5</v>
       </c>
       <c r="I43" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B43)</f>
-        <v>1.5822602739726026</v>
+        <v>0</v>
       </c>
       <c r="J43" s="2">
         <v>1041.0509999999999</v>
@@ -13359,7 +13348,7 @@
         <v>500</v>
       </c>
       <c r="M43" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="1"/>
@@ -13404,7 +13393,7 @@
       </c>
       <c r="AA43" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -13462,7 +13451,6 @@
         <v>5</v>
       </c>
       <c r="I44" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B44)</f>
         <v>0</v>
       </c>
       <c r="J44" s="2">
@@ -13475,7 +13463,7 @@
         <v>500</v>
       </c>
       <c r="M44" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="1"/>
@@ -13520,7 +13508,7 @@
       </c>
       <c r="AA44" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB44" s="3">
         <v>0</v>
@@ -13576,7 +13564,6 @@
         <v>5</v>
       </c>
       <c r="I45" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B45)</f>
         <v>0</v>
       </c>
       <c r="J45" s="2">
@@ -13589,7 +13576,7 @@
         <v>500</v>
       </c>
       <c r="M45" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="1"/>
@@ -13634,7 +13621,7 @@
       </c>
       <c r="AA45" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
@@ -13690,7 +13677,6 @@
         <v>5</v>
       </c>
       <c r="I46" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B46)</f>
         <v>0</v>
       </c>
       <c r="J46" s="2">
@@ -13703,7 +13689,7 @@
         <v>500</v>
       </c>
       <c r="M46" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="1"/>
@@ -13748,7 +13734,7 @@
       </c>
       <c r="AA46" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB46" s="3">
         <v>0</v>
@@ -13804,8 +13790,7 @@
         <v>5</v>
       </c>
       <c r="I47" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B47)</f>
-        <v>32.633767123287676</v>
+        <v>10</v>
       </c>
       <c r="J47" s="2">
         <v>48.064999999999998</v>
@@ -13817,7 +13802,7 @@
         <v>500</v>
       </c>
       <c r="M47" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="1"/>
@@ -13862,7 +13847,7 @@
       </c>
       <c r="AA47" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB47" s="3">
         <v>0</v>
@@ -13918,8 +13903,7 @@
         <v>5</v>
       </c>
       <c r="I48" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B48)</f>
-        <v>11.774098630136987</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2">
         <v>48.064999999999998</v>
@@ -13931,7 +13915,7 @@
         <v>500</v>
       </c>
       <c r="M48" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="1"/>
@@ -13976,7 +13960,7 @@
       </c>
       <c r="AA48" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB48" s="3">
         <v>0</v>
@@ -14034,7 +14018,6 @@
         <v>5</v>
       </c>
       <c r="I49" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B49)</f>
         <v>0</v>
       </c>
       <c r="J49" s="29">
@@ -14047,7 +14030,7 @@
         <v>500</v>
       </c>
       <c r="M49" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="1"/>
@@ -14092,7 +14075,7 @@
       </c>
       <c r="AA49" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB49" s="3">
         <v>0</v>
@@ -14150,7 +14133,6 @@
         <v>5</v>
       </c>
       <c r="I50" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B50)</f>
         <v>0</v>
       </c>
       <c r="J50" s="2">
@@ -14163,7 +14145,7 @@
         <v>500</v>
       </c>
       <c r="M50" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="1"/>
@@ -14208,7 +14190,7 @@
       </c>
       <c r="AA50" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB50" s="3">
         <v>0</v>
@@ -14266,8 +14248,7 @@
         <v>5</v>
       </c>
       <c r="I51" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B51)</f>
-        <v>8.8860904109589036</v>
+        <v>0</v>
       </c>
       <c r="J51" s="2">
         <v>48.064999999999998</v>
@@ -14279,7 +14260,7 @@
         <v>500</v>
       </c>
       <c r="M51" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="1"/>
@@ -14324,7 +14305,7 @@
       </c>
       <c r="AA51" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB51" s="3">
         <v>0</v>
@@ -14380,8 +14361,7 @@
         <v>5</v>
       </c>
       <c r="I52" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B52)</f>
-        <v>10.928873972602741</v>
+        <v>0</v>
       </c>
       <c r="J52" s="2">
         <v>291.70999999999998</v>
@@ -14393,7 +14373,7 @@
         <v>500</v>
       </c>
       <c r="M52" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="1"/>
@@ -14438,7 +14418,7 @@
       </c>
       <c r="AA52" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
@@ -14494,7 +14474,6 @@
         <v>5</v>
       </c>
       <c r="I53" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B53)</f>
         <v>0</v>
       </c>
       <c r="J53" s="2">
@@ -14507,7 +14486,7 @@
         <v>500</v>
       </c>
       <c r="M53" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="1"/>
@@ -14552,7 +14531,7 @@
       </c>
       <c r="AA53" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB53" s="3">
         <v>0</v>
@@ -14610,7 +14589,6 @@
         <v>5</v>
       </c>
       <c r="I54" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B54)</f>
         <v>0</v>
       </c>
       <c r="J54" s="2">
@@ -14623,7 +14601,7 @@
         <v>500</v>
       </c>
       <c r="M54" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="1"/>
@@ -14668,7 +14646,7 @@
       </c>
       <c r="AA54" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB54" s="3">
         <v>0</v>
@@ -14724,7 +14702,6 @@
         <v>5</v>
       </c>
       <c r="I55" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B55)</f>
         <v>0</v>
       </c>
       <c r="J55" s="2">
@@ -14737,7 +14714,7 @@
         <v>500</v>
       </c>
       <c r="M55" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="1"/>
@@ -14782,7 +14759,7 @@
       </c>
       <c r="AA55" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB55" s="3">
         <v>0</v>
@@ -14838,8 +14815,7 @@
         <v>5</v>
       </c>
       <c r="I56" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B56)</f>
-        <v>16.026747945205479</v>
+        <v>10</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
@@ -14851,7 +14827,7 @@
         <v>500</v>
       </c>
       <c r="M56" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="1"/>
@@ -14896,7 +14872,7 @@
       </c>
       <c r="AA56" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB56" s="3">
         <v>0</v>
@@ -14954,7 +14930,6 @@
         <v>5</v>
       </c>
       <c r="I57" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B57)</f>
         <v>0</v>
       </c>
       <c r="J57" s="2">
@@ -14967,7 +14942,7 @@
         <v>500</v>
       </c>
       <c r="M57" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="1"/>
@@ -15012,7 +14987,7 @@
       </c>
       <c r="AA57" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB57" s="3">
         <v>0</v>
@@ -15070,7 +15045,6 @@
         <v>5</v>
       </c>
       <c r="I58" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B58)</f>
         <v>0</v>
       </c>
       <c r="J58" s="2">
@@ -15083,7 +15057,7 @@
         <v>500</v>
       </c>
       <c r="M58" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="1"/>
@@ -15128,7 +15102,7 @@
       </c>
       <c r="AA58" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
@@ -15184,8 +15158,7 @@
         <v>5</v>
       </c>
       <c r="I59" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B59)</f>
-        <v>99.237736986301371</v>
+        <v>0</v>
       </c>
       <c r="J59" s="2">
         <v>2628.125</v>
@@ -15197,7 +15170,7 @@
         <v>500</v>
       </c>
       <c r="M59" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="1"/>
@@ -15242,7 +15215,7 @@
       </c>
       <c r="AA59" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB59" s="3">
         <v>0</v>
@@ -15300,7 +15273,6 @@
         <v>5</v>
       </c>
       <c r="I60" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B60)</f>
         <v>0</v>
       </c>
       <c r="J60" s="2">
@@ -15313,7 +15285,7 @@
         <v>500</v>
       </c>
       <c r="M60" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="1"/>
@@ -15358,7 +15330,7 @@
       </c>
       <c r="AA60" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB60" s="3">
         <v>0</v>
@@ -15414,7 +15386,6 @@
         <v>5</v>
       </c>
       <c r="I61" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B61)</f>
         <v>0</v>
       </c>
       <c r="J61" s="2">
@@ -15427,7 +15398,7 @@
         <v>500</v>
       </c>
       <c r="M61" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="1"/>
@@ -15472,7 +15443,7 @@
       </c>
       <c r="AA61" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
@@ -15512,7 +15483,7 @@
       </c>
       <c r="I64">
         <f>SUM(I3:I61)-SUMIF(F3:F61,"Los",I3:I61)</f>
-        <v>272.52532054794517</v>
+        <v>20</v>
       </c>
       <c r="J64" t="s">
         <v>216</v>
@@ -15538,7 +15509,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15550,70 +15521,70 @@
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="58">
+      <c r="B1" s="59">
         <v>1</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="59">
         <v>1</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -15707,8 +15678,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="2">
-        <f>'Demand Stage 2'!G43</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H5" s="2">
         <f>'Demand Stage 2'!H43</f>
@@ -15768,8 +15738,7 @@
         <v>40</v>
       </c>
       <c r="G6" s="2">
-        <f>'Demand Stage 2'!G44</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H6" s="2">
         <f>'Demand Stage 2'!H44</f>
@@ -15829,8 +15798,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="2">
-        <f>'Demand Stage 2'!G45</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H7" s="2">
         <f>'Demand Stage 2'!H45</f>
@@ -15890,8 +15858,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="2">
-        <f>'Demand Stage 2'!G46</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H8" s="2">
         <f>'Demand Stage 2'!H46</f>
@@ -15951,8 +15918,7 @@
         <v>45</v>
       </c>
       <c r="G9" s="2">
-        <f>'Demand Stage 2'!G47</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H9" s="2">
         <f>'Demand Stage 2'!H47</f>
@@ -16012,8 +15978,7 @@
         <v>40</v>
       </c>
       <c r="G10" s="2">
-        <f>'Demand Stage 2'!G48</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H10" s="2">
         <f>'Demand Stage 2'!H48</f>
@@ -16073,8 +16038,7 @@
         <v>40</v>
       </c>
       <c r="G11" s="2">
-        <f>'Demand Stage 2'!G49</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H11" s="2">
         <f>'Demand Stage 2'!H49</f>
@@ -16134,8 +16098,7 @@
         <v>45</v>
       </c>
       <c r="G12" s="2">
-        <f>'Demand Stage 2'!G50</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H12" s="2">
         <f>'Demand Stage 2'!H50</f>
@@ -16521,8 +16484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19292E87-5CF7-794D-A1AA-7C1926221C7B}">
   <dimension ref="A1:BM58"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A15" zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="BC39" sqref="BC39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16550,244 +16513,244 @@
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="58">
+      <c r="B1" s="59">
         <v>9</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59">
         <f>B1+Parameters!$B$7</f>
         <v>17</v>
       </c>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58">
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59">
         <f>R1+Parameters!$B$7</f>
         <v>25</v>
       </c>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58">
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59">
         <f>AH1+Parameters!$B$7</f>
         <v>33</v>
       </c>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="59"/>
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="59"/>
+      <c r="BG1" s="59"/>
+      <c r="BH1" s="59"/>
+      <c r="BI1" s="59"/>
+      <c r="BJ1" s="59"/>
+      <c r="BK1" s="59"/>
+      <c r="BL1" s="59"/>
+      <c r="BM1" s="59"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="59">
         <v>0.25</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58">
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58">
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="58"/>
-      <c r="BC2" s="58"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
-      <c r="BJ2" s="58"/>
-      <c r="BK2" s="58"/>
-      <c r="BL2" s="58"/>
-      <c r="BM2" s="58"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="59"/>
+      <c r="BC2" s="59"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="59"/>
+      <c r="BF2" s="59"/>
+      <c r="BG2" s="59"/>
+      <c r="BH2" s="59"/>
+      <c r="BI2" s="59"/>
+      <c r="BJ2" s="59"/>
+      <c r="BK2" s="59"/>
+      <c r="BL2" s="59"/>
+      <c r="BM2" s="59"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="59" t="s">
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="60" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="59" t="s">
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="60" t="s">
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="60"/>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="59" t="s">
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="59"/>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="59"/>
-      <c r="BF3" s="60" t="s">
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60"/>
+      <c r="BB3" s="60"/>
+      <c r="BC3" s="60"/>
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="60"/>
+      <c r="BF3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="60"/>
-      <c r="BJ3" s="60"/>
-      <c r="BK3" s="60"/>
-      <c r="BL3" s="60"/>
-      <c r="BM3" s="60"/>
+      <c r="BG3" s="61"/>
+      <c r="BH3" s="61"/>
+      <c r="BI3" s="61"/>
+      <c r="BJ3" s="61"/>
+      <c r="BK3" s="61"/>
+      <c r="BL3" s="61"/>
+      <c r="BM3" s="61"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -17068,7 +17031,7 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="7"/>
@@ -17124,7 +17087,7 @@
       </c>
       <c r="W5" s="2">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="8"/>
@@ -17180,7 +17143,7 @@
       </c>
       <c r="AM5" s="2">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="AN5" s="2">
         <f t="shared" si="9"/>
@@ -17236,7 +17199,7 @@
       </c>
       <c r="BC5" s="2">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BD5" s="2">
         <f t="shared" si="10"/>
@@ -17297,7 +17260,7 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="11"/>
@@ -17353,7 +17316,7 @@
       </c>
       <c r="W6" s="2">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" si="8"/>
@@ -17409,7 +17372,7 @@
       </c>
       <c r="AM6" s="2">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="AN6" s="2">
         <f t="shared" si="9"/>
@@ -17472,7 +17435,7 @@
       </c>
       <c r="BC6" s="2">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BD6" s="2">
         <f t="shared" si="10"/>
@@ -17533,7 +17496,7 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="11"/>
@@ -17589,7 +17552,7 @@
       </c>
       <c r="W7" s="2">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="8"/>
@@ -17645,7 +17608,7 @@
       </c>
       <c r="AM7" s="2">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="AN7" s="2">
         <f t="shared" si="9"/>
@@ -17701,7 +17664,7 @@
       </c>
       <c r="BC7" s="2">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BD7" s="2">
         <f t="shared" si="10"/>
@@ -17762,7 +17725,7 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="11"/>
@@ -17818,7 +17781,7 @@
       </c>
       <c r="W8" s="2">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="8"/>
@@ -17874,7 +17837,7 @@
       </c>
       <c r="AM8" s="2">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="AN8" s="2">
         <f t="shared" si="9"/>
@@ -17930,7 +17893,7 @@
       </c>
       <c r="BC8" s="2">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BD8" s="2">
         <f t="shared" si="10"/>
@@ -17991,7 +17954,7 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="11"/>
@@ -18031,7 +17994,7 @@
       </c>
       <c r="W9" s="2">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="X9" s="2">
         <f t="shared" si="8"/>
@@ -18071,7 +18034,7 @@
       </c>
       <c r="AM9" s="2">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="2">
         <f t="shared" si="9"/>
@@ -18111,7 +18074,7 @@
       </c>
       <c r="BC9" s="2">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="2">
         <f t="shared" si="10"/>
@@ -18156,7 +18119,7 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="11"/>
@@ -18196,7 +18159,7 @@
       </c>
       <c r="W10" s="2">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="X10" s="2">
         <f t="shared" si="8"/>
@@ -18236,7 +18199,7 @@
       </c>
       <c r="AM10" s="2">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="AN10" s="2">
         <f t="shared" si="9"/>
@@ -18276,7 +18239,7 @@
       </c>
       <c r="BC10" s="2">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BD10" s="2">
         <f t="shared" si="10"/>
@@ -18321,7 +18284,7 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="11"/>
@@ -18361,7 +18324,7 @@
       </c>
       <c r="W11" s="2">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" si="8"/>
@@ -18401,7 +18364,7 @@
       </c>
       <c r="AM11" s="2">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="AN11" s="2">
         <f t="shared" si="9"/>
@@ -18441,7 +18404,7 @@
       </c>
       <c r="BC11" s="2">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BD11" s="2">
         <f t="shared" si="10"/>
@@ -18486,7 +18449,7 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="11"/>
@@ -18526,7 +18489,7 @@
       </c>
       <c r="W12" s="2">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="X12" s="2">
         <f t="shared" si="8"/>
@@ -18566,7 +18529,7 @@
       </c>
       <c r="AM12" s="2">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="2">
         <f t="shared" si="9"/>
@@ -18606,7 +18569,7 @@
       </c>
       <c r="BC12" s="2">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="2">
         <f t="shared" si="10"/>
@@ -20158,7 +20121,7 @@
         <v>5</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -20182,7 +20145,7 @@
         <v>5</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X35">
         <v>-5</v>
@@ -20206,7 +20169,7 @@
         <v>-5</v>
       </c>
       <c r="AM35">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="AN35">
         <v>5</v>
@@ -20230,7 +20193,7 @@
         <v>-5</v>
       </c>
       <c r="BC35">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="BD35">
         <v>-5</v>
@@ -20461,7 +20424,7 @@
         <v>5</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H38">
         <v>5</v>
@@ -20485,7 +20448,7 @@
         <v>5</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X38">
         <v>-5</v>
@@ -20509,7 +20472,7 @@
         <v>-5</v>
       </c>
       <c r="AM38">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="AN38">
         <v>5</v>
@@ -20533,7 +20496,7 @@
         <v>-5</v>
       </c>
       <c r="BC38">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="BD38">
         <v>-5</v>
@@ -20573,7 +20536,7 @@
         <v>40</v>
       </c>
       <c r="G43" s="2">
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H43" s="2">
         <v>40</v>
@@ -20583,7 +20546,7 @@
       </c>
       <c r="K43">
         <f>SUM(B43:I43)</f>
-        <v>210</v>
+        <v>172.5</v>
       </c>
     </row>
     <row r="44" spans="1:57" x14ac:dyDescent="0.2">
@@ -20603,7 +20566,7 @@
         <v>40</v>
       </c>
       <c r="G44" s="2">
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H44" s="2">
         <v>40</v>
@@ -20629,7 +20592,7 @@
         <v>40</v>
       </c>
       <c r="G45" s="2">
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H45" s="2">
         <v>40</v>
@@ -20655,7 +20618,7 @@
         <v>40</v>
       </c>
       <c r="G46" s="2">
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H46" s="2">
         <v>40</v>
@@ -20681,7 +20644,7 @@
         <v>45</v>
       </c>
       <c r="G47" s="2">
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H47" s="2">
         <v>45</v>
@@ -20691,7 +20654,7 @@
       </c>
       <c r="K47">
         <f t="shared" ref="K47:K50" si="17">SUM(B47:I47)</f>
-        <v>225</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.2">
@@ -20711,7 +20674,7 @@
         <v>40</v>
       </c>
       <c r="G48" s="2">
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H48" s="2">
         <v>35</v>
@@ -20721,7 +20684,7 @@
       </c>
       <c r="K48">
         <f t="shared" si="17"/>
-        <v>205</v>
+        <v>167.5</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
@@ -20741,7 +20704,7 @@
         <v>40</v>
       </c>
       <c r="G49" s="2">
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H49" s="2">
         <v>35</v>
@@ -20767,7 +20730,7 @@
         <v>45</v>
       </c>
       <c r="G50" s="2">
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H50" s="2">
         <v>40</v>
@@ -20777,7 +20740,7 @@
       </c>
       <c r="K50">
         <f t="shared" si="17"/>
-        <v>220</v>
+        <v>182.5</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
@@ -20889,8 +20852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7506CF-850A-ED42-956F-025E5A994524}">
   <dimension ref="A1:IW33"/>
   <sheetViews>
-    <sheetView topLeftCell="IC3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="IH11" sqref="IH11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20904,1235 +20867,1235 @@
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="58">
+      <c r="B1" s="59">
         <f>(Parameters!B8+1)*Parameters!B7 + 1</f>
         <v>41</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59">
         <f>B1+Parameters!$B$7</f>
         <v>49</v>
       </c>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58">
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59">
         <f>R1+Parameters!$B$7</f>
         <v>57</v>
       </c>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58">
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59">
         <f>AH1+Parameters!$B$7</f>
         <v>65</v>
       </c>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58">
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="59"/>
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="59"/>
+      <c r="BG1" s="59"/>
+      <c r="BH1" s="59"/>
+      <c r="BI1" s="59"/>
+      <c r="BJ1" s="59"/>
+      <c r="BK1" s="59"/>
+      <c r="BL1" s="59"/>
+      <c r="BM1" s="59"/>
+      <c r="BN1" s="59">
         <f>AX1+Parameters!$B$7</f>
         <v>73</v>
       </c>
-      <c r="BO1" s="58"/>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
-      <c r="BR1" s="58"/>
-      <c r="BS1" s="58"/>
-      <c r="BT1" s="58"/>
-      <c r="BU1" s="58"/>
-      <c r="BV1" s="58"/>
-      <c r="BW1" s="58"/>
-      <c r="BX1" s="58"/>
-      <c r="BY1" s="58"/>
-      <c r="BZ1" s="58"/>
-      <c r="CA1" s="58"/>
-      <c r="CB1" s="58"/>
-      <c r="CC1" s="58"/>
-      <c r="CD1" s="58">
+      <c r="BO1" s="59"/>
+      <c r="BP1" s="59"/>
+      <c r="BQ1" s="59"/>
+      <c r="BR1" s="59"/>
+      <c r="BS1" s="59"/>
+      <c r="BT1" s="59"/>
+      <c r="BU1" s="59"/>
+      <c r="BV1" s="59"/>
+      <c r="BW1" s="59"/>
+      <c r="BX1" s="59"/>
+      <c r="BY1" s="59"/>
+      <c r="BZ1" s="59"/>
+      <c r="CA1" s="59"/>
+      <c r="CB1" s="59"/>
+      <c r="CC1" s="59"/>
+      <c r="CD1" s="59">
         <f>BN1+Parameters!$B$7</f>
         <v>81</v>
       </c>
-      <c r="CE1" s="58"/>
-      <c r="CF1" s="58"/>
-      <c r="CG1" s="58"/>
-      <c r="CH1" s="58"/>
-      <c r="CI1" s="58"/>
-      <c r="CJ1" s="58"/>
-      <c r="CK1" s="58"/>
-      <c r="CL1" s="58"/>
-      <c r="CM1" s="58"/>
-      <c r="CN1" s="58"/>
-      <c r="CO1" s="58"/>
-      <c r="CP1" s="58"/>
-      <c r="CQ1" s="58"/>
-      <c r="CR1" s="58"/>
-      <c r="CS1" s="58"/>
-      <c r="CT1" s="58">
+      <c r="CE1" s="59"/>
+      <c r="CF1" s="59"/>
+      <c r="CG1" s="59"/>
+      <c r="CH1" s="59"/>
+      <c r="CI1" s="59"/>
+      <c r="CJ1" s="59"/>
+      <c r="CK1" s="59"/>
+      <c r="CL1" s="59"/>
+      <c r="CM1" s="59"/>
+      <c r="CN1" s="59"/>
+      <c r="CO1" s="59"/>
+      <c r="CP1" s="59"/>
+      <c r="CQ1" s="59"/>
+      <c r="CR1" s="59"/>
+      <c r="CS1" s="59"/>
+      <c r="CT1" s="59">
         <f>CD1+Parameters!$B$7</f>
         <v>89</v>
       </c>
-      <c r="CU1" s="58"/>
-      <c r="CV1" s="58"/>
-      <c r="CW1" s="58"/>
-      <c r="CX1" s="58"/>
-      <c r="CY1" s="58"/>
-      <c r="CZ1" s="58"/>
-      <c r="DA1" s="58"/>
-      <c r="DB1" s="58"/>
-      <c r="DC1" s="58"/>
-      <c r="DD1" s="58"/>
-      <c r="DE1" s="58"/>
-      <c r="DF1" s="58"/>
-      <c r="DG1" s="58"/>
-      <c r="DH1" s="58"/>
-      <c r="DI1" s="58"/>
-      <c r="DJ1" s="58">
+      <c r="CU1" s="59"/>
+      <c r="CV1" s="59"/>
+      <c r="CW1" s="59"/>
+      <c r="CX1" s="59"/>
+      <c r="CY1" s="59"/>
+      <c r="CZ1" s="59"/>
+      <c r="DA1" s="59"/>
+      <c r="DB1" s="59"/>
+      <c r="DC1" s="59"/>
+      <c r="DD1" s="59"/>
+      <c r="DE1" s="59"/>
+      <c r="DF1" s="59"/>
+      <c r="DG1" s="59"/>
+      <c r="DH1" s="59"/>
+      <c r="DI1" s="59"/>
+      <c r="DJ1" s="59">
         <f>CT1+Parameters!$B$7</f>
         <v>97</v>
       </c>
-      <c r="DK1" s="58"/>
-      <c r="DL1" s="58"/>
-      <c r="DM1" s="58"/>
-      <c r="DN1" s="58"/>
-      <c r="DO1" s="58"/>
-      <c r="DP1" s="58"/>
-      <c r="DQ1" s="58"/>
-      <c r="DR1" s="58"/>
-      <c r="DS1" s="58"/>
-      <c r="DT1" s="58"/>
-      <c r="DU1" s="58"/>
-      <c r="DV1" s="58"/>
-      <c r="DW1" s="58"/>
-      <c r="DX1" s="58"/>
-      <c r="DY1" s="58"/>
-      <c r="DZ1" s="58">
+      <c r="DK1" s="59"/>
+      <c r="DL1" s="59"/>
+      <c r="DM1" s="59"/>
+      <c r="DN1" s="59"/>
+      <c r="DO1" s="59"/>
+      <c r="DP1" s="59"/>
+      <c r="DQ1" s="59"/>
+      <c r="DR1" s="59"/>
+      <c r="DS1" s="59"/>
+      <c r="DT1" s="59"/>
+      <c r="DU1" s="59"/>
+      <c r="DV1" s="59"/>
+      <c r="DW1" s="59"/>
+      <c r="DX1" s="59"/>
+      <c r="DY1" s="59"/>
+      <c r="DZ1" s="59">
         <f>DJ1+Parameters!$B$7</f>
         <v>105</v>
       </c>
-      <c r="EA1" s="58"/>
-      <c r="EB1" s="58"/>
-      <c r="EC1" s="58"/>
-      <c r="ED1" s="58"/>
-      <c r="EE1" s="58"/>
-      <c r="EF1" s="58"/>
-      <c r="EG1" s="58"/>
-      <c r="EH1" s="58"/>
-      <c r="EI1" s="58"/>
-      <c r="EJ1" s="58"/>
-      <c r="EK1" s="58"/>
-      <c r="EL1" s="58"/>
-      <c r="EM1" s="58"/>
-      <c r="EN1" s="58"/>
-      <c r="EO1" s="58"/>
-      <c r="EP1" s="58">
+      <c r="EA1" s="59"/>
+      <c r="EB1" s="59"/>
+      <c r="EC1" s="59"/>
+      <c r="ED1" s="59"/>
+      <c r="EE1" s="59"/>
+      <c r="EF1" s="59"/>
+      <c r="EG1" s="59"/>
+      <c r="EH1" s="59"/>
+      <c r="EI1" s="59"/>
+      <c r="EJ1" s="59"/>
+      <c r="EK1" s="59"/>
+      <c r="EL1" s="59"/>
+      <c r="EM1" s="59"/>
+      <c r="EN1" s="59"/>
+      <c r="EO1" s="59"/>
+      <c r="EP1" s="59">
         <f>DZ1+Parameters!$B$7</f>
         <v>113</v>
       </c>
-      <c r="EQ1" s="58"/>
-      <c r="ER1" s="58"/>
-      <c r="ES1" s="58"/>
-      <c r="ET1" s="58"/>
-      <c r="EU1" s="58"/>
-      <c r="EV1" s="58"/>
-      <c r="EW1" s="58"/>
-      <c r="EX1" s="58"/>
-      <c r="EY1" s="58"/>
-      <c r="EZ1" s="58"/>
-      <c r="FA1" s="58"/>
-      <c r="FB1" s="58"/>
-      <c r="FC1" s="58"/>
-      <c r="FD1" s="58"/>
-      <c r="FE1" s="58"/>
-      <c r="FF1" s="58">
+      <c r="EQ1" s="59"/>
+      <c r="ER1" s="59"/>
+      <c r="ES1" s="59"/>
+      <c r="ET1" s="59"/>
+      <c r="EU1" s="59"/>
+      <c r="EV1" s="59"/>
+      <c r="EW1" s="59"/>
+      <c r="EX1" s="59"/>
+      <c r="EY1" s="59"/>
+      <c r="EZ1" s="59"/>
+      <c r="FA1" s="59"/>
+      <c r="FB1" s="59"/>
+      <c r="FC1" s="59"/>
+      <c r="FD1" s="59"/>
+      <c r="FE1" s="59"/>
+      <c r="FF1" s="59">
         <f>EP1+Parameters!$B$7</f>
         <v>121</v>
       </c>
-      <c r="FG1" s="58"/>
-      <c r="FH1" s="58"/>
-      <c r="FI1" s="58"/>
-      <c r="FJ1" s="58"/>
-      <c r="FK1" s="58"/>
-      <c r="FL1" s="58"/>
-      <c r="FM1" s="58"/>
-      <c r="FN1" s="58"/>
-      <c r="FO1" s="58"/>
-      <c r="FP1" s="58"/>
-      <c r="FQ1" s="58"/>
-      <c r="FR1" s="58"/>
-      <c r="FS1" s="58"/>
-      <c r="FT1" s="58"/>
-      <c r="FU1" s="58"/>
-      <c r="FV1" s="58">
+      <c r="FG1" s="59"/>
+      <c r="FH1" s="59"/>
+      <c r="FI1" s="59"/>
+      <c r="FJ1" s="59"/>
+      <c r="FK1" s="59"/>
+      <c r="FL1" s="59"/>
+      <c r="FM1" s="59"/>
+      <c r="FN1" s="59"/>
+      <c r="FO1" s="59"/>
+      <c r="FP1" s="59"/>
+      <c r="FQ1" s="59"/>
+      <c r="FR1" s="59"/>
+      <c r="FS1" s="59"/>
+      <c r="FT1" s="59"/>
+      <c r="FU1" s="59"/>
+      <c r="FV1" s="59">
         <f>FF1+Parameters!$B$7</f>
         <v>129</v>
       </c>
-      <c r="FW1" s="58"/>
-      <c r="FX1" s="58"/>
-      <c r="FY1" s="58"/>
-      <c r="FZ1" s="58"/>
-      <c r="GA1" s="58"/>
-      <c r="GB1" s="58"/>
-      <c r="GC1" s="58"/>
-      <c r="GD1" s="58"/>
-      <c r="GE1" s="58"/>
-      <c r="GF1" s="58"/>
-      <c r="GG1" s="58"/>
-      <c r="GH1" s="58"/>
-      <c r="GI1" s="58"/>
-      <c r="GJ1" s="58"/>
-      <c r="GK1" s="58"/>
-      <c r="GL1" s="58">
+      <c r="FW1" s="59"/>
+      <c r="FX1" s="59"/>
+      <c r="FY1" s="59"/>
+      <c r="FZ1" s="59"/>
+      <c r="GA1" s="59"/>
+      <c r="GB1" s="59"/>
+      <c r="GC1" s="59"/>
+      <c r="GD1" s="59"/>
+      <c r="GE1" s="59"/>
+      <c r="GF1" s="59"/>
+      <c r="GG1" s="59"/>
+      <c r="GH1" s="59"/>
+      <c r="GI1" s="59"/>
+      <c r="GJ1" s="59"/>
+      <c r="GK1" s="59"/>
+      <c r="GL1" s="59">
         <f>FV1+Parameters!$B$7</f>
         <v>137</v>
       </c>
-      <c r="GM1" s="58"/>
-      <c r="GN1" s="58"/>
-      <c r="GO1" s="58"/>
-      <c r="GP1" s="58"/>
-      <c r="GQ1" s="58"/>
-      <c r="GR1" s="58"/>
-      <c r="GS1" s="58"/>
-      <c r="GT1" s="58"/>
-      <c r="GU1" s="58"/>
-      <c r="GV1" s="58"/>
-      <c r="GW1" s="58"/>
-      <c r="GX1" s="58"/>
-      <c r="GY1" s="58"/>
-      <c r="GZ1" s="58"/>
-      <c r="HA1" s="58"/>
-      <c r="HB1" s="58">
+      <c r="GM1" s="59"/>
+      <c r="GN1" s="59"/>
+      <c r="GO1" s="59"/>
+      <c r="GP1" s="59"/>
+      <c r="GQ1" s="59"/>
+      <c r="GR1" s="59"/>
+      <c r="GS1" s="59"/>
+      <c r="GT1" s="59"/>
+      <c r="GU1" s="59"/>
+      <c r="GV1" s="59"/>
+      <c r="GW1" s="59"/>
+      <c r="GX1" s="59"/>
+      <c r="GY1" s="59"/>
+      <c r="GZ1" s="59"/>
+      <c r="HA1" s="59"/>
+      <c r="HB1" s="59">
         <f>GL1+Parameters!$B$7</f>
         <v>145</v>
       </c>
-      <c r="HC1" s="58"/>
-      <c r="HD1" s="58"/>
-      <c r="HE1" s="58"/>
-      <c r="HF1" s="58"/>
-      <c r="HG1" s="58"/>
-      <c r="HH1" s="58"/>
-      <c r="HI1" s="58"/>
-      <c r="HJ1" s="58"/>
-      <c r="HK1" s="58"/>
-      <c r="HL1" s="58"/>
-      <c r="HM1" s="58"/>
-      <c r="HN1" s="58"/>
-      <c r="HO1" s="58"/>
-      <c r="HP1" s="58"/>
-      <c r="HQ1" s="58"/>
-      <c r="HR1" s="58">
+      <c r="HC1" s="59"/>
+      <c r="HD1" s="59"/>
+      <c r="HE1" s="59"/>
+      <c r="HF1" s="59"/>
+      <c r="HG1" s="59"/>
+      <c r="HH1" s="59"/>
+      <c r="HI1" s="59"/>
+      <c r="HJ1" s="59"/>
+      <c r="HK1" s="59"/>
+      <c r="HL1" s="59"/>
+      <c r="HM1" s="59"/>
+      <c r="HN1" s="59"/>
+      <c r="HO1" s="59"/>
+      <c r="HP1" s="59"/>
+      <c r="HQ1" s="59"/>
+      <c r="HR1" s="59">
         <f>HB1+Parameters!$B$7</f>
         <v>153</v>
       </c>
-      <c r="HS1" s="58"/>
-      <c r="HT1" s="58"/>
-      <c r="HU1" s="58"/>
-      <c r="HV1" s="58"/>
-      <c r="HW1" s="58"/>
-      <c r="HX1" s="58"/>
-      <c r="HY1" s="58"/>
-      <c r="HZ1" s="58"/>
-      <c r="IA1" s="58"/>
-      <c r="IB1" s="58"/>
-      <c r="IC1" s="58"/>
-      <c r="ID1" s="58"/>
-      <c r="IE1" s="58"/>
-      <c r="IF1" s="58"/>
-      <c r="IG1" s="58"/>
-      <c r="IH1" s="58">
+      <c r="HS1" s="59"/>
+      <c r="HT1" s="59"/>
+      <c r="HU1" s="59"/>
+      <c r="HV1" s="59"/>
+      <c r="HW1" s="59"/>
+      <c r="HX1" s="59"/>
+      <c r="HY1" s="59"/>
+      <c r="HZ1" s="59"/>
+      <c r="IA1" s="59"/>
+      <c r="IB1" s="59"/>
+      <c r="IC1" s="59"/>
+      <c r="ID1" s="59"/>
+      <c r="IE1" s="59"/>
+      <c r="IF1" s="59"/>
+      <c r="IG1" s="59"/>
+      <c r="IH1" s="59">
         <f>HR1+Parameters!$B$7</f>
         <v>161</v>
       </c>
-      <c r="II1" s="58"/>
-      <c r="IJ1" s="58"/>
-      <c r="IK1" s="58"/>
-      <c r="IL1" s="58"/>
-      <c r="IM1" s="58"/>
-      <c r="IN1" s="58"/>
-      <c r="IO1" s="58"/>
-      <c r="IP1" s="58"/>
-      <c r="IQ1" s="58"/>
-      <c r="IR1" s="58"/>
-      <c r="IS1" s="58"/>
-      <c r="IT1" s="58"/>
-      <c r="IU1" s="58"/>
-      <c r="IV1" s="58"/>
-      <c r="IW1" s="58"/>
+      <c r="II1" s="59"/>
+      <c r="IJ1" s="59"/>
+      <c r="IK1" s="59"/>
+      <c r="IL1" s="59"/>
+      <c r="IM1" s="59"/>
+      <c r="IN1" s="59"/>
+      <c r="IO1" s="59"/>
+      <c r="IP1" s="59"/>
+      <c r="IQ1" s="59"/>
+      <c r="IR1" s="59"/>
+      <c r="IS1" s="59"/>
+      <c r="IT1" s="59"/>
+      <c r="IU1" s="59"/>
+      <c r="IV1" s="59"/>
+      <c r="IW1" s="59"/>
     </row>
     <row r="2" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="59">
         <f>1/16</f>
         <v>6.25E-2</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59">
         <f>B2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58">
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59">
         <f t="shared" ref="AH2" si="0">R2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58">
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59">
         <f t="shared" ref="AX2" si="1">AH2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="58"/>
-      <c r="BC2" s="58"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
-      <c r="BJ2" s="58"/>
-      <c r="BK2" s="58"/>
-      <c r="BL2" s="58"/>
-      <c r="BM2" s="58"/>
-      <c r="BN2" s="58">
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="59"/>
+      <c r="BC2" s="59"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="59"/>
+      <c r="BF2" s="59"/>
+      <c r="BG2" s="59"/>
+      <c r="BH2" s="59"/>
+      <c r="BI2" s="59"/>
+      <c r="BJ2" s="59"/>
+      <c r="BK2" s="59"/>
+      <c r="BL2" s="59"/>
+      <c r="BM2" s="59"/>
+      <c r="BN2" s="59">
         <f t="shared" ref="BN2" si="2">AX2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="BO2" s="58"/>
-      <c r="BP2" s="58"/>
-      <c r="BQ2" s="58"/>
-      <c r="BR2" s="58"/>
-      <c r="BS2" s="58"/>
-      <c r="BT2" s="58"/>
-      <c r="BU2" s="58"/>
-      <c r="BV2" s="58"/>
-      <c r="BW2" s="58"/>
-      <c r="BX2" s="58"/>
-      <c r="BY2" s="58"/>
-      <c r="BZ2" s="58"/>
-      <c r="CA2" s="58"/>
-      <c r="CB2" s="58"/>
-      <c r="CC2" s="58"/>
-      <c r="CD2" s="58">
+      <c r="BO2" s="59"/>
+      <c r="BP2" s="59"/>
+      <c r="BQ2" s="59"/>
+      <c r="BR2" s="59"/>
+      <c r="BS2" s="59"/>
+      <c r="BT2" s="59"/>
+      <c r="BU2" s="59"/>
+      <c r="BV2" s="59"/>
+      <c r="BW2" s="59"/>
+      <c r="BX2" s="59"/>
+      <c r="BY2" s="59"/>
+      <c r="BZ2" s="59"/>
+      <c r="CA2" s="59"/>
+      <c r="CB2" s="59"/>
+      <c r="CC2" s="59"/>
+      <c r="CD2" s="59">
         <f t="shared" ref="CD2" si="3">BN2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="CE2" s="58"/>
-      <c r="CF2" s="58"/>
-      <c r="CG2" s="58"/>
-      <c r="CH2" s="58"/>
-      <c r="CI2" s="58"/>
-      <c r="CJ2" s="58"/>
-      <c r="CK2" s="58"/>
-      <c r="CL2" s="58"/>
-      <c r="CM2" s="58"/>
-      <c r="CN2" s="58"/>
-      <c r="CO2" s="58"/>
-      <c r="CP2" s="58"/>
-      <c r="CQ2" s="58"/>
-      <c r="CR2" s="58"/>
-      <c r="CS2" s="58"/>
-      <c r="CT2" s="58">
+      <c r="CE2" s="59"/>
+      <c r="CF2" s="59"/>
+      <c r="CG2" s="59"/>
+      <c r="CH2" s="59"/>
+      <c r="CI2" s="59"/>
+      <c r="CJ2" s="59"/>
+      <c r="CK2" s="59"/>
+      <c r="CL2" s="59"/>
+      <c r="CM2" s="59"/>
+      <c r="CN2" s="59"/>
+      <c r="CO2" s="59"/>
+      <c r="CP2" s="59"/>
+      <c r="CQ2" s="59"/>
+      <c r="CR2" s="59"/>
+      <c r="CS2" s="59"/>
+      <c r="CT2" s="59">
         <f t="shared" ref="CT2" si="4">CD2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="CU2" s="58"/>
-      <c r="CV2" s="58"/>
-      <c r="CW2" s="58"/>
-      <c r="CX2" s="58"/>
-      <c r="CY2" s="58"/>
-      <c r="CZ2" s="58"/>
-      <c r="DA2" s="58"/>
-      <c r="DB2" s="58"/>
-      <c r="DC2" s="58"/>
-      <c r="DD2" s="58"/>
-      <c r="DE2" s="58"/>
-      <c r="DF2" s="58"/>
-      <c r="DG2" s="58"/>
-      <c r="DH2" s="58"/>
-      <c r="DI2" s="58"/>
-      <c r="DJ2" s="58">
+      <c r="CU2" s="59"/>
+      <c r="CV2" s="59"/>
+      <c r="CW2" s="59"/>
+      <c r="CX2" s="59"/>
+      <c r="CY2" s="59"/>
+      <c r="CZ2" s="59"/>
+      <c r="DA2" s="59"/>
+      <c r="DB2" s="59"/>
+      <c r="DC2" s="59"/>
+      <c r="DD2" s="59"/>
+      <c r="DE2" s="59"/>
+      <c r="DF2" s="59"/>
+      <c r="DG2" s="59"/>
+      <c r="DH2" s="59"/>
+      <c r="DI2" s="59"/>
+      <c r="DJ2" s="59">
         <f t="shared" ref="DJ2" si="5">CT2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="DK2" s="58"/>
-      <c r="DL2" s="58"/>
-      <c r="DM2" s="58"/>
-      <c r="DN2" s="58"/>
-      <c r="DO2" s="58"/>
-      <c r="DP2" s="58"/>
-      <c r="DQ2" s="58"/>
-      <c r="DR2" s="58"/>
-      <c r="DS2" s="58"/>
-      <c r="DT2" s="58"/>
-      <c r="DU2" s="58"/>
-      <c r="DV2" s="58"/>
-      <c r="DW2" s="58"/>
-      <c r="DX2" s="58"/>
-      <c r="DY2" s="58"/>
-      <c r="DZ2" s="58">
+      <c r="DK2" s="59"/>
+      <c r="DL2" s="59"/>
+      <c r="DM2" s="59"/>
+      <c r="DN2" s="59"/>
+      <c r="DO2" s="59"/>
+      <c r="DP2" s="59"/>
+      <c r="DQ2" s="59"/>
+      <c r="DR2" s="59"/>
+      <c r="DS2" s="59"/>
+      <c r="DT2" s="59"/>
+      <c r="DU2" s="59"/>
+      <c r="DV2" s="59"/>
+      <c r="DW2" s="59"/>
+      <c r="DX2" s="59"/>
+      <c r="DY2" s="59"/>
+      <c r="DZ2" s="59">
         <f t="shared" ref="DZ2" si="6">DJ2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="EA2" s="58"/>
-      <c r="EB2" s="58"/>
-      <c r="EC2" s="58"/>
-      <c r="ED2" s="58"/>
-      <c r="EE2" s="58"/>
-      <c r="EF2" s="58"/>
-      <c r="EG2" s="58"/>
-      <c r="EH2" s="58"/>
-      <c r="EI2" s="58"/>
-      <c r="EJ2" s="58"/>
-      <c r="EK2" s="58"/>
-      <c r="EL2" s="58"/>
-      <c r="EM2" s="58"/>
-      <c r="EN2" s="58"/>
-      <c r="EO2" s="58"/>
-      <c r="EP2" s="58">
+      <c r="EA2" s="59"/>
+      <c r="EB2" s="59"/>
+      <c r="EC2" s="59"/>
+      <c r="ED2" s="59"/>
+      <c r="EE2" s="59"/>
+      <c r="EF2" s="59"/>
+      <c r="EG2" s="59"/>
+      <c r="EH2" s="59"/>
+      <c r="EI2" s="59"/>
+      <c r="EJ2" s="59"/>
+      <c r="EK2" s="59"/>
+      <c r="EL2" s="59"/>
+      <c r="EM2" s="59"/>
+      <c r="EN2" s="59"/>
+      <c r="EO2" s="59"/>
+      <c r="EP2" s="59">
         <f t="shared" ref="EP2" si="7">DZ2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="EQ2" s="58"/>
-      <c r="ER2" s="58"/>
-      <c r="ES2" s="58"/>
-      <c r="ET2" s="58"/>
-      <c r="EU2" s="58"/>
-      <c r="EV2" s="58"/>
-      <c r="EW2" s="58"/>
-      <c r="EX2" s="58"/>
-      <c r="EY2" s="58"/>
-      <c r="EZ2" s="58"/>
-      <c r="FA2" s="58"/>
-      <c r="FB2" s="58"/>
-      <c r="FC2" s="58"/>
-      <c r="FD2" s="58"/>
-      <c r="FE2" s="58"/>
-      <c r="FF2" s="58">
+      <c r="EQ2" s="59"/>
+      <c r="ER2" s="59"/>
+      <c r="ES2" s="59"/>
+      <c r="ET2" s="59"/>
+      <c r="EU2" s="59"/>
+      <c r="EV2" s="59"/>
+      <c r="EW2" s="59"/>
+      <c r="EX2" s="59"/>
+      <c r="EY2" s="59"/>
+      <c r="EZ2" s="59"/>
+      <c r="FA2" s="59"/>
+      <c r="FB2" s="59"/>
+      <c r="FC2" s="59"/>
+      <c r="FD2" s="59"/>
+      <c r="FE2" s="59"/>
+      <c r="FF2" s="59">
         <f t="shared" ref="FF2" si="8">EP2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="FG2" s="58"/>
-      <c r="FH2" s="58"/>
-      <c r="FI2" s="58"/>
-      <c r="FJ2" s="58"/>
-      <c r="FK2" s="58"/>
-      <c r="FL2" s="58"/>
-      <c r="FM2" s="58"/>
-      <c r="FN2" s="58"/>
-      <c r="FO2" s="58"/>
-      <c r="FP2" s="58"/>
-      <c r="FQ2" s="58"/>
-      <c r="FR2" s="58"/>
-      <c r="FS2" s="58"/>
-      <c r="FT2" s="58"/>
-      <c r="FU2" s="58"/>
-      <c r="FV2" s="58">
+      <c r="FG2" s="59"/>
+      <c r="FH2" s="59"/>
+      <c r="FI2" s="59"/>
+      <c r="FJ2" s="59"/>
+      <c r="FK2" s="59"/>
+      <c r="FL2" s="59"/>
+      <c r="FM2" s="59"/>
+      <c r="FN2" s="59"/>
+      <c r="FO2" s="59"/>
+      <c r="FP2" s="59"/>
+      <c r="FQ2" s="59"/>
+      <c r="FR2" s="59"/>
+      <c r="FS2" s="59"/>
+      <c r="FT2" s="59"/>
+      <c r="FU2" s="59"/>
+      <c r="FV2" s="59">
         <f t="shared" ref="FV2" si="9">FF2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="FW2" s="58"/>
-      <c r="FX2" s="58"/>
-      <c r="FY2" s="58"/>
-      <c r="FZ2" s="58"/>
-      <c r="GA2" s="58"/>
-      <c r="GB2" s="58"/>
-      <c r="GC2" s="58"/>
-      <c r="GD2" s="58"/>
-      <c r="GE2" s="58"/>
-      <c r="GF2" s="58"/>
-      <c r="GG2" s="58"/>
-      <c r="GH2" s="58"/>
-      <c r="GI2" s="58"/>
-      <c r="GJ2" s="58"/>
-      <c r="GK2" s="58"/>
-      <c r="GL2" s="58">
+      <c r="FW2" s="59"/>
+      <c r="FX2" s="59"/>
+      <c r="FY2" s="59"/>
+      <c r="FZ2" s="59"/>
+      <c r="GA2" s="59"/>
+      <c r="GB2" s="59"/>
+      <c r="GC2" s="59"/>
+      <c r="GD2" s="59"/>
+      <c r="GE2" s="59"/>
+      <c r="GF2" s="59"/>
+      <c r="GG2" s="59"/>
+      <c r="GH2" s="59"/>
+      <c r="GI2" s="59"/>
+      <c r="GJ2" s="59"/>
+      <c r="GK2" s="59"/>
+      <c r="GL2" s="59">
         <f t="shared" ref="GL2" si="10">FV2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="GM2" s="58"/>
-      <c r="GN2" s="58"/>
-      <c r="GO2" s="58"/>
-      <c r="GP2" s="58"/>
-      <c r="GQ2" s="58"/>
-      <c r="GR2" s="58"/>
-      <c r="GS2" s="58"/>
-      <c r="GT2" s="58"/>
-      <c r="GU2" s="58"/>
-      <c r="GV2" s="58"/>
-      <c r="GW2" s="58"/>
-      <c r="GX2" s="58"/>
-      <c r="GY2" s="58"/>
-      <c r="GZ2" s="58"/>
-      <c r="HA2" s="58"/>
-      <c r="HB2" s="58">
+      <c r="GM2" s="59"/>
+      <c r="GN2" s="59"/>
+      <c r="GO2" s="59"/>
+      <c r="GP2" s="59"/>
+      <c r="GQ2" s="59"/>
+      <c r="GR2" s="59"/>
+      <c r="GS2" s="59"/>
+      <c r="GT2" s="59"/>
+      <c r="GU2" s="59"/>
+      <c r="GV2" s="59"/>
+      <c r="GW2" s="59"/>
+      <c r="GX2" s="59"/>
+      <c r="GY2" s="59"/>
+      <c r="GZ2" s="59"/>
+      <c r="HA2" s="59"/>
+      <c r="HB2" s="59">
         <f t="shared" ref="HB2" si="11">GL2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="HC2" s="58"/>
-      <c r="HD2" s="58"/>
-      <c r="HE2" s="58"/>
-      <c r="HF2" s="58"/>
-      <c r="HG2" s="58"/>
-      <c r="HH2" s="58"/>
-      <c r="HI2" s="58"/>
-      <c r="HJ2" s="58"/>
-      <c r="HK2" s="58"/>
-      <c r="HL2" s="58"/>
-      <c r="HM2" s="58"/>
-      <c r="HN2" s="58"/>
-      <c r="HO2" s="58"/>
-      <c r="HP2" s="58"/>
-      <c r="HQ2" s="58"/>
-      <c r="HR2" s="58">
+      <c r="HC2" s="59"/>
+      <c r="HD2" s="59"/>
+      <c r="HE2" s="59"/>
+      <c r="HF2" s="59"/>
+      <c r="HG2" s="59"/>
+      <c r="HH2" s="59"/>
+      <c r="HI2" s="59"/>
+      <c r="HJ2" s="59"/>
+      <c r="HK2" s="59"/>
+      <c r="HL2" s="59"/>
+      <c r="HM2" s="59"/>
+      <c r="HN2" s="59"/>
+      <c r="HO2" s="59"/>
+      <c r="HP2" s="59"/>
+      <c r="HQ2" s="59"/>
+      <c r="HR2" s="59">
         <f t="shared" ref="HR2" si="12">HB2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="HS2" s="58"/>
-      <c r="HT2" s="58"/>
-      <c r="HU2" s="58"/>
-      <c r="HV2" s="58"/>
-      <c r="HW2" s="58"/>
-      <c r="HX2" s="58"/>
-      <c r="HY2" s="58"/>
-      <c r="HZ2" s="58"/>
-      <c r="IA2" s="58"/>
-      <c r="IB2" s="58"/>
-      <c r="IC2" s="58"/>
-      <c r="ID2" s="58"/>
-      <c r="IE2" s="58"/>
-      <c r="IF2" s="58"/>
-      <c r="IG2" s="58"/>
-      <c r="IH2" s="58">
+      <c r="HS2" s="59"/>
+      <c r="HT2" s="59"/>
+      <c r="HU2" s="59"/>
+      <c r="HV2" s="59"/>
+      <c r="HW2" s="59"/>
+      <c r="HX2" s="59"/>
+      <c r="HY2" s="59"/>
+      <c r="HZ2" s="59"/>
+      <c r="IA2" s="59"/>
+      <c r="IB2" s="59"/>
+      <c r="IC2" s="59"/>
+      <c r="ID2" s="59"/>
+      <c r="IE2" s="59"/>
+      <c r="IF2" s="59"/>
+      <c r="IG2" s="59"/>
+      <c r="IH2" s="59">
         <f t="shared" ref="IH2" si="13">HR2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="II2" s="58"/>
-      <c r="IJ2" s="58"/>
-      <c r="IK2" s="58"/>
-      <c r="IL2" s="58"/>
-      <c r="IM2" s="58"/>
-      <c r="IN2" s="58"/>
-      <c r="IO2" s="58"/>
-      <c r="IP2" s="58"/>
-      <c r="IQ2" s="58"/>
-      <c r="IR2" s="58"/>
-      <c r="IS2" s="58"/>
-      <c r="IT2" s="58"/>
-      <c r="IU2" s="58"/>
-      <c r="IV2" s="58"/>
-      <c r="IW2" s="58"/>
+      <c r="II2" s="59"/>
+      <c r="IJ2" s="59"/>
+      <c r="IK2" s="59"/>
+      <c r="IL2" s="59"/>
+      <c r="IM2" s="59"/>
+      <c r="IN2" s="59"/>
+      <c r="IO2" s="59"/>
+      <c r="IP2" s="59"/>
+      <c r="IQ2" s="59"/>
+      <c r="IR2" s="59"/>
+      <c r="IS2" s="59"/>
+      <c r="IT2" s="59"/>
+      <c r="IU2" s="59"/>
+      <c r="IV2" s="59"/>
+      <c r="IW2" s="59"/>
     </row>
     <row r="3" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="65">
         <v>9</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="64">
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="65">
         <v>9</v>
       </c>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="64">
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="65">
         <v>9</v>
       </c>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="65"/>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="64">
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="66"/>
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="65">
         <v>9</v>
       </c>
-      <c r="AY3" s="65"/>
-      <c r="AZ3" s="65"/>
-      <c r="BA3" s="65"/>
-      <c r="BB3" s="65"/>
-      <c r="BC3" s="65"/>
-      <c r="BD3" s="65"/>
-      <c r="BE3" s="65"/>
-      <c r="BF3" s="65"/>
-      <c r="BG3" s="65"/>
-      <c r="BH3" s="65"/>
-      <c r="BI3" s="65"/>
-      <c r="BJ3" s="65"/>
-      <c r="BK3" s="65"/>
-      <c r="BL3" s="65"/>
-      <c r="BM3" s="66"/>
-      <c r="BN3" s="64">
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="66"/>
+      <c r="BA3" s="66"/>
+      <c r="BB3" s="66"/>
+      <c r="BC3" s="66"/>
+      <c r="BD3" s="66"/>
+      <c r="BE3" s="66"/>
+      <c r="BF3" s="66"/>
+      <c r="BG3" s="66"/>
+      <c r="BH3" s="66"/>
+      <c r="BI3" s="66"/>
+      <c r="BJ3" s="66"/>
+      <c r="BK3" s="66"/>
+      <c r="BL3" s="66"/>
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="65">
         <v>17</v>
       </c>
-      <c r="BO3" s="65"/>
-      <c r="BP3" s="65"/>
-      <c r="BQ3" s="65"/>
-      <c r="BR3" s="65"/>
-      <c r="BS3" s="65"/>
-      <c r="BT3" s="65"/>
-      <c r="BU3" s="65"/>
-      <c r="BV3" s="65"/>
-      <c r="BW3" s="65"/>
-      <c r="BX3" s="65"/>
-      <c r="BY3" s="65"/>
-      <c r="BZ3" s="65"/>
-      <c r="CA3" s="65"/>
-      <c r="CB3" s="65"/>
-      <c r="CC3" s="66"/>
-      <c r="CD3" s="64">
+      <c r="BO3" s="66"/>
+      <c r="BP3" s="66"/>
+      <c r="BQ3" s="66"/>
+      <c r="BR3" s="66"/>
+      <c r="BS3" s="66"/>
+      <c r="BT3" s="66"/>
+      <c r="BU3" s="66"/>
+      <c r="BV3" s="66"/>
+      <c r="BW3" s="66"/>
+      <c r="BX3" s="66"/>
+      <c r="BY3" s="66"/>
+      <c r="BZ3" s="66"/>
+      <c r="CA3" s="66"/>
+      <c r="CB3" s="66"/>
+      <c r="CC3" s="67"/>
+      <c r="CD3" s="65">
         <v>17</v>
       </c>
-      <c r="CE3" s="65"/>
-      <c r="CF3" s="65"/>
-      <c r="CG3" s="65"/>
-      <c r="CH3" s="65"/>
-      <c r="CI3" s="65"/>
-      <c r="CJ3" s="65"/>
-      <c r="CK3" s="65"/>
-      <c r="CL3" s="65"/>
-      <c r="CM3" s="65"/>
-      <c r="CN3" s="65"/>
-      <c r="CO3" s="65"/>
-      <c r="CP3" s="65"/>
-      <c r="CQ3" s="65"/>
-      <c r="CR3" s="65"/>
-      <c r="CS3" s="66"/>
-      <c r="CT3" s="64">
+      <c r="CE3" s="66"/>
+      <c r="CF3" s="66"/>
+      <c r="CG3" s="66"/>
+      <c r="CH3" s="66"/>
+      <c r="CI3" s="66"/>
+      <c r="CJ3" s="66"/>
+      <c r="CK3" s="66"/>
+      <c r="CL3" s="66"/>
+      <c r="CM3" s="66"/>
+      <c r="CN3" s="66"/>
+      <c r="CO3" s="66"/>
+      <c r="CP3" s="66"/>
+      <c r="CQ3" s="66"/>
+      <c r="CR3" s="66"/>
+      <c r="CS3" s="67"/>
+      <c r="CT3" s="65">
         <v>17</v>
       </c>
-      <c r="CU3" s="65"/>
-      <c r="CV3" s="65"/>
-      <c r="CW3" s="65"/>
-      <c r="CX3" s="65"/>
-      <c r="CY3" s="65"/>
-      <c r="CZ3" s="65"/>
-      <c r="DA3" s="65"/>
-      <c r="DB3" s="65"/>
-      <c r="DC3" s="65"/>
-      <c r="DD3" s="65"/>
-      <c r="DE3" s="65"/>
-      <c r="DF3" s="65"/>
-      <c r="DG3" s="65"/>
-      <c r="DH3" s="65"/>
-      <c r="DI3" s="66"/>
-      <c r="DJ3" s="64">
+      <c r="CU3" s="66"/>
+      <c r="CV3" s="66"/>
+      <c r="CW3" s="66"/>
+      <c r="CX3" s="66"/>
+      <c r="CY3" s="66"/>
+      <c r="CZ3" s="66"/>
+      <c r="DA3" s="66"/>
+      <c r="DB3" s="66"/>
+      <c r="DC3" s="66"/>
+      <c r="DD3" s="66"/>
+      <c r="DE3" s="66"/>
+      <c r="DF3" s="66"/>
+      <c r="DG3" s="66"/>
+      <c r="DH3" s="66"/>
+      <c r="DI3" s="67"/>
+      <c r="DJ3" s="65">
         <v>17</v>
       </c>
-      <c r="DK3" s="65"/>
-      <c r="DL3" s="65"/>
-      <c r="DM3" s="65"/>
-      <c r="DN3" s="65"/>
-      <c r="DO3" s="65"/>
-      <c r="DP3" s="65"/>
-      <c r="DQ3" s="65"/>
-      <c r="DR3" s="65"/>
-      <c r="DS3" s="65"/>
-      <c r="DT3" s="65"/>
-      <c r="DU3" s="65"/>
-      <c r="DV3" s="65"/>
-      <c r="DW3" s="65"/>
-      <c r="DX3" s="65"/>
-      <c r="DY3" s="66"/>
-      <c r="DZ3" s="67">
+      <c r="DK3" s="66"/>
+      <c r="DL3" s="66"/>
+      <c r="DM3" s="66"/>
+      <c r="DN3" s="66"/>
+      <c r="DO3" s="66"/>
+      <c r="DP3" s="66"/>
+      <c r="DQ3" s="66"/>
+      <c r="DR3" s="66"/>
+      <c r="DS3" s="66"/>
+      <c r="DT3" s="66"/>
+      <c r="DU3" s="66"/>
+      <c r="DV3" s="66"/>
+      <c r="DW3" s="66"/>
+      <c r="DX3" s="66"/>
+      <c r="DY3" s="67"/>
+      <c r="DZ3" s="68">
         <v>25</v>
       </c>
-      <c r="EA3" s="62"/>
-      <c r="EB3" s="62"/>
-      <c r="EC3" s="62"/>
-      <c r="ED3" s="62"/>
-      <c r="EE3" s="62"/>
-      <c r="EF3" s="62"/>
-      <c r="EG3" s="62"/>
-      <c r="EH3" s="62"/>
-      <c r="EI3" s="62"/>
-      <c r="EJ3" s="62"/>
-      <c r="EK3" s="62"/>
-      <c r="EL3" s="62"/>
-      <c r="EM3" s="62"/>
-      <c r="EN3" s="62"/>
-      <c r="EO3" s="63"/>
-      <c r="EP3" s="61">
+      <c r="EA3" s="63"/>
+      <c r="EB3" s="63"/>
+      <c r="EC3" s="63"/>
+      <c r="ED3" s="63"/>
+      <c r="EE3" s="63"/>
+      <c r="EF3" s="63"/>
+      <c r="EG3" s="63"/>
+      <c r="EH3" s="63"/>
+      <c r="EI3" s="63"/>
+      <c r="EJ3" s="63"/>
+      <c r="EK3" s="63"/>
+      <c r="EL3" s="63"/>
+      <c r="EM3" s="63"/>
+      <c r="EN3" s="63"/>
+      <c r="EO3" s="64"/>
+      <c r="EP3" s="62">
         <v>25</v>
       </c>
-      <c r="EQ3" s="62"/>
-      <c r="ER3" s="62"/>
-      <c r="ES3" s="62"/>
-      <c r="ET3" s="62"/>
-      <c r="EU3" s="62"/>
-      <c r="EV3" s="62"/>
-      <c r="EW3" s="62"/>
-      <c r="EX3" s="62"/>
-      <c r="EY3" s="62"/>
-      <c r="EZ3" s="62"/>
-      <c r="FA3" s="62"/>
-      <c r="FB3" s="62"/>
-      <c r="FC3" s="62"/>
-      <c r="FD3" s="62"/>
-      <c r="FE3" s="63"/>
-      <c r="FF3" s="61">
+      <c r="EQ3" s="63"/>
+      <c r="ER3" s="63"/>
+      <c r="ES3" s="63"/>
+      <c r="ET3" s="63"/>
+      <c r="EU3" s="63"/>
+      <c r="EV3" s="63"/>
+      <c r="EW3" s="63"/>
+      <c r="EX3" s="63"/>
+      <c r="EY3" s="63"/>
+      <c r="EZ3" s="63"/>
+      <c r="FA3" s="63"/>
+      <c r="FB3" s="63"/>
+      <c r="FC3" s="63"/>
+      <c r="FD3" s="63"/>
+      <c r="FE3" s="64"/>
+      <c r="FF3" s="62">
         <v>25</v>
       </c>
-      <c r="FG3" s="62"/>
-      <c r="FH3" s="62"/>
-      <c r="FI3" s="62"/>
-      <c r="FJ3" s="62"/>
-      <c r="FK3" s="62"/>
-      <c r="FL3" s="62"/>
-      <c r="FM3" s="62"/>
-      <c r="FN3" s="62"/>
-      <c r="FO3" s="62"/>
-      <c r="FP3" s="62"/>
-      <c r="FQ3" s="62"/>
-      <c r="FR3" s="62"/>
-      <c r="FS3" s="62"/>
-      <c r="FT3" s="62"/>
-      <c r="FU3" s="63"/>
-      <c r="FV3" s="61">
+      <c r="FG3" s="63"/>
+      <c r="FH3" s="63"/>
+      <c r="FI3" s="63"/>
+      <c r="FJ3" s="63"/>
+      <c r="FK3" s="63"/>
+      <c r="FL3" s="63"/>
+      <c r="FM3" s="63"/>
+      <c r="FN3" s="63"/>
+      <c r="FO3" s="63"/>
+      <c r="FP3" s="63"/>
+      <c r="FQ3" s="63"/>
+      <c r="FR3" s="63"/>
+      <c r="FS3" s="63"/>
+      <c r="FT3" s="63"/>
+      <c r="FU3" s="64"/>
+      <c r="FV3" s="62">
         <v>25</v>
       </c>
-      <c r="FW3" s="62"/>
-      <c r="FX3" s="62"/>
-      <c r="FY3" s="62"/>
-      <c r="FZ3" s="62"/>
-      <c r="GA3" s="62"/>
-      <c r="GB3" s="62"/>
-      <c r="GC3" s="62"/>
-      <c r="GD3" s="62"/>
-      <c r="GE3" s="62"/>
-      <c r="GF3" s="62"/>
-      <c r="GG3" s="62"/>
-      <c r="GH3" s="62"/>
-      <c r="GI3" s="62"/>
-      <c r="GJ3" s="62"/>
-      <c r="GK3" s="63"/>
-      <c r="GL3" s="61">
+      <c r="FW3" s="63"/>
+      <c r="FX3" s="63"/>
+      <c r="FY3" s="63"/>
+      <c r="FZ3" s="63"/>
+      <c r="GA3" s="63"/>
+      <c r="GB3" s="63"/>
+      <c r="GC3" s="63"/>
+      <c r="GD3" s="63"/>
+      <c r="GE3" s="63"/>
+      <c r="GF3" s="63"/>
+      <c r="GG3" s="63"/>
+      <c r="GH3" s="63"/>
+      <c r="GI3" s="63"/>
+      <c r="GJ3" s="63"/>
+      <c r="GK3" s="64"/>
+      <c r="GL3" s="62">
         <v>33</v>
       </c>
-      <c r="GM3" s="62"/>
-      <c r="GN3" s="62"/>
-      <c r="GO3" s="62"/>
-      <c r="GP3" s="62"/>
-      <c r="GQ3" s="62"/>
-      <c r="GR3" s="62"/>
-      <c r="GS3" s="62"/>
-      <c r="GT3" s="62"/>
-      <c r="GU3" s="62"/>
-      <c r="GV3" s="62"/>
-      <c r="GW3" s="62"/>
-      <c r="GX3" s="62"/>
-      <c r="GY3" s="62"/>
-      <c r="GZ3" s="62"/>
-      <c r="HA3" s="63"/>
-      <c r="HB3" s="61">
+      <c r="GM3" s="63"/>
+      <c r="GN3" s="63"/>
+      <c r="GO3" s="63"/>
+      <c r="GP3" s="63"/>
+      <c r="GQ3" s="63"/>
+      <c r="GR3" s="63"/>
+      <c r="GS3" s="63"/>
+      <c r="GT3" s="63"/>
+      <c r="GU3" s="63"/>
+      <c r="GV3" s="63"/>
+      <c r="GW3" s="63"/>
+      <c r="GX3" s="63"/>
+      <c r="GY3" s="63"/>
+      <c r="GZ3" s="63"/>
+      <c r="HA3" s="64"/>
+      <c r="HB3" s="62">
         <v>33</v>
       </c>
-      <c r="HC3" s="62"/>
-      <c r="HD3" s="62"/>
-      <c r="HE3" s="62"/>
-      <c r="HF3" s="62"/>
-      <c r="HG3" s="62"/>
-      <c r="HH3" s="62"/>
-      <c r="HI3" s="62"/>
-      <c r="HJ3" s="62"/>
-      <c r="HK3" s="62"/>
-      <c r="HL3" s="62"/>
-      <c r="HM3" s="62"/>
-      <c r="HN3" s="62"/>
-      <c r="HO3" s="62"/>
-      <c r="HP3" s="62"/>
-      <c r="HQ3" s="63"/>
-      <c r="HR3" s="61">
+      <c r="HC3" s="63"/>
+      <c r="HD3" s="63"/>
+      <c r="HE3" s="63"/>
+      <c r="HF3" s="63"/>
+      <c r="HG3" s="63"/>
+      <c r="HH3" s="63"/>
+      <c r="HI3" s="63"/>
+      <c r="HJ3" s="63"/>
+      <c r="HK3" s="63"/>
+      <c r="HL3" s="63"/>
+      <c r="HM3" s="63"/>
+      <c r="HN3" s="63"/>
+      <c r="HO3" s="63"/>
+      <c r="HP3" s="63"/>
+      <c r="HQ3" s="64"/>
+      <c r="HR3" s="62">
         <v>33</v>
       </c>
-      <c r="HS3" s="62"/>
-      <c r="HT3" s="62"/>
-      <c r="HU3" s="62"/>
-      <c r="HV3" s="62"/>
-      <c r="HW3" s="62"/>
-      <c r="HX3" s="62"/>
-      <c r="HY3" s="62"/>
-      <c r="HZ3" s="62"/>
-      <c r="IA3" s="62"/>
-      <c r="IB3" s="62"/>
-      <c r="IC3" s="62"/>
-      <c r="ID3" s="62"/>
-      <c r="IE3" s="62"/>
-      <c r="IF3" s="62"/>
-      <c r="IG3" s="63"/>
-      <c r="IH3" s="61">
+      <c r="HS3" s="63"/>
+      <c r="HT3" s="63"/>
+      <c r="HU3" s="63"/>
+      <c r="HV3" s="63"/>
+      <c r="HW3" s="63"/>
+      <c r="HX3" s="63"/>
+      <c r="HY3" s="63"/>
+      <c r="HZ3" s="63"/>
+      <c r="IA3" s="63"/>
+      <c r="IB3" s="63"/>
+      <c r="IC3" s="63"/>
+      <c r="ID3" s="63"/>
+      <c r="IE3" s="63"/>
+      <c r="IF3" s="63"/>
+      <c r="IG3" s="64"/>
+      <c r="IH3" s="62">
         <v>33</v>
       </c>
-      <c r="II3" s="62"/>
-      <c r="IJ3" s="62"/>
-      <c r="IK3" s="62"/>
-      <c r="IL3" s="62"/>
-      <c r="IM3" s="62"/>
-      <c r="IN3" s="62"/>
-      <c r="IO3" s="62"/>
-      <c r="IP3" s="62"/>
-      <c r="IQ3" s="62"/>
-      <c r="IR3" s="62"/>
-      <c r="IS3" s="62"/>
-      <c r="IT3" s="62"/>
-      <c r="IU3" s="62"/>
-      <c r="IV3" s="62"/>
-      <c r="IW3" s="63"/>
+      <c r="II3" s="63"/>
+      <c r="IJ3" s="63"/>
+      <c r="IK3" s="63"/>
+      <c r="IL3" s="63"/>
+      <c r="IM3" s="63"/>
+      <c r="IN3" s="63"/>
+      <c r="IO3" s="63"/>
+      <c r="IP3" s="63"/>
+      <c r="IQ3" s="63"/>
+      <c r="IR3" s="63"/>
+      <c r="IS3" s="63"/>
+      <c r="IT3" s="63"/>
+      <c r="IU3" s="63"/>
+      <c r="IV3" s="63"/>
+      <c r="IW3" s="64"/>
     </row>
     <row r="4" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="59" t="s">
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="60" t="s">
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="59" t="s">
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="60" t="s">
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="59" t="s">
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="61"/>
+      <c r="AS4" s="61"/>
+      <c r="AT4" s="61"/>
+      <c r="AU4" s="61"/>
+      <c r="AV4" s="61"/>
+      <c r="AW4" s="61"/>
+      <c r="AX4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AY4" s="59"/>
-      <c r="AZ4" s="59"/>
-      <c r="BA4" s="59"/>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="59"/>
-      <c r="BF4" s="60" t="s">
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="60"/>
+      <c r="BC4" s="60"/>
+      <c r="BD4" s="60"/>
+      <c r="BE4" s="60"/>
+      <c r="BF4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="BG4" s="60"/>
-      <c r="BH4" s="60"/>
-      <c r="BI4" s="60"/>
-      <c r="BJ4" s="60"/>
-      <c r="BK4" s="60"/>
-      <c r="BL4" s="60"/>
-      <c r="BM4" s="60"/>
-      <c r="BN4" s="59" t="s">
+      <c r="BG4" s="61"/>
+      <c r="BH4" s="61"/>
+      <c r="BI4" s="61"/>
+      <c r="BJ4" s="61"/>
+      <c r="BK4" s="61"/>
+      <c r="BL4" s="61"/>
+      <c r="BM4" s="61"/>
+      <c r="BN4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="BO4" s="59"/>
-      <c r="BP4" s="59"/>
-      <c r="BQ4" s="59"/>
-      <c r="BR4" s="59"/>
-      <c r="BS4" s="59"/>
-      <c r="BT4" s="59"/>
-      <c r="BU4" s="59"/>
-      <c r="BV4" s="60" t="s">
+      <c r="BO4" s="60"/>
+      <c r="BP4" s="60"/>
+      <c r="BQ4" s="60"/>
+      <c r="BR4" s="60"/>
+      <c r="BS4" s="60"/>
+      <c r="BT4" s="60"/>
+      <c r="BU4" s="60"/>
+      <c r="BV4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="BW4" s="60"/>
-      <c r="BX4" s="60"/>
-      <c r="BY4" s="60"/>
-      <c r="BZ4" s="60"/>
-      <c r="CA4" s="60"/>
-      <c r="CB4" s="60"/>
-      <c r="CC4" s="60"/>
-      <c r="CD4" s="59" t="s">
+      <c r="BW4" s="61"/>
+      <c r="BX4" s="61"/>
+      <c r="BY4" s="61"/>
+      <c r="BZ4" s="61"/>
+      <c r="CA4" s="61"/>
+      <c r="CB4" s="61"/>
+      <c r="CC4" s="61"/>
+      <c r="CD4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="CE4" s="59"/>
-      <c r="CF4" s="59"/>
-      <c r="CG4" s="59"/>
-      <c r="CH4" s="59"/>
-      <c r="CI4" s="59"/>
-      <c r="CJ4" s="59"/>
-      <c r="CK4" s="59"/>
-      <c r="CL4" s="60" t="s">
+      <c r="CE4" s="60"/>
+      <c r="CF4" s="60"/>
+      <c r="CG4" s="60"/>
+      <c r="CH4" s="60"/>
+      <c r="CI4" s="60"/>
+      <c r="CJ4" s="60"/>
+      <c r="CK4" s="60"/>
+      <c r="CL4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="CM4" s="60"/>
-      <c r="CN4" s="60"/>
-      <c r="CO4" s="60"/>
-      <c r="CP4" s="60"/>
-      <c r="CQ4" s="60"/>
-      <c r="CR4" s="60"/>
-      <c r="CS4" s="60"/>
-      <c r="CT4" s="59" t="s">
+      <c r="CM4" s="61"/>
+      <c r="CN4" s="61"/>
+      <c r="CO4" s="61"/>
+      <c r="CP4" s="61"/>
+      <c r="CQ4" s="61"/>
+      <c r="CR4" s="61"/>
+      <c r="CS4" s="61"/>
+      <c r="CT4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="CU4" s="59"/>
-      <c r="CV4" s="59"/>
-      <c r="CW4" s="59"/>
-      <c r="CX4" s="59"/>
-      <c r="CY4" s="59"/>
-      <c r="CZ4" s="59"/>
-      <c r="DA4" s="59"/>
-      <c r="DB4" s="60" t="s">
+      <c r="CU4" s="60"/>
+      <c r="CV4" s="60"/>
+      <c r="CW4" s="60"/>
+      <c r="CX4" s="60"/>
+      <c r="CY4" s="60"/>
+      <c r="CZ4" s="60"/>
+      <c r="DA4" s="60"/>
+      <c r="DB4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="DC4" s="60"/>
-      <c r="DD4" s="60"/>
-      <c r="DE4" s="60"/>
-      <c r="DF4" s="60"/>
-      <c r="DG4" s="60"/>
-      <c r="DH4" s="60"/>
-      <c r="DI4" s="60"/>
-      <c r="DJ4" s="59" t="s">
+      <c r="DC4" s="61"/>
+      <c r="DD4" s="61"/>
+      <c r="DE4" s="61"/>
+      <c r="DF4" s="61"/>
+      <c r="DG4" s="61"/>
+      <c r="DH4" s="61"/>
+      <c r="DI4" s="61"/>
+      <c r="DJ4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="DK4" s="59"/>
-      <c r="DL4" s="59"/>
-      <c r="DM4" s="59"/>
-      <c r="DN4" s="59"/>
-      <c r="DO4" s="59"/>
-      <c r="DP4" s="59"/>
-      <c r="DQ4" s="59"/>
-      <c r="DR4" s="60" t="s">
+      <c r="DK4" s="60"/>
+      <c r="DL4" s="60"/>
+      <c r="DM4" s="60"/>
+      <c r="DN4" s="60"/>
+      <c r="DO4" s="60"/>
+      <c r="DP4" s="60"/>
+      <c r="DQ4" s="60"/>
+      <c r="DR4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="DS4" s="60"/>
-      <c r="DT4" s="60"/>
-      <c r="DU4" s="60"/>
-      <c r="DV4" s="60"/>
-      <c r="DW4" s="60"/>
-      <c r="DX4" s="60"/>
-      <c r="DY4" s="60"/>
-      <c r="DZ4" s="59" t="s">
+      <c r="DS4" s="61"/>
+      <c r="DT4" s="61"/>
+      <c r="DU4" s="61"/>
+      <c r="DV4" s="61"/>
+      <c r="DW4" s="61"/>
+      <c r="DX4" s="61"/>
+      <c r="DY4" s="61"/>
+      <c r="DZ4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="EA4" s="59"/>
-      <c r="EB4" s="59"/>
-      <c r="EC4" s="59"/>
-      <c r="ED4" s="59"/>
-      <c r="EE4" s="59"/>
-      <c r="EF4" s="59"/>
-      <c r="EG4" s="59"/>
-      <c r="EH4" s="60" t="s">
+      <c r="EA4" s="60"/>
+      <c r="EB4" s="60"/>
+      <c r="EC4" s="60"/>
+      <c r="ED4" s="60"/>
+      <c r="EE4" s="60"/>
+      <c r="EF4" s="60"/>
+      <c r="EG4" s="60"/>
+      <c r="EH4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="EI4" s="60"/>
-      <c r="EJ4" s="60"/>
-      <c r="EK4" s="60"/>
-      <c r="EL4" s="60"/>
-      <c r="EM4" s="60"/>
-      <c r="EN4" s="60"/>
-      <c r="EO4" s="60"/>
-      <c r="EP4" s="59" t="s">
+      <c r="EI4" s="61"/>
+      <c r="EJ4" s="61"/>
+      <c r="EK4" s="61"/>
+      <c r="EL4" s="61"/>
+      <c r="EM4" s="61"/>
+      <c r="EN4" s="61"/>
+      <c r="EO4" s="61"/>
+      <c r="EP4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="EQ4" s="59"/>
-      <c r="ER4" s="59"/>
-      <c r="ES4" s="59"/>
-      <c r="ET4" s="59"/>
-      <c r="EU4" s="59"/>
-      <c r="EV4" s="59"/>
-      <c r="EW4" s="59"/>
-      <c r="EX4" s="60" t="s">
+      <c r="EQ4" s="60"/>
+      <c r="ER4" s="60"/>
+      <c r="ES4" s="60"/>
+      <c r="ET4" s="60"/>
+      <c r="EU4" s="60"/>
+      <c r="EV4" s="60"/>
+      <c r="EW4" s="60"/>
+      <c r="EX4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="EY4" s="60"/>
-      <c r="EZ4" s="60"/>
-      <c r="FA4" s="60"/>
-      <c r="FB4" s="60"/>
-      <c r="FC4" s="60"/>
-      <c r="FD4" s="60"/>
-      <c r="FE4" s="60"/>
-      <c r="FF4" s="59" t="s">
+      <c r="EY4" s="61"/>
+      <c r="EZ4" s="61"/>
+      <c r="FA4" s="61"/>
+      <c r="FB4" s="61"/>
+      <c r="FC4" s="61"/>
+      <c r="FD4" s="61"/>
+      <c r="FE4" s="61"/>
+      <c r="FF4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="FG4" s="59"/>
-      <c r="FH4" s="59"/>
-      <c r="FI4" s="59"/>
-      <c r="FJ4" s="59"/>
-      <c r="FK4" s="59"/>
-      <c r="FL4" s="59"/>
-      <c r="FM4" s="59"/>
-      <c r="FN4" s="60" t="s">
+      <c r="FG4" s="60"/>
+      <c r="FH4" s="60"/>
+      <c r="FI4" s="60"/>
+      <c r="FJ4" s="60"/>
+      <c r="FK4" s="60"/>
+      <c r="FL4" s="60"/>
+      <c r="FM4" s="60"/>
+      <c r="FN4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="FO4" s="60"/>
-      <c r="FP4" s="60"/>
-      <c r="FQ4" s="60"/>
-      <c r="FR4" s="60"/>
-      <c r="FS4" s="60"/>
-      <c r="FT4" s="60"/>
-      <c r="FU4" s="60"/>
-      <c r="FV4" s="59" t="s">
+      <c r="FO4" s="61"/>
+      <c r="FP4" s="61"/>
+      <c r="FQ4" s="61"/>
+      <c r="FR4" s="61"/>
+      <c r="FS4" s="61"/>
+      <c r="FT4" s="61"/>
+      <c r="FU4" s="61"/>
+      <c r="FV4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="FW4" s="59"/>
-      <c r="FX4" s="59"/>
-      <c r="FY4" s="59"/>
-      <c r="FZ4" s="59"/>
-      <c r="GA4" s="59"/>
-      <c r="GB4" s="59"/>
-      <c r="GC4" s="59"/>
-      <c r="GD4" s="60" t="s">
+      <c r="FW4" s="60"/>
+      <c r="FX4" s="60"/>
+      <c r="FY4" s="60"/>
+      <c r="FZ4" s="60"/>
+      <c r="GA4" s="60"/>
+      <c r="GB4" s="60"/>
+      <c r="GC4" s="60"/>
+      <c r="GD4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="GE4" s="60"/>
-      <c r="GF4" s="60"/>
-      <c r="GG4" s="60"/>
-      <c r="GH4" s="60"/>
-      <c r="GI4" s="60"/>
-      <c r="GJ4" s="60"/>
-      <c r="GK4" s="60"/>
-      <c r="GL4" s="59" t="s">
+      <c r="GE4" s="61"/>
+      <c r="GF4" s="61"/>
+      <c r="GG4" s="61"/>
+      <c r="GH4" s="61"/>
+      <c r="GI4" s="61"/>
+      <c r="GJ4" s="61"/>
+      <c r="GK4" s="61"/>
+      <c r="GL4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="GM4" s="59"/>
-      <c r="GN4" s="59"/>
-      <c r="GO4" s="59"/>
-      <c r="GP4" s="59"/>
-      <c r="GQ4" s="59"/>
-      <c r="GR4" s="59"/>
-      <c r="GS4" s="59"/>
-      <c r="GT4" s="60" t="s">
+      <c r="GM4" s="60"/>
+      <c r="GN4" s="60"/>
+      <c r="GO4" s="60"/>
+      <c r="GP4" s="60"/>
+      <c r="GQ4" s="60"/>
+      <c r="GR4" s="60"/>
+      <c r="GS4" s="60"/>
+      <c r="GT4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="GU4" s="60"/>
-      <c r="GV4" s="60"/>
-      <c r="GW4" s="60"/>
-      <c r="GX4" s="60"/>
-      <c r="GY4" s="60"/>
-      <c r="GZ4" s="60"/>
-      <c r="HA4" s="60"/>
-      <c r="HB4" s="59" t="s">
+      <c r="GU4" s="61"/>
+      <c r="GV4" s="61"/>
+      <c r="GW4" s="61"/>
+      <c r="GX4" s="61"/>
+      <c r="GY4" s="61"/>
+      <c r="GZ4" s="61"/>
+      <c r="HA4" s="61"/>
+      <c r="HB4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="HC4" s="59"/>
-      <c r="HD4" s="59"/>
-      <c r="HE4" s="59"/>
-      <c r="HF4" s="59"/>
-      <c r="HG4" s="59"/>
-      <c r="HH4" s="59"/>
-      <c r="HI4" s="59"/>
-      <c r="HJ4" s="60" t="s">
+      <c r="HC4" s="60"/>
+      <c r="HD4" s="60"/>
+      <c r="HE4" s="60"/>
+      <c r="HF4" s="60"/>
+      <c r="HG4" s="60"/>
+      <c r="HH4" s="60"/>
+      <c r="HI4" s="60"/>
+      <c r="HJ4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="HK4" s="60"/>
-      <c r="HL4" s="60"/>
-      <c r="HM4" s="60"/>
-      <c r="HN4" s="60"/>
-      <c r="HO4" s="60"/>
-      <c r="HP4" s="60"/>
-      <c r="HQ4" s="60"/>
-      <c r="HR4" s="59" t="s">
+      <c r="HK4" s="61"/>
+      <c r="HL4" s="61"/>
+      <c r="HM4" s="61"/>
+      <c r="HN4" s="61"/>
+      <c r="HO4" s="61"/>
+      <c r="HP4" s="61"/>
+      <c r="HQ4" s="61"/>
+      <c r="HR4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="HS4" s="59"/>
-      <c r="HT4" s="59"/>
-      <c r="HU4" s="59"/>
-      <c r="HV4" s="59"/>
-      <c r="HW4" s="59"/>
-      <c r="HX4" s="59"/>
-      <c r="HY4" s="59"/>
-      <c r="HZ4" s="60" t="s">
+      <c r="HS4" s="60"/>
+      <c r="HT4" s="60"/>
+      <c r="HU4" s="60"/>
+      <c r="HV4" s="60"/>
+      <c r="HW4" s="60"/>
+      <c r="HX4" s="60"/>
+      <c r="HY4" s="60"/>
+      <c r="HZ4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="IA4" s="60"/>
-      <c r="IB4" s="60"/>
-      <c r="IC4" s="60"/>
-      <c r="ID4" s="60"/>
-      <c r="IE4" s="60"/>
-      <c r="IF4" s="60"/>
-      <c r="IG4" s="60"/>
-      <c r="IH4" s="59" t="s">
+      <c r="IA4" s="61"/>
+      <c r="IB4" s="61"/>
+      <c r="IC4" s="61"/>
+      <c r="ID4" s="61"/>
+      <c r="IE4" s="61"/>
+      <c r="IF4" s="61"/>
+      <c r="IG4" s="61"/>
+      <c r="IH4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="II4" s="59"/>
-      <c r="IJ4" s="59"/>
-      <c r="IK4" s="59"/>
-      <c r="IL4" s="59"/>
-      <c r="IM4" s="59"/>
-      <c r="IN4" s="59"/>
-      <c r="IO4" s="59"/>
-      <c r="IP4" s="60" t="s">
+      <c r="II4" s="60"/>
+      <c r="IJ4" s="60"/>
+      <c r="IK4" s="60"/>
+      <c r="IL4" s="60"/>
+      <c r="IM4" s="60"/>
+      <c r="IN4" s="60"/>
+      <c r="IO4" s="60"/>
+      <c r="IP4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="IQ4" s="60"/>
-      <c r="IR4" s="60"/>
-      <c r="IS4" s="60"/>
-      <c r="IT4" s="60"/>
-      <c r="IU4" s="60"/>
-      <c r="IV4" s="60"/>
-      <c r="IW4" s="60"/>
+      <c r="IQ4" s="61"/>
+      <c r="IR4" s="61"/>
+      <c r="IS4" s="61"/>
+      <c r="IT4" s="61"/>
+      <c r="IU4" s="61"/>
+      <c r="IV4" s="61"/>
+      <c r="IW4" s="61"/>
     </row>
     <row r="5" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -23189,7 +23152,7 @@
       </c>
       <c r="G6" s="2">
         <f>'Demand Stage 2'!G5</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H6" s="2">
         <f>'Demand Stage 2'!H5</f>
@@ -23253,7 +23216,7 @@
       </c>
       <c r="W6" s="2">
         <f>'Demand Stage 2'!G5</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="X6" s="2">
         <f>'Demand Stage 2'!H5</f>
@@ -23317,7 +23280,7 @@
       </c>
       <c r="AM6" s="2">
         <f>'Demand Stage 2'!G5</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="AN6" s="2">
         <f>'Demand Stage 2'!H5</f>
@@ -23381,7 +23344,7 @@
       </c>
       <c r="BC6" s="2">
         <f>'Demand Stage 2'!G5</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BD6" s="2">
         <f>'Demand Stage 2'!H5</f>
@@ -23445,7 +23408,7 @@
       </c>
       <c r="BS6" s="2">
         <f>'Demand Stage 2'!W5</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BT6" s="2">
         <f>'Demand Stage 2'!X5</f>
@@ -23509,7 +23472,7 @@
       </c>
       <c r="CI6" s="2">
         <f t="shared" si="14"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="CJ6" s="2">
         <f t="shared" si="14"/>
@@ -23573,7 +23536,7 @@
       </c>
       <c r="CY6" s="2">
         <f t="shared" si="16"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="CZ6" s="2">
         <f t="shared" si="16"/>
@@ -23637,7 +23600,7 @@
       </c>
       <c r="DO6" s="2">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="DP6" s="2">
         <f t="shared" si="24"/>
@@ -23701,7 +23664,7 @@
       </c>
       <c r="EE6" s="2">
         <f>'Demand Stage 2'!AM5</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="EF6" s="2">
         <f>'Demand Stage 2'!AN5</f>
@@ -23765,7 +23728,7 @@
       </c>
       <c r="EU6" s="2">
         <f t="shared" si="26"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="EV6" s="2">
         <f t="shared" si="26"/>
@@ -23829,7 +23792,7 @@
       </c>
       <c r="FK6" s="2">
         <f t="shared" si="28"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="FL6" s="2">
         <f t="shared" si="28"/>
@@ -23893,7 +23856,7 @@
       </c>
       <c r="GA6" s="2">
         <f t="shared" si="30"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="GB6" s="2">
         <f t="shared" si="30"/>
@@ -23957,7 +23920,7 @@
       </c>
       <c r="GQ6" s="2">
         <f>'Demand Stage 2'!BC5</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="GR6" s="2">
         <f>'Demand Stage 2'!BD5</f>
@@ -24021,7 +23984,7 @@
       </c>
       <c r="HG6" s="2">
         <f t="shared" si="32"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="HH6" s="2">
         <f t="shared" si="32"/>
@@ -24085,7 +24048,7 @@
       </c>
       <c r="HW6" s="2">
         <f t="shared" si="34"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="HX6" s="2">
         <f t="shared" si="34"/>
@@ -24149,7 +24112,7 @@
       </c>
       <c r="IM6" s="2">
         <f t="shared" si="36"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="IN6" s="2">
         <f t="shared" si="36"/>
@@ -24218,7 +24181,7 @@
       </c>
       <c r="G7" s="2">
         <f>'Demand Stage 2'!G6</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H7" s="2">
         <f>'Demand Stage 2'!H6</f>
@@ -24282,7 +24245,7 @@
       </c>
       <c r="W7" s="2">
         <f>'Demand Stage 2'!G6</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="X7" s="2">
         <f>'Demand Stage 2'!H6</f>
@@ -24346,7 +24309,7 @@
       </c>
       <c r="AM7" s="2">
         <f>'Demand Stage 2'!G6</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="AN7" s="2">
         <f>'Demand Stage 2'!H6</f>
@@ -24410,7 +24373,7 @@
       </c>
       <c r="BC7" s="2">
         <f>'Demand Stage 2'!G6</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BD7" s="2">
         <f>'Demand Stage 2'!H6</f>
@@ -24474,7 +24437,7 @@
       </c>
       <c r="BS7" s="2">
         <f>'Demand Stage 2'!W6</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BT7" s="2">
         <f>'Demand Stage 2'!X6</f>
@@ -24538,7 +24501,7 @@
       </c>
       <c r="CI7" s="2">
         <f t="shared" si="14"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="CJ7" s="2">
         <f t="shared" si="14"/>
@@ -24602,7 +24565,7 @@
       </c>
       <c r="CY7" s="2">
         <f t="shared" si="16"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="CZ7" s="2">
         <f t="shared" si="16"/>
@@ -24666,7 +24629,7 @@
       </c>
       <c r="DO7" s="2">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="DP7" s="2">
         <f t="shared" si="24"/>
@@ -24730,7 +24693,7 @@
       </c>
       <c r="EE7" s="2">
         <f>'Demand Stage 2'!AM6</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="EF7" s="2">
         <f>'Demand Stage 2'!AN6</f>
@@ -24794,7 +24757,7 @@
       </c>
       <c r="EU7" s="2">
         <f t="shared" si="26"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="EV7" s="2">
         <f t="shared" si="26"/>
@@ -24858,7 +24821,7 @@
       </c>
       <c r="FK7" s="2">
         <f t="shared" si="28"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="FL7" s="2">
         <f t="shared" si="28"/>
@@ -24922,7 +24885,7 @@
       </c>
       <c r="GA7" s="2">
         <f t="shared" si="30"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="GB7" s="2">
         <f t="shared" si="30"/>
@@ -24986,7 +24949,7 @@
       </c>
       <c r="GQ7" s="2">
         <f>'Demand Stage 2'!BC6</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="GR7" s="2">
         <f>'Demand Stage 2'!BD6</f>
@@ -25050,7 +25013,7 @@
       </c>
       <c r="HG7" s="2">
         <f t="shared" si="32"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="HH7" s="2">
         <f t="shared" si="32"/>
@@ -25114,7 +25077,7 @@
       </c>
       <c r="HW7" s="2">
         <f t="shared" si="34"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="HX7" s="2">
         <f t="shared" si="34"/>
@@ -25178,7 +25141,7 @@
       </c>
       <c r="IM7" s="2">
         <f t="shared" si="36"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="IN7" s="2">
         <f t="shared" si="36"/>
@@ -25247,7 +25210,7 @@
       </c>
       <c r="G8" s="2">
         <f>'Demand Stage 2'!G7</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H8" s="2">
         <f>'Demand Stage 2'!H7</f>
@@ -25311,7 +25274,7 @@
       </c>
       <c r="W8" s="2">
         <f>'Demand Stage 2'!G7</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="X8" s="2">
         <f>'Demand Stage 2'!H7</f>
@@ -25375,7 +25338,7 @@
       </c>
       <c r="AM8" s="2">
         <f>'Demand Stage 2'!G7</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="AN8" s="2">
         <f>'Demand Stage 2'!H7</f>
@@ -25439,7 +25402,7 @@
       </c>
       <c r="BC8" s="2">
         <f>'Demand Stage 2'!G7</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BD8" s="2">
         <f>'Demand Stage 2'!H7</f>
@@ -25503,7 +25466,7 @@
       </c>
       <c r="BS8" s="2">
         <f>'Demand Stage 2'!W7</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BT8" s="2">
         <f>'Demand Stage 2'!X7</f>
@@ -25567,7 +25530,7 @@
       </c>
       <c r="CI8" s="2">
         <f t="shared" si="14"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="CJ8" s="2">
         <f t="shared" si="14"/>
@@ -25631,7 +25594,7 @@
       </c>
       <c r="CY8" s="2">
         <f t="shared" si="16"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="CZ8" s="2">
         <f t="shared" si="16"/>
@@ -25695,7 +25658,7 @@
       </c>
       <c r="DO8" s="2">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="DP8" s="2">
         <f t="shared" si="24"/>
@@ -25759,7 +25722,7 @@
       </c>
       <c r="EE8" s="2">
         <f>'Demand Stage 2'!AM7</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="EF8" s="2">
         <f>'Demand Stage 2'!AN7</f>
@@ -25823,7 +25786,7 @@
       </c>
       <c r="EU8" s="2">
         <f t="shared" si="26"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="EV8" s="2">
         <f t="shared" si="26"/>
@@ -25887,7 +25850,7 @@
       </c>
       <c r="FK8" s="2">
         <f t="shared" si="28"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="FL8" s="2">
         <f t="shared" si="28"/>
@@ -25951,7 +25914,7 @@
       </c>
       <c r="GA8" s="2">
         <f t="shared" si="30"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="GB8" s="2">
         <f t="shared" si="30"/>
@@ -26015,7 +25978,7 @@
       </c>
       <c r="GQ8" s="2">
         <f>'Demand Stage 2'!BC7</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="GR8" s="2">
         <f>'Demand Stage 2'!BD7</f>
@@ -26079,7 +26042,7 @@
       </c>
       <c r="HG8" s="2">
         <f t="shared" si="32"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="HH8" s="2">
         <f t="shared" si="32"/>
@@ -26143,7 +26106,7 @@
       </c>
       <c r="HW8" s="2">
         <f t="shared" si="34"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="HX8" s="2">
         <f t="shared" si="34"/>
@@ -26207,7 +26170,7 @@
       </c>
       <c r="IM8" s="2">
         <f t="shared" si="36"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="IN8" s="2">
         <f t="shared" si="36"/>
@@ -26276,7 +26239,7 @@
       </c>
       <c r="G9" s="2">
         <f>'Demand Stage 2'!G8</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H9" s="2">
         <f>'Demand Stage 2'!H8</f>
@@ -26340,7 +26303,7 @@
       </c>
       <c r="W9" s="2">
         <f>'Demand Stage 2'!G8</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="X9" s="2">
         <f>'Demand Stage 2'!H8</f>
@@ -26404,7 +26367,7 @@
       </c>
       <c r="AM9" s="2">
         <f>'Demand Stage 2'!G8</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="AN9" s="2">
         <f>'Demand Stage 2'!H8</f>
@@ -26468,7 +26431,7 @@
       </c>
       <c r="BC9" s="2">
         <f>'Demand Stage 2'!G8</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BD9" s="2">
         <f>'Demand Stage 2'!H8</f>
@@ -26532,7 +26495,7 @@
       </c>
       <c r="BS9" s="2">
         <f>'Demand Stage 2'!W8</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BT9" s="2">
         <f>'Demand Stage 2'!X8</f>
@@ -26596,7 +26559,7 @@
       </c>
       <c r="CI9" s="2">
         <f t="shared" si="14"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="CJ9" s="2">
         <f t="shared" si="14"/>
@@ -26660,7 +26623,7 @@
       </c>
       <c r="CY9" s="2">
         <f t="shared" si="16"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="CZ9" s="2">
         <f t="shared" si="16"/>
@@ -26724,7 +26687,7 @@
       </c>
       <c r="DO9" s="2">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="DP9" s="2">
         <f t="shared" si="24"/>
@@ -26788,7 +26751,7 @@
       </c>
       <c r="EE9" s="2">
         <f>'Demand Stage 2'!AM8</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="EF9" s="2">
         <f>'Demand Stage 2'!AN8</f>
@@ -26852,7 +26815,7 @@
       </c>
       <c r="EU9" s="2">
         <f t="shared" si="26"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="EV9" s="2">
         <f t="shared" si="26"/>
@@ -26916,7 +26879,7 @@
       </c>
       <c r="FK9" s="2">
         <f t="shared" si="28"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="FL9" s="2">
         <f t="shared" si="28"/>
@@ -26980,7 +26943,7 @@
       </c>
       <c r="GA9" s="2">
         <f t="shared" si="30"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="GB9" s="2">
         <f t="shared" si="30"/>
@@ -27044,7 +27007,7 @@
       </c>
       <c r="GQ9" s="2">
         <f>'Demand Stage 2'!BC8</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="GR9" s="2">
         <f>'Demand Stage 2'!BD8</f>
@@ -27108,7 +27071,7 @@
       </c>
       <c r="HG9" s="2">
         <f t="shared" si="32"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="HH9" s="2">
         <f t="shared" si="32"/>
@@ -27172,7 +27135,7 @@
       </c>
       <c r="HW9" s="2">
         <f t="shared" si="34"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="HX9" s="2">
         <f t="shared" si="34"/>
@@ -27236,7 +27199,7 @@
       </c>
       <c r="IM9" s="2">
         <f t="shared" si="36"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="IN9" s="2">
         <f t="shared" si="36"/>
@@ -27305,7 +27268,7 @@
       </c>
       <c r="G10" s="2">
         <f>'Demand Stage 2'!G9</f>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2">
         <f>'Demand Stage 2'!H9</f>
@@ -27345,7 +27308,7 @@
       </c>
       <c r="W10" s="2">
         <f>'Demand Stage 2'!G9</f>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="X10" s="2">
         <f>'Demand Stage 2'!H9</f>
@@ -27385,7 +27348,7 @@
       </c>
       <c r="AM10" s="2">
         <f>'Demand Stage 2'!G9</f>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="AN10" s="2">
         <f>'Demand Stage 2'!H9</f>
@@ -27425,7 +27388,7 @@
       </c>
       <c r="BC10" s="2">
         <f>'Demand Stage 2'!G9</f>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="BD10" s="2">
         <f>'Demand Stage 2'!H9</f>
@@ -27465,7 +27428,7 @@
       </c>
       <c r="BS10" s="2">
         <f>'Demand Stage 2'!W9</f>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="BT10" s="2">
         <f>'Demand Stage 2'!X9</f>
@@ -27505,7 +27468,7 @@
       </c>
       <c r="CI10" s="2">
         <f t="shared" si="14"/>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="CJ10" s="2">
         <f t="shared" si="14"/>
@@ -27545,7 +27508,7 @@
       </c>
       <c r="CY10" s="2">
         <f t="shared" si="16"/>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="CZ10" s="2">
         <f t="shared" si="16"/>
@@ -27585,7 +27548,7 @@
       </c>
       <c r="DO10" s="2">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="DP10" s="2">
         <f t="shared" si="24"/>
@@ -27625,7 +27588,7 @@
       </c>
       <c r="EE10" s="2">
         <f>'Demand Stage 2'!AM9</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EF10" s="2">
         <f>'Demand Stage 2'!AN9</f>
@@ -27665,7 +27628,7 @@
       </c>
       <c r="EU10" s="2">
         <f t="shared" si="26"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EV10" s="2">
         <f t="shared" si="26"/>
@@ -27705,7 +27668,7 @@
       </c>
       <c r="FK10" s="2">
         <f t="shared" si="28"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FL10" s="2">
         <f t="shared" si="28"/>
@@ -27745,7 +27708,7 @@
       </c>
       <c r="GA10" s="2">
         <f t="shared" si="30"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="GB10" s="2">
         <f t="shared" si="30"/>
@@ -27785,7 +27748,7 @@
       </c>
       <c r="GQ10" s="2">
         <f>'Demand Stage 2'!BC9</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="GR10" s="2">
         <f>'Demand Stage 2'!BD9</f>
@@ -27825,7 +27788,7 @@
       </c>
       <c r="HG10" s="2">
         <f t="shared" si="32"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HH10" s="2">
         <f t="shared" si="32"/>
@@ -27865,7 +27828,7 @@
       </c>
       <c r="HW10" s="2">
         <f t="shared" si="34"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HX10" s="2">
         <f t="shared" si="34"/>
@@ -27905,7 +27868,7 @@
       </c>
       <c r="IM10" s="2">
         <f t="shared" si="36"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IN10" s="2">
         <f t="shared" si="36"/>
@@ -27950,7 +27913,7 @@
       </c>
       <c r="G11" s="2">
         <f>'Demand Stage 2'!G10</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H11" s="2">
         <f>'Demand Stage 2'!H10</f>
@@ -27990,7 +27953,7 @@
       </c>
       <c r="W11" s="2">
         <f>'Demand Stage 2'!G10</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="X11" s="2">
         <f>'Demand Stage 2'!H10</f>
@@ -28030,7 +27993,7 @@
       </c>
       <c r="AM11" s="2">
         <f>'Demand Stage 2'!G10</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="AN11" s="2">
         <f>'Demand Stage 2'!H10</f>
@@ -28070,7 +28033,7 @@
       </c>
       <c r="BC11" s="2">
         <f>'Demand Stage 2'!G10</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BD11" s="2">
         <f>'Demand Stage 2'!H10</f>
@@ -28110,7 +28073,7 @@
       </c>
       <c r="BS11" s="2">
         <f>'Demand Stage 2'!W10</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BT11" s="2">
         <f>'Demand Stage 2'!X10</f>
@@ -28150,7 +28113,7 @@
       </c>
       <c r="CI11" s="2">
         <f t="shared" si="14"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="CJ11" s="2">
         <f t="shared" si="14"/>
@@ -28190,7 +28153,7 @@
       </c>
       <c r="CY11" s="2">
         <f t="shared" si="16"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="CZ11" s="2">
         <f t="shared" si="16"/>
@@ -28230,7 +28193,7 @@
       </c>
       <c r="DO11" s="2">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="DP11" s="2">
         <f t="shared" si="24"/>
@@ -28270,7 +28233,7 @@
       </c>
       <c r="EE11" s="2">
         <f>'Demand Stage 2'!AM10</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="EF11" s="2">
         <f>'Demand Stage 2'!AN10</f>
@@ -28310,7 +28273,7 @@
       </c>
       <c r="EU11" s="2">
         <f t="shared" si="26"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="EV11" s="2">
         <f t="shared" si="26"/>
@@ -28350,7 +28313,7 @@
       </c>
       <c r="FK11" s="2">
         <f t="shared" si="28"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="FL11" s="2">
         <f t="shared" si="28"/>
@@ -28390,7 +28353,7 @@
       </c>
       <c r="GA11" s="2">
         <f t="shared" si="30"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="GB11" s="2">
         <f t="shared" si="30"/>
@@ -28430,7 +28393,7 @@
       </c>
       <c r="GQ11" s="2">
         <f>'Demand Stage 2'!BC10</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="GR11" s="2">
         <f>'Demand Stage 2'!BD10</f>
@@ -28470,7 +28433,7 @@
       </c>
       <c r="HG11" s="2">
         <f t="shared" si="32"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="HH11" s="2">
         <f t="shared" si="32"/>
@@ -28510,7 +28473,7 @@
       </c>
       <c r="HW11" s="2">
         <f t="shared" si="34"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="HX11" s="2">
         <f t="shared" si="34"/>
@@ -28550,7 +28513,7 @@
       </c>
       <c r="IM11" s="2">
         <f t="shared" si="36"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="IN11" s="2">
         <f t="shared" si="36"/>
@@ -28595,7 +28558,7 @@
       </c>
       <c r="G12" s="2">
         <f>'Demand Stage 2'!G11</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="H12" s="2">
         <f>'Demand Stage 2'!H11</f>
@@ -28635,7 +28598,7 @@
       </c>
       <c r="W12" s="2">
         <f>'Demand Stage 2'!G11</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="X12" s="2">
         <f>'Demand Stage 2'!H11</f>
@@ -28675,7 +28638,7 @@
       </c>
       <c r="AM12" s="2">
         <f>'Demand Stage 2'!G11</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="AN12" s="2">
         <f>'Demand Stage 2'!H11</f>
@@ -28715,7 +28678,7 @@
       </c>
       <c r="BC12" s="2">
         <f>'Demand Stage 2'!G11</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BD12" s="2">
         <f>'Demand Stage 2'!H11</f>
@@ -28755,7 +28718,7 @@
       </c>
       <c r="BS12" s="2">
         <f>'Demand Stage 2'!W11</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="BT12" s="2">
         <f>'Demand Stage 2'!X11</f>
@@ -28795,7 +28758,7 @@
       </c>
       <c r="CI12" s="2">
         <f t="shared" si="14"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="CJ12" s="2">
         <f t="shared" si="14"/>
@@ -28835,7 +28798,7 @@
       </c>
       <c r="CY12" s="2">
         <f t="shared" si="16"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="CZ12" s="2">
         <f t="shared" si="16"/>
@@ -28875,7 +28838,7 @@
       </c>
       <c r="DO12" s="2">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="DP12" s="2">
         <f t="shared" si="24"/>
@@ -28915,7 +28878,7 @@
       </c>
       <c r="EE12" s="2">
         <f>'Demand Stage 2'!AM11</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="EF12" s="2">
         <f>'Demand Stage 2'!AN11</f>
@@ -28955,7 +28918,7 @@
       </c>
       <c r="EU12" s="2">
         <f t="shared" si="26"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="EV12" s="2">
         <f t="shared" si="26"/>
@@ -28995,7 +28958,7 @@
       </c>
       <c r="FK12" s="2">
         <f t="shared" si="28"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="FL12" s="2">
         <f t="shared" si="28"/>
@@ -29035,7 +28998,7 @@
       </c>
       <c r="GA12" s="2">
         <f t="shared" si="30"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="GB12" s="2">
         <f t="shared" si="30"/>
@@ -29075,7 +29038,7 @@
       </c>
       <c r="GQ12" s="2">
         <f>'Demand Stage 2'!BC11</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="GR12" s="2">
         <f>'Demand Stage 2'!BD11</f>
@@ -29115,7 +29078,7 @@
       </c>
       <c r="HG12" s="2">
         <f t="shared" si="32"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="HH12" s="2">
         <f t="shared" si="32"/>
@@ -29155,7 +29118,7 @@
       </c>
       <c r="HW12" s="2">
         <f t="shared" si="34"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="HX12" s="2">
         <f t="shared" si="34"/>
@@ -29195,7 +29158,7 @@
       </c>
       <c r="IM12" s="2">
         <f t="shared" si="36"/>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="IN12" s="2">
         <f t="shared" si="36"/>
@@ -29240,7 +29203,7 @@
       </c>
       <c r="G13" s="2">
         <f>'Demand Stage 2'!G12</f>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H13" s="2">
         <f>'Demand Stage 2'!H12</f>
@@ -29280,7 +29243,7 @@
       </c>
       <c r="W13" s="2">
         <f>'Demand Stage 2'!G12</f>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="X13" s="2">
         <f>'Demand Stage 2'!H12</f>
@@ -29320,7 +29283,7 @@
       </c>
       <c r="AM13" s="2">
         <f>'Demand Stage 2'!G12</f>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="AN13" s="2">
         <f>'Demand Stage 2'!H12</f>
@@ -29360,7 +29323,7 @@
       </c>
       <c r="BC13" s="2">
         <f>'Demand Stage 2'!G12</f>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="BD13" s="2">
         <f>'Demand Stage 2'!H12</f>
@@ -29400,7 +29363,7 @@
       </c>
       <c r="BS13" s="2">
         <f>'Demand Stage 2'!W12</f>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="BT13" s="2">
         <f>'Demand Stage 2'!X12</f>
@@ -29440,7 +29403,7 @@
       </c>
       <c r="CI13" s="2">
         <f t="shared" si="14"/>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="CJ13" s="2">
         <f t="shared" si="14"/>
@@ -29480,7 +29443,7 @@
       </c>
       <c r="CY13" s="2">
         <f t="shared" si="16"/>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="CZ13" s="2">
         <f>CJ13</f>
@@ -29520,7 +29483,7 @@
       </c>
       <c r="DO13" s="2">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="DP13" s="2">
         <f t="shared" si="24"/>
@@ -29560,7 +29523,7 @@
       </c>
       <c r="EE13" s="2">
         <f>'Demand Stage 2'!AM12</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EF13" s="2">
         <f>'Demand Stage 2'!AN12</f>
@@ -29600,7 +29563,7 @@
       </c>
       <c r="EU13" s="2">
         <f t="shared" si="26"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EV13" s="2">
         <f t="shared" si="26"/>
@@ -29640,7 +29603,7 @@
       </c>
       <c r="FK13" s="2">
         <f t="shared" si="28"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FL13" s="2">
         <f t="shared" si="28"/>
@@ -29680,7 +29643,7 @@
       </c>
       <c r="GA13" s="2">
         <f t="shared" si="30"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="GB13" s="2">
         <f t="shared" si="30"/>
@@ -29720,7 +29683,7 @@
       </c>
       <c r="GQ13" s="2">
         <f>'Demand Stage 2'!BC12</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="GR13" s="2">
         <f>'Demand Stage 2'!BD12</f>
@@ -29760,7 +29723,7 @@
       </c>
       <c r="HG13" s="2">
         <f t="shared" si="32"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HH13" s="2">
         <f t="shared" si="32"/>
@@ -29800,7 +29763,7 @@
       </c>
       <c r="HW13" s="2">
         <f t="shared" si="34"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HX13" s="2">
         <f t="shared" si="34"/>
@@ -29840,7 +29803,7 @@
       </c>
       <c r="IM13" s="2">
         <f t="shared" si="36"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IN13" s="2">
         <f t="shared" si="36"/>
@@ -34136,7 +34099,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34196,17 +34159,17 @@
         <v>28</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I2">
         <v>30</v>
       </c>
       <c r="K2">
         <f>AVERAGE(B2:I2)</f>
-        <v>27.875</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -34229,17 +34192,17 @@
         <v>28</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I3">
         <v>30</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K9" si="0">AVERAGE(B3:I3)</f>
-        <v>27.875</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -34262,17 +34225,17 @@
         <v>28</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I4">
         <v>30</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>27.875</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -34295,17 +34258,17 @@
         <v>28</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I5">
         <v>30</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>27.875</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -34328,17 +34291,17 @@
         <v>30</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I6">
         <v>30</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>29.625</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -34361,17 +34324,17 @@
         <v>29</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I7">
         <v>30</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>28.75</v>
+        <v>29.875</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -34394,17 +34357,17 @@
         <v>29</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H8">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I8">
         <v>30</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>28.75</v>
+        <v>29.875</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -34427,17 +34390,17 @@
         <v>31</v>
       </c>
       <c r="G9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I9">
         <v>30</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>30.5</v>
+        <v>31.125</v>
       </c>
     </row>
   </sheetData>
